--- a/k.xlsx
+++ b/k.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MATLAB GIT\SamplingMethods\SamplingMethods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9377D5D-56E2-4876-AE56-76EB58AD3D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD2EC58-DC8B-4E7E-B527-3573444E07DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="18900" windowHeight="10965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="0" windowWidth="18900" windowHeight="10965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,62 +341,4817 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:BIO1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1601" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B1">
-        <v>71.400000000000006</v>
+        <v>59.881928273669025</v>
       </c>
       <c r="C1">
-        <v>86.93</v>
+        <v>70.791398025520124</v>
       </c>
       <c r="D1">
-        <v>89.23</v>
+        <v>67.127238618982489</v>
       </c>
       <c r="E1">
-        <v>77.94</v>
+        <v>77.417784899841294</v>
       </c>
       <c r="F1">
-        <v>54.78</v>
+        <v>86.021527366030398</v>
       </c>
       <c r="G1">
-        <v>23.29</v>
+        <v>90.394955767286561</v>
       </c>
       <c r="H1">
-        <v>-11.74</v>
+        <v>95.040157151876741</v>
       </c>
       <c r="I1">
-        <v>-45</v>
+        <v>95</v>
       </c>
       <c r="J1">
-        <v>-71.400000000000006</v>
+        <v>91.918124483379131</v>
       </c>
       <c r="K1">
-        <v>-86.93</v>
+        <v>86.595965894063212</v>
       </c>
       <c r="L1">
-        <v>-89.23</v>
+        <v>76.980580132630905</v>
       </c>
       <c r="M1">
-        <v>-77.94</v>
+        <v>65.417784899841294</v>
       </c>
       <c r="N1">
-        <v>-54.78</v>
+        <v>51.458874387613413</v>
       </c>
       <c r="O1">
-        <v>-23.29</v>
+        <v>34.992408152296804</v>
       </c>
       <c r="P1">
-        <v>11.74</v>
+        <v>18.132478607201911</v>
+      </c>
+      <c r="Q1">
+        <v>8.0814309130993539E-15</v>
+      </c>
+      <c r="R1">
+        <v>-18.132478607201875</v>
+      </c>
+      <c r="S1">
+        <v>-34.992408152296782</v>
+      </c>
+      <c r="T1">
+        <v>-51.458874387613385</v>
+      </c>
+      <c r="U1">
+        <v>-65.417784899841308</v>
+      </c>
+      <c r="V1">
+        <v>-76.980580132630891</v>
+      </c>
+      <c r="W1">
+        <v>-86.59596589406317</v>
+      </c>
+      <c r="X1">
+        <v>-91.918124483379131</v>
+      </c>
+      <c r="Y1">
+        <v>-94.999999999999986</v>
+      </c>
+      <c r="Z1">
+        <v>-95.040157151876727</v>
+      </c>
+      <c r="AA1">
+        <v>-90.394955767286561</v>
+      </c>
+      <c r="AB1">
+        <v>-86.02152736603044</v>
+      </c>
+      <c r="AC1">
+        <v>-77.417784899841337</v>
+      </c>
+      <c r="AD1">
+        <v>-67.12723861898246</v>
+      </c>
+      <c r="AE1">
+        <v>-70.791398025520138</v>
+      </c>
+      <c r="AF1">
+        <v>-59.881928273669125</v>
+      </c>
+      <c r="AG1">
+        <v>-8.4743082578450498E-14</v>
+      </c>
+      <c r="AH1">
+        <v>59.881928273669011</v>
+      </c>
+      <c r="AI1">
+        <v>70.791398025520152</v>
+      </c>
+      <c r="AJ1">
+        <v>67.12723861898246</v>
+      </c>
+      <c r="AK1">
+        <v>77.41778489984128</v>
+      </c>
+      <c r="AL1">
+        <v>86.021527366030412</v>
+      </c>
+      <c r="AM1">
+        <v>90.394955767286604</v>
+      </c>
+      <c r="AN1">
+        <v>95.040157151876713</v>
+      </c>
+      <c r="AO1">
+        <v>95</v>
+      </c>
+      <c r="AP1">
+        <v>91.918124483379131</v>
+      </c>
+      <c r="AQ1">
+        <v>86.595965894063241</v>
+      </c>
+      <c r="AR1">
+        <v>76.980580132630948</v>
+      </c>
+      <c r="AS1">
+        <v>65.417784899841379</v>
+      </c>
+      <c r="AT1">
+        <v>51.458874387613456</v>
+      </c>
+      <c r="AU1">
+        <v>34.992408152296846</v>
+      </c>
+      <c r="AV1">
+        <v>18.132478607201879</v>
+      </c>
+      <c r="AW1">
+        <v>2.0691579060497558E-14</v>
+      </c>
+      <c r="AX1">
+        <v>-18.132478607201818</v>
+      </c>
+      <c r="AY1">
+        <v>-34.992408152296818</v>
+      </c>
+      <c r="AZ1">
+        <v>-51.45887438761342</v>
+      </c>
+      <c r="BA1">
+        <v>-65.417784899841322</v>
+      </c>
+      <c r="BB1">
+        <v>-76.980580132630877</v>
+      </c>
+      <c r="BC1">
+        <v>-86.595965894063184</v>
+      </c>
+      <c r="BD1">
+        <v>-91.918124483379088</v>
+      </c>
+      <c r="BE1">
+        <v>-95</v>
+      </c>
+      <c r="BF1">
+        <v>-95.040157151876713</v>
+      </c>
+      <c r="BG1">
+        <v>-90.394955767286589</v>
+      </c>
+      <c r="BH1">
+        <v>-86.021527366030412</v>
+      </c>
+      <c r="BI1">
+        <v>-77.417784899841394</v>
+      </c>
+      <c r="BJ1">
+        <v>-67.127238618982474</v>
+      </c>
+      <c r="BK1">
+        <v>-70.79139802552011</v>
+      </c>
+      <c r="BL1">
+        <v>-59.881928273668997</v>
+      </c>
+      <c r="BM1">
+        <v>-1.69486165156901E-13</v>
+      </c>
+      <c r="BN1">
+        <v>59.881928273668798</v>
+      </c>
+      <c r="BO1">
+        <v>70.791398025520166</v>
+      </c>
+      <c r="BP1">
+        <v>67.127238618982517</v>
+      </c>
+      <c r="BQ1">
+        <v>77.417784899841322</v>
+      </c>
+      <c r="BR1">
+        <v>86.021527366030398</v>
+      </c>
+      <c r="BS1">
+        <v>90.39495576728649</v>
+      </c>
+      <c r="BT1">
+        <v>95.040157151876699</v>
+      </c>
+      <c r="BU1">
+        <v>95.000000000000028</v>
+      </c>
+      <c r="BV1">
+        <v>91.91812448337906</v>
+      </c>
+      <c r="BW1">
+        <v>86.595965894063241</v>
+      </c>
+      <c r="BX1">
+        <v>76.980580132630962</v>
+      </c>
+      <c r="BY1">
+        <v>65.417784899841408</v>
+      </c>
+      <c r="BZ1">
+        <v>51.458874387613527</v>
+      </c>
+      <c r="CA1">
+        <v>34.992408152296925</v>
+      </c>
+      <c r="CB1">
+        <v>18.132478607201911</v>
+      </c>
+      <c r="CC1">
+        <v>3.3301727207895765E-14</v>
+      </c>
+      <c r="CD1">
+        <v>-18.132478607201755</v>
+      </c>
+      <c r="CE1">
+        <v>-34.992408152296569</v>
+      </c>
+      <c r="CF1">
+        <v>-51.458874387613477</v>
+      </c>
+      <c r="CG1">
+        <v>-65.417784899841294</v>
+      </c>
+      <c r="CH1">
+        <v>-76.98058013263082</v>
+      </c>
+      <c r="CI1">
+        <v>-86.595965894063198</v>
+      </c>
+      <c r="CJ1">
+        <v>-91.918124483379074</v>
+      </c>
+      <c r="CK1">
+        <v>-95.000000000000142</v>
+      </c>
+      <c r="CL1">
+        <v>-95.040157151876784</v>
+      </c>
+      <c r="CM1">
+        <v>-90.394955767286575</v>
+      </c>
+      <c r="CN1">
+        <v>-86.021527366030483</v>
+      </c>
+      <c r="CO1">
+        <v>-77.417784899841493</v>
+      </c>
+      <c r="CP1">
+        <v>-67.127238618982545</v>
+      </c>
+      <c r="CQ1">
+        <v>-70.791398025519968</v>
+      </c>
+      <c r="CR1">
+        <v>-59.881928273669033</v>
+      </c>
+      <c r="CS1">
+        <v>-3.0396723923855839E-13</v>
+      </c>
+      <c r="CT1">
+        <v>59.881928273668748</v>
+      </c>
+      <c r="CU1">
+        <v>70.791398025519968</v>
+      </c>
+      <c r="CV1">
+        <v>67.127238618982659</v>
+      </c>
+      <c r="CW1">
+        <v>77.41778489984128</v>
+      </c>
+      <c r="CX1">
+        <v>86.021527366030341</v>
+      </c>
+      <c r="CY1">
+        <v>90.394955767286618</v>
+      </c>
+      <c r="CZ1">
+        <v>95.04015715187667</v>
+      </c>
+      <c r="DA1">
+        <v>95.000000000000142</v>
+      </c>
+      <c r="DB1">
+        <v>91.918124483379188</v>
+      </c>
+      <c r="DC1">
+        <v>86.595965894063227</v>
+      </c>
+      <c r="DD1">
+        <v>76.980580132630848</v>
+      </c>
+      <c r="DE1">
+        <v>65.417784899841365</v>
+      </c>
+      <c r="DF1">
+        <v>51.458874387613641</v>
+      </c>
+      <c r="DG1">
+        <v>34.992408152296889</v>
+      </c>
+      <c r="DH1">
+        <v>18.132478607201914</v>
+      </c>
+      <c r="DI1">
+        <v>9.2097153179700465E-14</v>
+      </c>
+      <c r="DJ1">
+        <v>-18.13247860720173</v>
+      </c>
+      <c r="DK1">
+        <v>-34.992408152296548</v>
+      </c>
+      <c r="DL1">
+        <v>-51.458874387613655</v>
+      </c>
+      <c r="DM1">
+        <v>-65.417784899841322</v>
+      </c>
+      <c r="DN1">
+        <v>-76.980580132630834</v>
+      </c>
+      <c r="DO1">
+        <v>-86.595965894063141</v>
+      </c>
+      <c r="DP1">
+        <v>-91.918124483379017</v>
+      </c>
+      <c r="DQ1">
+        <v>-95.000000000000071</v>
+      </c>
+      <c r="DR1">
+        <v>-95.040157151876855</v>
+      </c>
+      <c r="DS1">
+        <v>-90.394955767286561</v>
+      </c>
+      <c r="DT1">
+        <v>-86.021527366030512</v>
+      </c>
+      <c r="DU1">
+        <v>-77.41778489984145</v>
+      </c>
+      <c r="DV1">
+        <v>-67.12723861898256</v>
+      </c>
+      <c r="DW1">
+        <v>-70.791398025520039</v>
+      </c>
+      <c r="DX1">
+        <v>-59.881928273669203</v>
+      </c>
+      <c r="DY1">
+        <v>-3.3897233031380199E-13</v>
+      </c>
+      <c r="DZ1">
+        <v>59.881928273668805</v>
+      </c>
+      <c r="EA1">
+        <v>70.791398025520067</v>
+      </c>
+      <c r="EB1">
+        <v>67.127238618982574</v>
+      </c>
+      <c r="EC1">
+        <v>77.417784899841351</v>
+      </c>
+      <c r="ED1">
+        <v>86.021527366030426</v>
+      </c>
+      <c r="EE1">
+        <v>90.394955767286532</v>
+      </c>
+      <c r="EF1">
+        <v>95.040157151876883</v>
+      </c>
+      <c r="EG1">
+        <v>95.000000000000114</v>
+      </c>
+      <c r="EH1">
+        <v>91.918124483379174</v>
+      </c>
+      <c r="EI1">
+        <v>86.595965894063056</v>
+      </c>
+      <c r="EJ1">
+        <v>76.980580132630948</v>
+      </c>
+      <c r="EK1">
+        <v>65.417784899841394</v>
+      </c>
+      <c r="EL1">
+        <v>51.458874387613768</v>
+      </c>
+      <c r="EM1">
+        <v>34.99240815229674</v>
+      </c>
+      <c r="EN1">
+        <v>18.13247860720185</v>
+      </c>
+      <c r="EO1">
+        <v>3.7205741429889185E-14</v>
+      </c>
+      <c r="EP1">
+        <v>-18.132478607201708</v>
+      </c>
+      <c r="EQ1">
+        <v>-34.992408152296633</v>
+      </c>
+      <c r="ER1">
+        <v>-51.458874387613498</v>
+      </c>
+      <c r="ES1">
+        <v>-65.417784899841266</v>
+      </c>
+      <c r="ET1">
+        <v>-76.980580132630934</v>
+      </c>
+      <c r="EU1">
+        <v>-86.595965894063156</v>
+      </c>
+      <c r="EV1">
+        <v>-91.918124483378946</v>
+      </c>
+      <c r="EW1">
+        <v>-95.000000000000043</v>
+      </c>
+      <c r="EX1">
+        <v>-95.040157151876755</v>
+      </c>
+      <c r="EY1">
+        <v>-90.394955767286433</v>
+      </c>
+      <c r="EZ1">
+        <v>-86.021527366030426</v>
+      </c>
+      <c r="FA1">
+        <v>-77.417784899841365</v>
+      </c>
+      <c r="FB1">
+        <v>-67.127238618982716</v>
+      </c>
+      <c r="FC1">
+        <v>-70.791398025519868</v>
+      </c>
+      <c r="FD1">
+        <v>-59.881928273669175</v>
+      </c>
+      <c r="FE1">
+        <v>-5.2319139589866648E-13</v>
+      </c>
+      <c r="FF1">
+        <v>59.881928273668642</v>
+      </c>
+      <c r="FG1">
+        <v>70.791398025520181</v>
+      </c>
+      <c r="FH1">
+        <v>67.127238618982389</v>
+      </c>
+      <c r="FI1">
+        <v>77.417784899841081</v>
+      </c>
+      <c r="FJ1">
+        <v>86.021527366030256</v>
+      </c>
+      <c r="FK1">
+        <v>90.394955767286532</v>
+      </c>
+      <c r="FL1">
+        <v>95.040157151876642</v>
+      </c>
+      <c r="FM1">
+        <v>94.999999999999986</v>
+      </c>
+      <c r="FN1">
+        <v>91.918124483379145</v>
+      </c>
+      <c r="FO1">
+        <v>86.595965894063283</v>
+      </c>
+      <c r="FP1">
+        <v>76.980580132631133</v>
+      </c>
+      <c r="FQ1">
+        <v>65.417784899841394</v>
+      </c>
+      <c r="FR1">
+        <v>51.458874387613825</v>
+      </c>
+      <c r="FS1">
+        <v>34.992408152297209</v>
+      </c>
+      <c r="FT1">
+        <v>18.132478607202223</v>
+      </c>
+      <c r="FU1">
+        <v>5.3368603256087919E-14</v>
+      </c>
+      <c r="FV1">
+        <v>-18.132478607201922</v>
+      </c>
+      <c r="FW1">
+        <v>-34.992408152296882</v>
+      </c>
+      <c r="FX1">
+        <v>-51.458874387613456</v>
+      </c>
+      <c r="FY1">
+        <v>-65.417784899841294</v>
+      </c>
+      <c r="FZ1">
+        <v>-76.98058013263072</v>
+      </c>
+      <c r="GA1">
+        <v>-86.595965894063085</v>
+      </c>
+      <c r="GB1">
+        <v>-91.918124483379131</v>
+      </c>
+      <c r="GC1">
+        <v>-95.000000000000142</v>
+      </c>
+      <c r="GD1">
+        <v>-95.040157151876883</v>
+      </c>
+      <c r="GE1">
+        <v>-90.394955767286632</v>
+      </c>
+      <c r="GF1">
+        <v>-86.02152736603054</v>
+      </c>
+      <c r="GG1">
+        <v>-77.417784899841195</v>
+      </c>
+      <c r="GH1">
+        <v>-67.127238618982247</v>
+      </c>
+      <c r="GI1">
+        <v>-70.791398025520124</v>
+      </c>
+      <c r="GJ1">
+        <v>-59.881928273669303</v>
+      </c>
+      <c r="GK1">
+        <v>-6.0793447847711679E-13</v>
+      </c>
+      <c r="GL1">
+        <v>59.881928273668677</v>
+      </c>
+      <c r="GM1">
+        <v>70.791398025519968</v>
+      </c>
+      <c r="GN1">
+        <v>67.127238618982318</v>
+      </c>
+      <c r="GO1">
+        <v>77.417784899840981</v>
+      </c>
+      <c r="GP1">
+        <v>86.021527366030298</v>
+      </c>
+      <c r="GQ1">
+        <v>90.394955767286675</v>
+      </c>
+      <c r="GR1">
+        <v>95.040157151876713</v>
+      </c>
+      <c r="GS1">
+        <v>95.000000000000185</v>
+      </c>
+      <c r="GT1">
+        <v>91.918124483379188</v>
+      </c>
+      <c r="GU1">
+        <v>86.595965894063099</v>
+      </c>
+      <c r="GV1">
+        <v>76.98058013263082</v>
+      </c>
+      <c r="GW1">
+        <v>65.417784899841593</v>
+      </c>
+      <c r="GX1">
+        <v>51.458874387613619</v>
+      </c>
+      <c r="GY1">
+        <v>34.992408152297081</v>
+      </c>
+      <c r="GZ1">
+        <v>18.132478607202181</v>
+      </c>
+      <c r="HA1">
+        <v>5.5320610367084572E-14</v>
+      </c>
+      <c r="HB1">
+        <v>-18.132478607201929</v>
+      </c>
+      <c r="HC1">
+        <v>-34.99240815229701</v>
+      </c>
+      <c r="HD1">
+        <v>-51.45887438761369</v>
+      </c>
+      <c r="HE1">
+        <v>-65.417784899841209</v>
+      </c>
+      <c r="HF1">
+        <v>-76.980580132630763</v>
+      </c>
+      <c r="HG1">
+        <v>-86.595965894063255</v>
+      </c>
+      <c r="HH1">
+        <v>-91.918124483379088</v>
+      </c>
+      <c r="HI1">
+        <v>-94.999999999999957</v>
+      </c>
+      <c r="HJ1">
+        <v>-95.040157151876684</v>
+      </c>
+      <c r="HK1">
+        <v>-90.394955767286561</v>
+      </c>
+      <c r="HL1">
+        <v>-86.021527366030355</v>
+      </c>
+      <c r="HM1">
+        <v>-77.417784899841095</v>
+      </c>
+      <c r="HN1">
+        <v>-67.127238618982247</v>
+      </c>
+      <c r="HO1">
+        <v>-70.791398025519925</v>
+      </c>
+      <c r="HP1">
+        <v>-59.881928273669253</v>
+      </c>
+      <c r="HQ1">
+        <v>-5.5056901390354756E-13</v>
+      </c>
+      <c r="HR1">
+        <v>59.881928273668777</v>
+      </c>
+      <c r="HS1">
+        <v>70.791398025520181</v>
+      </c>
+      <c r="HT1">
+        <v>67.12723861898246</v>
+      </c>
+      <c r="HU1">
+        <v>77.417784899840925</v>
+      </c>
+      <c r="HV1">
+        <v>86.021527366030412</v>
+      </c>
+      <c r="HW1">
+        <v>90.394955767286447</v>
+      </c>
+      <c r="HX1">
+        <v>95.040157151876798</v>
+      </c>
+      <c r="HY1">
+        <v>95.000000000000227</v>
+      </c>
+      <c r="HZ1">
+        <v>91.918124483379017</v>
+      </c>
+      <c r="IA1">
+        <v>86.595965894063241</v>
+      </c>
+      <c r="IB1">
+        <v>76.980580132631317</v>
+      </c>
+      <c r="IC1">
+        <v>65.417784899841664</v>
+      </c>
+      <c r="ID1">
+        <v>51.458874387613726</v>
+      </c>
+      <c r="IE1">
+        <v>34.992408152297379</v>
+      </c>
+      <c r="IF1">
+        <v>18.132478607202234</v>
+      </c>
+      <c r="IG1">
+        <v>1.5674860048449526E-13</v>
+      </c>
+      <c r="IH1">
+        <v>-18.132478607201797</v>
+      </c>
+      <c r="II1">
+        <v>-34.992408152296889</v>
+      </c>
+      <c r="IJ1">
+        <v>-51.458874387613527</v>
+      </c>
+      <c r="IK1">
+        <v>-65.417784899841251</v>
+      </c>
+      <c r="IL1">
+        <v>-76.980580132630777</v>
+      </c>
+      <c r="IM1">
+        <v>-86.59596589406307</v>
+      </c>
+      <c r="IN1">
+        <v>-91.918124483378946</v>
+      </c>
+      <c r="IO1">
+        <v>-94.999999999999901</v>
+      </c>
+      <c r="IP1">
+        <v>-95.040157151876926</v>
+      </c>
+      <c r="IQ1">
+        <v>-90.39495576728649</v>
+      </c>
+      <c r="IR1">
+        <v>-86.021527366030256</v>
+      </c>
+      <c r="IS1">
+        <v>-77.417784899841422</v>
+      </c>
+      <c r="IT1">
+        <v>-67.12723861898256</v>
+      </c>
+      <c r="IU1">
+        <v>-70.791398025519953</v>
+      </c>
+      <c r="IV1">
+        <v>-59.881928273669324</v>
+      </c>
+      <c r="IW1">
+        <v>-6.7794466062760398E-13</v>
+      </c>
+      <c r="IX1">
+        <v>59.881928273668542</v>
+      </c>
+      <c r="IY1">
+        <v>70.79139802552001</v>
+      </c>
+      <c r="IZ1">
+        <v>67.127238618982602</v>
+      </c>
+      <c r="JA1">
+        <v>77.417784899841124</v>
+      </c>
+      <c r="JB1">
+        <v>86.021527366030142</v>
+      </c>
+      <c r="JC1">
+        <v>90.394955767286518</v>
+      </c>
+      <c r="JD1">
+        <v>95.040157151876571</v>
+      </c>
+      <c r="JE1">
+        <v>95.000000000000043</v>
+      </c>
+      <c r="JF1">
+        <v>91.918124483378989</v>
+      </c>
+      <c r="JG1">
+        <v>86.595965894063127</v>
+      </c>
+      <c r="JH1">
+        <v>76.980580132631005</v>
+      </c>
+      <c r="JI1">
+        <v>65.417784899841564</v>
+      </c>
+      <c r="JJ1">
+        <v>51.458874387613427</v>
+      </c>
+      <c r="JK1">
+        <v>34.992408152297259</v>
+      </c>
+      <c r="JL1">
+        <v>18.132478607202202</v>
+      </c>
+      <c r="JM1">
+        <v>1.0185718873468402E-13</v>
+      </c>
+      <c r="JN1">
+        <v>-18.132478607201826</v>
+      </c>
+      <c r="JO1">
+        <v>-34.992408152296996</v>
+      </c>
+      <c r="JP1">
+        <v>-51.458874387613832</v>
+      </c>
+      <c r="JQ1">
+        <v>-65.41778489984118</v>
+      </c>
+      <c r="JR1">
+        <v>-76.980580132631076</v>
+      </c>
+      <c r="JS1">
+        <v>-86.595965894063184</v>
+      </c>
+      <c r="JT1">
+        <v>-91.918124483378833</v>
+      </c>
+      <c r="JU1">
+        <v>-95.000000000000057</v>
+      </c>
+      <c r="JV1">
+        <v>-95.04015715187677</v>
+      </c>
+      <c r="JW1">
+        <v>-90.394955767286447</v>
+      </c>
+      <c r="JX1">
+        <v>-86.02152736603054</v>
+      </c>
+      <c r="JY1">
+        <v>-77.417784899841266</v>
+      </c>
+      <c r="JZ1">
+        <v>-67.127238618982346</v>
+      </c>
+      <c r="KA1">
+        <v>-70.791398025520266</v>
+      </c>
+      <c r="KB1">
+        <v>-59.881928273669494</v>
+      </c>
+      <c r="KC1">
+        <v>-8.0532030735166051E-13</v>
+      </c>
+      <c r="KD1">
+        <v>59.881928273668464</v>
+      </c>
+      <c r="KE1">
+        <v>70.791398025519982</v>
+      </c>
+      <c r="KF1">
+        <v>67.127238618982261</v>
+      </c>
+      <c r="KG1">
+        <v>77.417784899840726</v>
+      </c>
+      <c r="KH1">
+        <v>86.021527366030242</v>
+      </c>
+      <c r="KI1">
+        <v>90.394955767286632</v>
+      </c>
+      <c r="KJ1">
+        <v>95.040157151876699</v>
+      </c>
+      <c r="KK1">
+        <v>95.000000000000128</v>
+      </c>
+      <c r="KL1">
+        <v>91.91812448337933</v>
+      </c>
+      <c r="KM1">
+        <v>86.595965894062957</v>
+      </c>
+      <c r="KN1">
+        <v>76.980580132630735</v>
+      </c>
+      <c r="KO1">
+        <v>65.417784899841436</v>
+      </c>
+      <c r="KP1">
+        <v>51.458874387613598</v>
+      </c>
+      <c r="KQ1">
+        <v>34.992408152297052</v>
+      </c>
+      <c r="KR1">
+        <v>18.132478607202174</v>
+      </c>
+      <c r="KS1">
+        <v>1.6065261470648863E-13</v>
+      </c>
+      <c r="KT1">
+        <v>-18.132478607201804</v>
+      </c>
+      <c r="KU1">
+        <v>-34.992408152296697</v>
+      </c>
+      <c r="KV1">
+        <v>-51.458874387613726</v>
+      </c>
+      <c r="KW1">
+        <v>-65.41778489984091</v>
+      </c>
+      <c r="KX1">
+        <v>-76.980580132631005</v>
+      </c>
+      <c r="KY1">
+        <v>-86.595965894063326</v>
+      </c>
+      <c r="KZ1">
+        <v>-91.91812448337916</v>
+      </c>
+      <c r="LA1">
+        <v>-94.999999999999986</v>
+      </c>
+      <c r="LB1">
+        <v>-95.040157151877253</v>
+      </c>
+      <c r="LC1">
+        <v>-90.394955767286476</v>
+      </c>
+      <c r="LD1">
+        <v>-86.02152736603044</v>
+      </c>
+      <c r="LE1">
+        <v>-77.417784899841422</v>
+      </c>
+      <c r="LF1">
+        <v>-67.12723861898229</v>
+      </c>
+      <c r="LG1">
+        <v>-70.791398025519726</v>
+      </c>
+      <c r="LH1">
+        <v>-59.881928273669246</v>
+      </c>
+      <c r="LI1">
+        <v>-1.046382791797333E-12</v>
+      </c>
+      <c r="LJ1">
+        <v>59.881928273668386</v>
+      </c>
+      <c r="LK1">
+        <v>70.791398025520053</v>
+      </c>
+      <c r="LL1">
+        <v>67.127238618982346</v>
+      </c>
+      <c r="LM1">
+        <v>77.417784899840939</v>
+      </c>
+      <c r="LN1">
+        <v>86.021527366030298</v>
+      </c>
+      <c r="LO1">
+        <v>90.39495576728666</v>
+      </c>
+      <c r="LP1">
+        <v>95.040157151876784</v>
+      </c>
+      <c r="LQ1">
+        <v>94.999999999999858</v>
+      </c>
+      <c r="LR1">
+        <v>91.918124483379245</v>
+      </c>
+      <c r="LS1">
+        <v>86.595965894064008</v>
+      </c>
+      <c r="LT1">
+        <v>76.98058013263136</v>
+      </c>
+      <c r="LU1">
+        <v>65.417784899841024</v>
+      </c>
+      <c r="LV1">
+        <v>51.458874387613612</v>
+      </c>
+      <c r="LW1">
+        <v>34.992408152296584</v>
+      </c>
+      <c r="LX1">
+        <v>18.132478607202106</v>
+      </c>
+      <c r="LY1">
+        <v>-9.3190763056150627E-14</v>
+      </c>
+      <c r="LZ1">
+        <v>-18.132478607201396</v>
+      </c>
+      <c r="MA1">
+        <v>-34.992408152296974</v>
+      </c>
+      <c r="MB1">
+        <v>-51.458874387612852</v>
+      </c>
+      <c r="MC1">
+        <v>-65.417784899841152</v>
+      </c>
+      <c r="MD1">
+        <v>-76.980580132629996</v>
+      </c>
+      <c r="ME1">
+        <v>-86.595965894062985</v>
+      </c>
+      <c r="MF1">
+        <v>-91.918124483378975</v>
+      </c>
+      <c r="MG1">
+        <v>-94.999999999999957</v>
+      </c>
+      <c r="MH1">
+        <v>-95.040157151876954</v>
+      </c>
+      <c r="MI1">
+        <v>-90.394955767286248</v>
+      </c>
+      <c r="MJ1">
+        <v>-86.021527366030398</v>
+      </c>
+      <c r="MK1">
+        <v>-77.417784899841777</v>
+      </c>
+      <c r="ML1">
+        <v>-67.127238618982432</v>
+      </c>
+      <c r="MM1">
+        <v>-70.791398025520465</v>
+      </c>
+      <c r="MN1">
+        <v>-59.881928273669494</v>
+      </c>
+      <c r="MO1">
+        <v>-1.713770917699065E-12</v>
+      </c>
+      <c r="MP1">
+        <v>59.881928273668571</v>
+      </c>
+      <c r="MQ1">
+        <v>70.791398025520692</v>
+      </c>
+      <c r="MR1">
+        <v>67.127238618982545</v>
+      </c>
+      <c r="MS1">
+        <v>77.417784899841578</v>
+      </c>
+      <c r="MT1">
+        <v>86.021527366030327</v>
+      </c>
+      <c r="MU1">
+        <v>90.394955767286575</v>
+      </c>
+      <c r="MV1">
+        <v>95.04015715187667</v>
+      </c>
+      <c r="MW1">
+        <v>95.000000000000227</v>
+      </c>
+      <c r="MX1">
+        <v>91.91812448337933</v>
+      </c>
+      <c r="MY1">
+        <v>86.595965894063298</v>
+      </c>
+      <c r="MZ1">
+        <v>76.980580132630578</v>
+      </c>
+      <c r="NA1">
+        <v>65.417784899841763</v>
+      </c>
+      <c r="NB1">
+        <v>51.458874387613278</v>
+      </c>
+      <c r="NC1">
+        <v>34.992408152297394</v>
+      </c>
+      <c r="ND1">
+        <v>18.132478607202014</v>
+      </c>
+      <c r="NE1">
+        <v>4.2035201380211817E-13</v>
+      </c>
+      <c r="NF1">
+        <v>-18.132478607201886</v>
+      </c>
+      <c r="NG1">
+        <v>-34.992408152296235</v>
+      </c>
+      <c r="NH1">
+        <v>-51.458874387613378</v>
+      </c>
+      <c r="NI1">
+        <v>-65.417784899840797</v>
+      </c>
+      <c r="NJ1">
+        <v>-76.980580132630791</v>
+      </c>
+      <c r="NK1">
+        <v>-86.595965894063738</v>
+      </c>
+      <c r="NL1">
+        <v>-91.918124483379174</v>
+      </c>
+      <c r="NM1">
+        <v>-94.999999999999545</v>
+      </c>
+      <c r="NN1">
+        <v>-95.040157151876983</v>
+      </c>
+      <c r="NO1">
+        <v>-90.39495576728676</v>
+      </c>
+      <c r="NP1">
+        <v>-86.021527366030597</v>
+      </c>
+      <c r="NQ1">
+        <v>-77.417784899841294</v>
+      </c>
+      <c r="NR1">
+        <v>-67.127238618983185</v>
+      </c>
+      <c r="NS1">
+        <v>-70.791398025519825</v>
+      </c>
+      <c r="NT1">
+        <v>-59.881928273670574</v>
+      </c>
+      <c r="NU1">
+        <v>-1.2158689569542336E-12</v>
+      </c>
+      <c r="NV1">
+        <v>59.881928273669331</v>
+      </c>
+      <c r="NW1">
+        <v>70.791398025520067</v>
+      </c>
+      <c r="NX1">
+        <v>67.127238618983014</v>
+      </c>
+      <c r="NY1">
+        <v>77.417784899841152</v>
+      </c>
+      <c r="NZ1">
+        <v>86.021527366030298</v>
+      </c>
+      <c r="OA1">
+        <v>90.394955767286945</v>
+      </c>
+      <c r="OB1">
+        <v>95.040157151876642</v>
+      </c>
+      <c r="OC1">
+        <v>94.999999999999645</v>
+      </c>
+      <c r="OD1">
+        <v>91.918124483379017</v>
+      </c>
+      <c r="OE1">
+        <v>86.595965894063752</v>
+      </c>
+      <c r="OF1">
+        <v>76.980580132630763</v>
+      </c>
+      <c r="OG1">
+        <v>65.417784899841365</v>
+      </c>
+      <c r="OH1">
+        <v>51.458874387613598</v>
+      </c>
+      <c r="OI1">
+        <v>34.992408152296647</v>
+      </c>
+      <c r="OJ1">
+        <v>18.132478607202476</v>
+      </c>
+      <c r="OK1">
+        <v>4.2230402091311489E-13</v>
+      </c>
+      <c r="OL1">
+        <v>-18.132478607201431</v>
+      </c>
+      <c r="OM1">
+        <v>-34.992408152296676</v>
+      </c>
+      <c r="ON1">
+        <v>-51.45887438761271</v>
+      </c>
+      <c r="OO1">
+        <v>-65.41778489984118</v>
+      </c>
+      <c r="OP1">
+        <v>-76.980580132630067</v>
+      </c>
+      <c r="OQ1">
+        <v>-86.595965894063312</v>
+      </c>
+      <c r="OR1">
+        <v>-91.918124483378946</v>
+      </c>
+      <c r="OS1">
+        <v>-95.000000000000171</v>
+      </c>
+      <c r="OT1">
+        <v>-95.040157151877111</v>
+      </c>
+      <c r="OU1">
+        <v>-90.394955767286774</v>
+      </c>
+      <c r="OV1">
+        <v>-86.021527366030568</v>
+      </c>
+      <c r="OW1">
+        <v>-77.417784899842204</v>
+      </c>
+      <c r="OX1">
+        <v>-67.127238618982403</v>
+      </c>
+      <c r="OY1">
+        <v>-70.791398025520721</v>
+      </c>
+      <c r="OZ1">
+        <v>-59.881928273669821</v>
+      </c>
+      <c r="PA1">
+        <v>-1.4953280760132214E-13</v>
+      </c>
+      <c r="PB1">
+        <v>59.88192827366835</v>
+      </c>
+      <c r="PC1">
+        <v>70.791398025520138</v>
+      </c>
+      <c r="PD1">
+        <v>67.127238618982375</v>
+      </c>
+      <c r="PE1">
+        <v>77.417784899841195</v>
+      </c>
+      <c r="PF1">
+        <v>86.021527366030313</v>
+      </c>
+      <c r="PG1">
+        <v>90.394955767286447</v>
+      </c>
+      <c r="PH1">
+        <v>95.040157151876528</v>
+      </c>
+      <c r="PI1">
+        <v>95.000000000000028</v>
+      </c>
+      <c r="PJ1">
+        <v>91.918124483379671</v>
+      </c>
+      <c r="PK1">
+        <v>86.595965894062999</v>
+      </c>
+      <c r="PL1">
+        <v>76.980580132630507</v>
+      </c>
+      <c r="PM1">
+        <v>65.417784899841763</v>
+      </c>
+      <c r="PN1">
+        <v>51.458874387613228</v>
+      </c>
+      <c r="PO1">
+        <v>34.992408152297138</v>
+      </c>
+      <c r="PP1">
+        <v>18.132478607201982</v>
+      </c>
+      <c r="PQ1">
+        <v>2.6352095998455686E-14</v>
+      </c>
+      <c r="PR1">
+        <v>-18.13247860720147</v>
+      </c>
+      <c r="PS1">
+        <v>-34.992408152295852</v>
+      </c>
+      <c r="PT1">
+        <v>-51.458874387613399</v>
+      </c>
+      <c r="PU1">
+        <v>-65.417784899840598</v>
+      </c>
+      <c r="PV1">
+        <v>-76.980580132630053</v>
+      </c>
+      <c r="PW1">
+        <v>-86.595965894063383</v>
+      </c>
+      <c r="PX1">
+        <v>-91.91812448337879</v>
+      </c>
+      <c r="PY1">
+        <v>-94.999999999999474</v>
+      </c>
+      <c r="PZ1">
+        <v>-95.040157151876585</v>
+      </c>
+      <c r="QA1">
+        <v>-90.394955767286575</v>
+      </c>
+      <c r="QB1">
+        <v>-86.02152736603054</v>
+      </c>
+      <c r="QC1">
+        <v>-77.41778489984172</v>
+      </c>
+      <c r="QD1">
+        <v>-67.127238618982659</v>
+      </c>
+      <c r="QE1">
+        <v>-70.791398025520095</v>
+      </c>
+      <c r="QF1">
+        <v>-59.881928273670461</v>
+      </c>
+      <c r="QG1">
+        <v>-1.1011380278070951E-12</v>
+      </c>
+      <c r="QH1">
+        <v>59.881928273669388</v>
+      </c>
+      <c r="QI1">
+        <v>70.791398025519868</v>
+      </c>
+      <c r="QJ1">
+        <v>67.127238618983128</v>
+      </c>
+      <c r="QK1">
+        <v>77.417784899840825</v>
+      </c>
+      <c r="QL1">
+        <v>86.021527366030483</v>
+      </c>
+      <c r="QM1">
+        <v>90.394955767286334</v>
+      </c>
+      <c r="QN1">
+        <v>95.040157151877111</v>
+      </c>
+      <c r="QO1">
+        <v>94.999999999999744</v>
+      </c>
+      <c r="QP1">
+        <v>91.918124483379259</v>
+      </c>
+      <c r="QQ1">
+        <v>86.595965894064008</v>
+      </c>
+      <c r="QR1">
+        <v>76.980580132631758</v>
+      </c>
+      <c r="QS1">
+        <v>65.417784899841209</v>
+      </c>
+      <c r="QT1">
+        <v>51.458874387613854</v>
+      </c>
+      <c r="QU1">
+        <v>34.992408152297237</v>
+      </c>
+      <c r="QV1">
+        <v>18.132478607202515</v>
+      </c>
+      <c r="QW1">
+        <v>3.1252119741349241E-13</v>
+      </c>
+      <c r="QX1">
+        <v>-18.132478607201122</v>
+      </c>
+      <c r="QY1">
+        <v>-34.992408152296903</v>
+      </c>
+      <c r="QZ1">
+        <v>-51.458874387612688</v>
+      </c>
+      <c r="RA1">
+        <v>-65.417784899841038</v>
+      </c>
+      <c r="RB1">
+        <v>-76.980580132630124</v>
+      </c>
+      <c r="RC1">
+        <v>-86.595965894062942</v>
+      </c>
+      <c r="RD1">
+        <v>-91.918124483379003</v>
+      </c>
+      <c r="RE1">
+        <v>-95.000000000000369</v>
+      </c>
+      <c r="RF1">
+        <v>-95.040157151877139</v>
+      </c>
+      <c r="RG1">
+        <v>-90.394955767286447</v>
+      </c>
+      <c r="RH1">
+        <v>-86.021527366030313</v>
+      </c>
+      <c r="RI1">
+        <v>-77.417784899841621</v>
+      </c>
+      <c r="RJ1">
+        <v>-67.127238618982602</v>
+      </c>
+      <c r="RK1">
+        <v>-70.791398025520579</v>
+      </c>
+      <c r="RL1">
+        <v>-59.881928273669573</v>
+      </c>
+      <c r="RM1">
+        <v>-2.4222254706081194E-12</v>
+      </c>
+      <c r="RN1">
+        <v>59.881928273668294</v>
+      </c>
+      <c r="RO1">
+        <v>70.791398025520778</v>
+      </c>
+      <c r="RP1">
+        <v>67.127238618981835</v>
+      </c>
+      <c r="RQ1">
+        <v>77.417784899841308</v>
+      </c>
+      <c r="RR1">
+        <v>86.021527366030057</v>
+      </c>
+      <c r="RS1">
+        <v>90.394955767286362</v>
+      </c>
+      <c r="RT1">
+        <v>95.040157151876471</v>
+      </c>
+      <c r="RU1">
+        <v>95.000000000000156</v>
+      </c>
+      <c r="RV1">
+        <v>91.918124483378932</v>
+      </c>
+      <c r="RW1">
+        <v>86.595965894063269</v>
+      </c>
+      <c r="RX1">
+        <v>76.98058013263045</v>
+      </c>
+      <c r="RY1">
+        <v>65.417784899841777</v>
+      </c>
+      <c r="RZ1">
+        <v>51.458874387613278</v>
+      </c>
+      <c r="SA1">
+        <v>34.992408152297067</v>
+      </c>
+      <c r="SB1">
+        <v>18.132478607201836</v>
+      </c>
+      <c r="SC1">
+        <v>4.8500346110691287E-13</v>
+      </c>
+      <c r="SD1">
+        <v>-18.132478607201534</v>
+      </c>
+      <c r="SE1">
+        <v>-34.99240815229556</v>
+      </c>
+      <c r="SF1">
+        <v>-51.458874387612767</v>
+      </c>
+      <c r="SG1">
+        <v>-65.417784899840498</v>
+      </c>
+      <c r="SH1">
+        <v>-76.980580132630678</v>
+      </c>
+      <c r="SI1">
+        <v>-86.595965894063596</v>
+      </c>
+      <c r="SJ1">
+        <v>-91.918124483379302</v>
+      </c>
+      <c r="SK1">
+        <v>-95.000000000000028</v>
+      </c>
+      <c r="SL1">
+        <v>-95.040157151877125</v>
+      </c>
+      <c r="SM1">
+        <v>-90.394955767286646</v>
+      </c>
+      <c r="SN1">
+        <v>-86.021527366030782</v>
+      </c>
+      <c r="SO1">
+        <v>-77.417784899841152</v>
+      </c>
+      <c r="SP1">
+        <v>-67.127238618982673</v>
+      </c>
+      <c r="SQ1">
+        <v>-70.791398025520152</v>
+      </c>
+      <c r="SR1">
+        <v>-59.881928273670724</v>
+      </c>
+      <c r="SS1">
+        <v>-1.355889321255208E-12</v>
+      </c>
+      <c r="ST1">
+        <v>59.881928273669168</v>
+      </c>
+      <c r="SU1">
+        <v>70.791398025520337</v>
+      </c>
+      <c r="SV1">
+        <v>67.127238618982759</v>
+      </c>
+      <c r="SW1">
+        <v>77.417784899840512</v>
+      </c>
+      <c r="SX1">
+        <v>86.021527366030526</v>
+      </c>
+      <c r="SY1">
+        <v>90.394955767286675</v>
+      </c>
+      <c r="SZ1">
+        <v>95.040157151876841</v>
+      </c>
+      <c r="TA1">
+        <v>95.000000000000114</v>
+      </c>
+      <c r="TB1">
+        <v>91.918124483379614</v>
+      </c>
+      <c r="TC1">
+        <v>86.595965894063724</v>
+      </c>
+      <c r="TD1">
+        <v>76.980580132631147</v>
+      </c>
+      <c r="TE1">
+        <v>65.417784899841152</v>
+      </c>
+      <c r="TF1">
+        <v>51.458874387613164</v>
+      </c>
+      <c r="TG1">
+        <v>34.992408152296328</v>
+      </c>
+      <c r="TH1">
+        <v>18.132478607202664</v>
+      </c>
+      <c r="TI1">
+        <v>2.0273837391386972E-13</v>
+      </c>
+      <c r="TJ1">
+        <v>-18.132478607201325</v>
+      </c>
+      <c r="TK1">
+        <v>-34.992408152296314</v>
+      </c>
+      <c r="TL1">
+        <v>-51.458874387612283</v>
+      </c>
+      <c r="TM1">
+        <v>-65.417784899841109</v>
+      </c>
+      <c r="TN1">
+        <v>-76.980580132629967</v>
+      </c>
+      <c r="TO1">
+        <v>-86.595965894063184</v>
+      </c>
+      <c r="TP1">
+        <v>-91.918124483378634</v>
+      </c>
+      <c r="TQ1">
+        <v>-95.000000000000043</v>
+      </c>
+      <c r="TR1">
+        <v>-95.040157151877196</v>
+      </c>
+      <c r="TS1">
+        <v>-90.394955767286916</v>
+      </c>
+      <c r="TT1">
+        <v>-86.021527366030185</v>
+      </c>
+      <c r="TU1">
+        <v>-77.417784899842218</v>
+      </c>
+      <c r="TV1">
+        <v>-67.127238618981949</v>
+      </c>
+      <c r="TW1">
+        <v>-70.791398025520635</v>
+      </c>
+      <c r="TX1">
+        <v>-59.881928273669843</v>
+      </c>
+      <c r="TY1">
+        <v>-2.8955317190229598E-13</v>
+      </c>
+      <c r="TZ1">
+        <v>59.881928273668017</v>
+      </c>
+      <c r="UA1">
+        <v>70.791398025520692</v>
+      </c>
+      <c r="UB1">
+        <v>67.127238618982659</v>
+      </c>
+      <c r="UC1">
+        <v>77.417784899841237</v>
+      </c>
+      <c r="UD1">
+        <v>86.021527366030227</v>
+      </c>
+      <c r="UE1">
+        <v>90.394955767285921</v>
+      </c>
+      <c r="UF1">
+        <v>95.040157151877153</v>
+      </c>
+      <c r="UG1">
+        <v>95.000000000000227</v>
+      </c>
+      <c r="UH1">
+        <v>91.918124483379444</v>
+      </c>
+      <c r="UI1">
+        <v>86.595965894063042</v>
+      </c>
+      <c r="UJ1">
+        <v>76.980580132630621</v>
+      </c>
+      <c r="UK1">
+        <v>65.417784899841692</v>
+      </c>
+      <c r="UL1">
+        <v>51.45887438761298</v>
+      </c>
+      <c r="UM1">
+        <v>34.992408152297678</v>
+      </c>
+      <c r="UN1">
+        <v>18.132478607202312</v>
+      </c>
+      <c r="UO1">
+        <v>3.7522063760729034E-13</v>
+      </c>
+      <c r="UP1">
+        <v>-18.132478607201335</v>
+      </c>
+      <c r="UQ1">
+        <v>-34.992408152296498</v>
+      </c>
+      <c r="UR1">
+        <v>-51.458874387612966</v>
+      </c>
+      <c r="US1">
+        <v>-65.417784899840569</v>
+      </c>
+      <c r="UT1">
+        <v>-76.980580132631246</v>
+      </c>
+      <c r="UU1">
+        <v>-86.595965894063923</v>
+      </c>
+      <c r="UV1">
+        <v>-91.918124483378818</v>
+      </c>
+      <c r="UW1">
+        <v>-94.999999999999659</v>
+      </c>
+      <c r="UX1">
+        <v>-95.040157151877494</v>
+      </c>
+      <c r="UY1">
+        <v>-90.394955767286859</v>
+      </c>
+      <c r="UZ1">
+        <v>-86.021527366030639</v>
+      </c>
+      <c r="VA1">
+        <v>-77.417784899841749</v>
+      </c>
+      <c r="VB1">
+        <v>-67.127238618983156</v>
+      </c>
+      <c r="VC1">
+        <v>-70.791398025520024</v>
+      </c>
+      <c r="VD1">
+        <v>-59.881928273671001</v>
+      </c>
+      <c r="VE1">
+        <v>-1.610640614703321E-12</v>
+      </c>
+      <c r="VF1">
+        <v>59.881928273668841</v>
+      </c>
+      <c r="VG1">
+        <v>70.791398025520252</v>
+      </c>
+      <c r="VH1">
+        <v>67.12723861898283</v>
+      </c>
+      <c r="VI1">
+        <v>77.417784899841081</v>
+      </c>
+      <c r="VJ1">
+        <v>86.021527366030128</v>
+      </c>
+      <c r="VK1">
+        <v>90.394955767286206</v>
+      </c>
+      <c r="VL1">
+        <v>95.040157151876642</v>
+      </c>
+      <c r="VM1">
+        <v>94.999999999999332</v>
+      </c>
+      <c r="VN1">
+        <v>91.918124483379302</v>
+      </c>
+      <c r="VO1">
+        <v>86.595965894063468</v>
+      </c>
+      <c r="VP1">
+        <v>76.980580132630834</v>
+      </c>
+      <c r="VQ1">
+        <v>65.417784899841507</v>
+      </c>
+      <c r="VR1">
+        <v>51.45887438761369</v>
+      </c>
+      <c r="VS1">
+        <v>34.992408152296925</v>
+      </c>
+      <c r="VT1">
+        <v>18.132478607202597</v>
+      </c>
+      <c r="VU1">
+        <v>6.6138973902232719E-13</v>
+      </c>
+      <c r="VV1">
+        <v>-18.132478607200866</v>
+      </c>
+      <c r="VW1">
+        <v>-34.992408152297031</v>
+      </c>
+      <c r="VX1">
+        <v>-51.458874387612603</v>
+      </c>
+      <c r="VY1">
+        <v>-65.417784899840981</v>
+      </c>
+      <c r="VZ1">
+        <v>-76.980580132630294</v>
+      </c>
+      <c r="WA1">
+        <v>-86.595965894063383</v>
+      </c>
+      <c r="WB1">
+        <v>-91.918124483379259</v>
+      </c>
+      <c r="WC1">
+        <v>-94.999999999999915</v>
+      </c>
+      <c r="WD1">
+        <v>-95.040157151877281</v>
+      </c>
+      <c r="WE1">
+        <v>-90.394955767286959</v>
+      </c>
+      <c r="WF1">
+        <v>-86.021527366030739</v>
+      </c>
+      <c r="WG1">
+        <v>-77.417784899841976</v>
+      </c>
+      <c r="WH1">
+        <v>-67.127238618982759</v>
+      </c>
+      <c r="WI1">
+        <v>-70.791398025520778</v>
+      </c>
+      <c r="WJ1">
+        <v>-59.88192827367012</v>
+      </c>
+      <c r="WK1">
+        <v>-3.1591017329475771E-12</v>
+      </c>
+      <c r="WL1">
+        <v>59.881928273667789</v>
+      </c>
+      <c r="WM1">
+        <v>70.791398025521175</v>
+      </c>
+      <c r="WN1">
+        <v>67.127238618982574</v>
+      </c>
+      <c r="WO1">
+        <v>77.41778489984155</v>
+      </c>
+      <c r="WP1">
+        <v>86.02152736603071</v>
+      </c>
+      <c r="WQ1">
+        <v>90.394955767286248</v>
+      </c>
+      <c r="WR1">
+        <v>95.040157151876031</v>
+      </c>
+      <c r="WS1">
+        <v>94.999999999999673</v>
+      </c>
+      <c r="WT1">
+        <v>91.918124483379131</v>
+      </c>
+      <c r="WU1">
+        <v>86.595965894062729</v>
+      </c>
+      <c r="WV1">
+        <v>76.980580132630308</v>
+      </c>
+      <c r="WW1">
+        <v>65.417784899841635</v>
+      </c>
+      <c r="WX1">
+        <v>51.458874387612994</v>
+      </c>
+      <c r="WY1">
+        <v>34.992408152297742</v>
+      </c>
+      <c r="WZ1">
+        <v>18.132478607202241</v>
+      </c>
+      <c r="XA1">
+        <v>2.6543781410766796E-13</v>
+      </c>
+      <c r="XB1">
+        <v>-18.132478607201222</v>
+      </c>
+      <c r="XC1">
+        <v>-34.9924081522962</v>
+      </c>
+      <c r="XD1">
+        <v>-51.458874387612987</v>
+      </c>
+      <c r="XE1">
+        <v>-65.417784899840498</v>
+      </c>
+      <c r="XF1">
+        <v>-76.980580132631374</v>
+      </c>
+      <c r="XG1">
+        <v>-86.59596589406415</v>
+      </c>
+      <c r="XH1">
+        <v>-91.918124483378918</v>
+      </c>
+      <c r="XI1">
+        <v>-94.999999999999559</v>
+      </c>
+      <c r="XJ1">
+        <v>-95.04015715187704</v>
+      </c>
+      <c r="XK1">
+        <v>-90.394955767286945</v>
+      </c>
+      <c r="XL1">
+        <v>-86.021527366030156</v>
+      </c>
+      <c r="XM1">
+        <v>-77.417784899841507</v>
+      </c>
+      <c r="XN1">
+        <v>-67.127238618982659</v>
+      </c>
+      <c r="XO1">
+        <v>-70.791398025520692</v>
+      </c>
+      <c r="XP1">
+        <v>-59.881928273670468</v>
+      </c>
+      <c r="XQ1">
+        <v>-2.0927655835946659E-12</v>
+      </c>
+      <c r="XR1">
+        <v>59.881928273668613</v>
+      </c>
+      <c r="XS1">
+        <v>70.791398025520181</v>
+      </c>
+      <c r="XT1">
+        <v>67.12723861898327</v>
+      </c>
+      <c r="XU1">
+        <v>77.417784899840996</v>
+      </c>
+      <c r="XV1">
+        <v>86.021527366030625</v>
+      </c>
+      <c r="XW1">
+        <v>90.394955767286135</v>
+      </c>
+      <c r="XX1">
+        <v>95.040157151876599</v>
+      </c>
+      <c r="XY1">
+        <v>94.999999999999886</v>
+      </c>
+      <c r="XZ1">
+        <v>91.918124483379259</v>
+      </c>
+      <c r="YA1">
+        <v>86.595965894064335</v>
+      </c>
+      <c r="YB1">
+        <v>76.980580132631545</v>
+      </c>
+      <c r="YC1">
+        <v>65.417784899842189</v>
+      </c>
+      <c r="YD1">
+        <v>51.458874387612632</v>
+      </c>
+      <c r="YE1">
+        <v>34.992408152296377</v>
+      </c>
+      <c r="YF1">
+        <v>18.132478607202707</v>
+      </c>
+      <c r="YG1">
+        <v>4.3792007780108867E-13</v>
+      </c>
+      <c r="YH1">
+        <v>-18.132478607201811</v>
+      </c>
+      <c r="YI1">
+        <v>-34.992408152296946</v>
+      </c>
+      <c r="YJ1">
+        <v>-51.45887438761347</v>
+      </c>
+      <c r="YK1">
+        <v>-65.41778489983993</v>
+      </c>
+      <c r="YL1">
+        <v>-76.98058013263126</v>
+      </c>
+      <c r="YM1">
+        <v>-86.595965894062758</v>
+      </c>
+      <c r="YN1">
+        <v>-91.918124483379103</v>
+      </c>
+      <c r="YO1">
+        <v>-94.999999999999162</v>
+      </c>
+      <c r="YP1">
+        <v>-95.040157151876457</v>
+      </c>
+      <c r="YQ1">
+        <v>-90.394955767286817</v>
+      </c>
+      <c r="YR1">
+        <v>-86.021527366030597</v>
+      </c>
+      <c r="YS1">
+        <v>-77.417784899840669</v>
+      </c>
+      <c r="YT1">
+        <v>-67.127238618981949</v>
+      </c>
+      <c r="YU1">
+        <v>-70.791398025520508</v>
+      </c>
+      <c r="YV1">
+        <v>-59.881928273671633</v>
+      </c>
+      <c r="YW1">
+        <v>7.3571655044329464E-13</v>
+      </c>
+      <c r="YX1">
+        <v>59.881928273668279</v>
+      </c>
+      <c r="YY1">
+        <v>70.79139802551974</v>
+      </c>
+      <c r="YZ1">
+        <v>67.127238618983682</v>
+      </c>
+      <c r="ZA1">
+        <v>77.417784899840967</v>
+      </c>
+      <c r="ZB1">
+        <v>86.021527366030156</v>
+      </c>
+      <c r="ZC1">
+        <v>90.394955767286277</v>
+      </c>
+      <c r="ZD1">
+        <v>95.040157151875931</v>
+      </c>
+      <c r="ZE1">
+        <v>95.00000000000027</v>
+      </c>
+      <c r="ZF1">
+        <v>91.918124483379074</v>
+      </c>
+      <c r="ZG1">
+        <v>86.595965894064776</v>
+      </c>
+      <c r="ZH1">
+        <v>76.980580132630521</v>
+      </c>
+      <c r="ZI1">
+        <v>65.417784899842118</v>
+      </c>
+      <c r="ZJ1">
+        <v>51.458874387614749</v>
+      </c>
+      <c r="ZK1">
+        <v>34.992408152296157</v>
+      </c>
+      <c r="ZL1">
+        <v>18.132478607202355</v>
+      </c>
+      <c r="ZM1">
+        <v>3.8302866605127728E-13</v>
+      </c>
+      <c r="ZN1">
+        <v>-18.132478607200543</v>
+      </c>
+      <c r="ZO1">
+        <v>-34.992408152297159</v>
+      </c>
+      <c r="ZP1">
+        <v>-51.458874387614152</v>
+      </c>
+      <c r="ZQ1">
+        <v>-65.417784899839901</v>
+      </c>
+      <c r="ZR1">
+        <v>-76.98058013262937</v>
+      </c>
+      <c r="ZS1">
+        <v>-86.595965894063283</v>
+      </c>
+      <c r="ZT1">
+        <v>-91.918124483378818</v>
+      </c>
+      <c r="ZU1">
+        <v>-95.000000000000057</v>
+      </c>
+      <c r="ZV1">
+        <v>-95.040157151876457</v>
+      </c>
+      <c r="ZW1">
+        <v>-90.394955767286746</v>
+      </c>
+      <c r="ZX1">
+        <v>-86.021527366030696</v>
+      </c>
+      <c r="ZY1">
+        <v>-77.417784899842204</v>
+      </c>
+      <c r="ZZ1">
+        <v>-67.127238618981565</v>
+      </c>
+      <c r="AAA1">
+        <v>-70.791398025519285</v>
+      </c>
+      <c r="AAB1">
+        <v>-59.881928273670795</v>
+      </c>
+      <c r="AAC1">
+        <v>-3.42754183539813E-12</v>
+      </c>
+      <c r="AAD1">
+        <v>59.881928273669232</v>
+      </c>
+      <c r="AAE1">
+        <v>70.791398025520039</v>
+      </c>
+      <c r="AAF1">
+        <v>67.127238618982446</v>
+      </c>
+      <c r="AAG1">
+        <v>77.417784899841806</v>
+      </c>
+      <c r="AAH1">
+        <v>86.021527366030554</v>
+      </c>
+      <c r="AAI1">
+        <v>90.394955767286305</v>
+      </c>
+      <c r="AAJ1">
+        <v>95.040157151875832</v>
+      </c>
+      <c r="AAK1">
+        <v>95.000000000000639</v>
+      </c>
+      <c r="AAL1">
+        <v>91.918124483379145</v>
+      </c>
+      <c r="AAM1">
+        <v>86.595965894063767</v>
+      </c>
+      <c r="AAN1">
+        <v>76.980580132629967</v>
+      </c>
+      <c r="AAO1">
+        <v>65.417784899841251</v>
+      </c>
+      <c r="AAP1">
+        <v>51.458874387613882</v>
+      </c>
+      <c r="AAQ1">
+        <v>34.99240815229853</v>
+      </c>
+      <c r="AAR1">
+        <v>18.132478607201897</v>
+      </c>
+      <c r="AAS1">
+        <v>4.4182409202308177E-13</v>
+      </c>
+      <c r="AAT1">
+        <v>-18.132478607200895</v>
+      </c>
+      <c r="AAU1">
+        <v>-34.992408152294779</v>
+      </c>
+      <c r="AAV1">
+        <v>-51.458874387614543</v>
+      </c>
+      <c r="AAW1">
+        <v>-65.417784899840939</v>
+      </c>
+      <c r="AAX1">
+        <v>-76.980580132629925</v>
+      </c>
+      <c r="AAY1">
+        <v>-86.595965894064051</v>
+      </c>
+      <c r="AAZ1">
+        <v>-91.918124483378705</v>
+      </c>
+      <c r="ABA1">
+        <v>-95.000000000000384</v>
+      </c>
+      <c r="ABB1">
+        <v>-95.040157151877111</v>
+      </c>
+      <c r="ABC1">
+        <v>-90.394955767286731</v>
+      </c>
+      <c r="ABD1">
+        <v>-86.021527366030298</v>
+      </c>
+      <c r="ABE1">
+        <v>-77.417784899841763</v>
+      </c>
+      <c r="ABF1">
+        <v>-67.127238618983185</v>
+      </c>
+      <c r="ABG1">
+        <v>-70.791398025519214</v>
+      </c>
+      <c r="ABH1">
+        <v>-59.881928273670241</v>
+      </c>
+      <c r="ABI1">
+        <v>-3.0433267123749158E-12</v>
+      </c>
+      <c r="ABJ1">
+        <v>59.881928273670056</v>
+      </c>
+      <c r="ABK1">
+        <v>70.791398025520124</v>
+      </c>
+      <c r="ABL1">
+        <v>67.12723861898202</v>
+      </c>
+      <c r="ABM1">
+        <v>77.417784899839901</v>
+      </c>
+      <c r="ABN1">
+        <v>86.021527366030455</v>
+      </c>
+      <c r="ABO1">
+        <v>90.394955767286092</v>
+      </c>
+      <c r="ABP1">
+        <v>95.0401571518764</v>
+      </c>
+      <c r="ABQ1">
+        <v>94.999999999999773</v>
+      </c>
+      <c r="ABR1">
+        <v>91.918124483379273</v>
+      </c>
+      <c r="ABS1">
+        <v>86.595965894063625</v>
+      </c>
+      <c r="ABT1">
+        <v>76.980580132631431</v>
+      </c>
+      <c r="ABU1">
+        <v>65.417784899841209</v>
+      </c>
+      <c r="ABV1">
+        <v>51.458874387613214</v>
+      </c>
+      <c r="ABW1">
+        <v>34.992408152297102</v>
+      </c>
+      <c r="ABX1">
+        <v>18.132478607202994</v>
+      </c>
+      <c r="ABY1">
+        <v>3.8693268027327063E-13</v>
+      </c>
+      <c r="ABZ1">
+        <v>-18.13247860720136</v>
+      </c>
+      <c r="ACA1">
+        <v>-34.992408152294999</v>
+      </c>
+      <c r="ACB1">
+        <v>-51.458874387611729</v>
+      </c>
+      <c r="ACC1">
+        <v>-65.417784899841365</v>
+      </c>
+      <c r="ACD1">
+        <v>-76.980580132629868</v>
+      </c>
+      <c r="ACE1">
+        <v>-86.595965894062672</v>
+      </c>
+      <c r="ACF1">
+        <v>-91.918124483379131</v>
+      </c>
+      <c r="ACG1">
+        <v>-94.999999999999986</v>
+      </c>
+      <c r="ACH1">
+        <v>-95.040157151877736</v>
+      </c>
+      <c r="ACI1">
+        <v>-90.394955767286675</v>
+      </c>
+      <c r="ACJ1">
+        <v>-86.021527366030867</v>
+      </c>
+      <c r="ACK1">
+        <v>-77.417784899841308</v>
+      </c>
+      <c r="ACL1">
+        <v>-67.127238618982489</v>
+      </c>
+      <c r="ACM1">
+        <v>-70.791398025520735</v>
+      </c>
+      <c r="ACN1">
+        <v>-59.88192827366931</v>
+      </c>
+      <c r="ACO1">
+        <v>-2.4317379139084671E-12</v>
+      </c>
+      <c r="ACP1">
+        <v>59.881928273667015</v>
+      </c>
+      <c r="ACQ1">
+        <v>70.791398025521175</v>
+      </c>
+      <c r="ACR1">
+        <v>67.127238618982716</v>
+      </c>
+      <c r="ACS1">
+        <v>77.417784899840186</v>
+      </c>
+      <c r="ACT1">
+        <v>86.021527366029758</v>
+      </c>
+      <c r="ACU1">
+        <v>90.394955767286589</v>
+      </c>
+      <c r="ACV1">
+        <v>95.040157151876429</v>
+      </c>
+      <c r="ACW1">
+        <v>95.000000000000156</v>
+      </c>
+      <c r="ACX1">
+        <v>91.918124483380524</v>
+      </c>
+      <c r="ACY1">
+        <v>86.595965894062445</v>
+      </c>
+      <c r="ACZ1">
+        <v>76.980580132631374</v>
+      </c>
+      <c r="ADA1">
+        <v>65.417784899842999</v>
+      </c>
+      <c r="ADB1">
+        <v>51.458874387612831</v>
+      </c>
+      <c r="ADC1">
+        <v>34.992408152296974</v>
+      </c>
+      <c r="ADD1">
+        <v>18.132478607202405</v>
+      </c>
+      <c r="ADE1">
+        <v>1.6151101194103547E-13</v>
+      </c>
+      <c r="ADF1">
+        <v>-18.132478607201602</v>
+      </c>
+      <c r="ADG1">
+        <v>-34.992408152296193</v>
+      </c>
+      <c r="ADH1">
+        <v>-51.458874387612731</v>
+      </c>
+      <c r="ADI1">
+        <v>-65.417784899840072</v>
+      </c>
+      <c r="ADJ1">
+        <v>-76.980580132630863</v>
+      </c>
+      <c r="ADK1">
+        <v>-86.595965894063411</v>
+      </c>
+      <c r="ADL1">
+        <v>-91.918124483378563</v>
+      </c>
+      <c r="ADM1">
+        <v>-94.999999999999631</v>
+      </c>
+      <c r="ADN1">
+        <v>-95.040157151876627</v>
+      </c>
+      <c r="ADO1">
+        <v>-90.39495576728622</v>
+      </c>
+      <c r="ADP1">
+        <v>-86.021527366031094</v>
+      </c>
+      <c r="ADQ1">
+        <v>-77.417784899841095</v>
+      </c>
+      <c r="ADR1">
+        <v>-67.127238618982105</v>
+      </c>
+      <c r="ADS1">
+        <v>-70.791398025520735</v>
+      </c>
+      <c r="ADT1">
+        <v>-59.881928273672195</v>
+      </c>
+      <c r="ADU1">
+        <v>-1.9338359531636361E-12</v>
+      </c>
+      <c r="ADV1">
+        <v>59.881928273667732</v>
+      </c>
+      <c r="ADW1">
+        <v>70.791398025519754</v>
+      </c>
+      <c r="ADX1">
+        <v>67.127238618983114</v>
+      </c>
+      <c r="ADY1">
+        <v>77.417784899841038</v>
+      </c>
+      <c r="ADZ1">
+        <v>86.021527366030156</v>
+      </c>
+      <c r="AEA1">
+        <v>90.39495576728666</v>
+      </c>
+      <c r="AEB1">
+        <v>95.040157151877551</v>
+      </c>
+      <c r="AEC1">
+        <v>95.000000000000497</v>
+      </c>
+      <c r="AED1">
+        <v>91.918124483379529</v>
+      </c>
+      <c r="AEE1">
+        <v>86.595965894064321</v>
+      </c>
+      <c r="AEF1">
+        <v>76.980580132630934</v>
+      </c>
+      <c r="AEG1">
+        <v>65.417784899842147</v>
+      </c>
+      <c r="AEH1">
+        <v>51.458874387615261</v>
+      </c>
+      <c r="AEI1">
+        <v>34.992408152296754</v>
+      </c>
+      <c r="AEJ1">
+        <v>18.132478607202167</v>
+      </c>
+      <c r="AEK1">
+        <v>6.7505378879930425E-13</v>
+      </c>
+      <c r="AEL1">
+        <v>-18.1324786072006</v>
+      </c>
+      <c r="AEM1">
+        <v>-34.992408152297713</v>
+      </c>
+      <c r="AEN1">
+        <v>-51.458874387613108</v>
+      </c>
+      <c r="AEO1">
+        <v>-65.41778489984091</v>
+      </c>
+      <c r="AEP1">
+        <v>-76.980580132630038</v>
+      </c>
+      <c r="AEQ1">
+        <v>-86.59596589406398</v>
+      </c>
+      <c r="AER1">
+        <v>-91.918124483379529</v>
+      </c>
+      <c r="AES1">
+        <v>-95.000000000000512</v>
+      </c>
+      <c r="AET1">
+        <v>-95.040157151876613</v>
+      </c>
+      <c r="AEU1">
+        <v>-90.394955767286433</v>
+      </c>
+      <c r="AEV1">
+        <v>-86.02152736603071</v>
+      </c>
+      <c r="AEW1">
+        <v>-77.41778489984263</v>
+      </c>
+      <c r="AEX1">
+        <v>-67.127238618981792</v>
+      </c>
+      <c r="AEY1">
+        <v>-70.791398025519626</v>
+      </c>
+      <c r="AEZ1">
+        <v>-59.881928273671484</v>
+      </c>
+      <c r="AFA1">
+        <v>-2.9906561520264428E-13</v>
+      </c>
+      <c r="AFB1">
+        <v>59.881928273668393</v>
+      </c>
+      <c r="AFC1">
+        <v>70.791398025519797</v>
+      </c>
+      <c r="AFD1">
+        <v>67.127238618981536</v>
+      </c>
+      <c r="AFE1">
+        <v>77.417784899841877</v>
+      </c>
+      <c r="AFF1">
+        <v>86.021527366030142</v>
+      </c>
+      <c r="AFG1">
+        <v>90.394955767286874</v>
+      </c>
+      <c r="AFH1">
+        <v>95.040157151876329</v>
+      </c>
+      <c r="AFI1">
+        <v>95.000000000000227</v>
+      </c>
+      <c r="AFJ1">
+        <v>91.918124483379671</v>
+      </c>
+      <c r="AFK1">
+        <v>86.595965894063795</v>
+      </c>
+      <c r="AFL1">
+        <v>76.980580132629356</v>
+      </c>
+      <c r="AFM1">
+        <v>65.417784899841536</v>
+      </c>
+      <c r="AFN1">
+        <v>51.458874387614237</v>
+      </c>
+      <c r="AFO1">
+        <v>34.992408152297976</v>
+      </c>
+      <c r="AFP1">
+        <v>18.132478607201701</v>
+      </c>
+      <c r="AFQ1">
+        <v>5.1728188441412631E-14</v>
+      </c>
+      <c r="AFR1">
+        <v>-18.132478607201055</v>
+      </c>
+      <c r="AFS1">
+        <v>-34.9924081522948</v>
+      </c>
+      <c r="AFT1">
+        <v>-51.458874387614642</v>
+      </c>
+      <c r="AFU1">
+        <v>-65.417784899840967</v>
+      </c>
+      <c r="AFV1">
+        <v>-76.980580132630081</v>
+      </c>
+      <c r="AFW1">
+        <v>-86.595965894064491</v>
+      </c>
+      <c r="AFX1">
+        <v>-91.918124483378904</v>
+      </c>
+      <c r="AFY1">
+        <v>-95.000000000000128</v>
+      </c>
+      <c r="AFZ1">
+        <v>-95.040157151877281</v>
+      </c>
+      <c r="AGA1">
+        <v>-90.394955767286589</v>
+      </c>
+      <c r="AGB1">
+        <v>-86.021527366030725</v>
+      </c>
+      <c r="AGC1">
+        <v>-77.417784899842573</v>
+      </c>
+      <c r="AGD1">
+        <v>-67.12723861898337</v>
+      </c>
+      <c r="AGE1">
+        <v>-70.7913980255192</v>
+      </c>
+      <c r="AGF1">
+        <v>-59.881928273670574</v>
+      </c>
+      <c r="AGG1">
+        <v>-3.8938898124359896E-12</v>
+      </c>
+      <c r="AGH1">
+        <v>59.881928273669466</v>
+      </c>
+      <c r="AGI1">
+        <v>70.791398025521573</v>
+      </c>
+      <c r="AGJ1">
+        <v>67.127238618982588</v>
+      </c>
+      <c r="AGK1">
+        <v>77.41778489983993</v>
+      </c>
+      <c r="AGL1">
+        <v>86.021527366030526</v>
+      </c>
+      <c r="AGM1">
+        <v>90.394955767286675</v>
+      </c>
+      <c r="AGN1">
+        <v>95.040157151876883</v>
+      </c>
+      <c r="AGO1">
+        <v>94.999999999999318</v>
+      </c>
+      <c r="AGP1">
+        <v>91.918124483378691</v>
+      </c>
+      <c r="AGQ1">
+        <v>86.595965894063738</v>
+      </c>
+      <c r="AGR1">
+        <v>76.980580132631715</v>
+      </c>
+      <c r="AGS1">
+        <v>65.417784899841052</v>
+      </c>
+      <c r="AGT1">
+        <v>51.458874387613875</v>
+      </c>
+      <c r="AGU1">
+        <v>34.992408152297081</v>
+      </c>
+      <c r="AGV1">
+        <v>18.132478607202867</v>
+      </c>
+      <c r="AGW1">
+        <v>-7.4212766849890278E-13</v>
+      </c>
+      <c r="AGX1">
+        <v>-18.132478607201435</v>
+      </c>
+      <c r="AGY1">
+        <v>-34.992408152295397</v>
+      </c>
+      <c r="AGZ1">
+        <v>-51.458874387612212</v>
+      </c>
+      <c r="AHA1">
+        <v>-65.417784899841337</v>
+      </c>
+      <c r="AHB1">
+        <v>-76.980580132629981</v>
+      </c>
+      <c r="AHC1">
+        <v>-86.595965894062658</v>
+      </c>
+      <c r="AHD1">
+        <v>-91.91812448337808</v>
+      </c>
+      <c r="AHE1">
+        <v>-94.999999999999744</v>
+      </c>
+      <c r="AHF1">
+        <v>-95.040157151876713</v>
+      </c>
+      <c r="AHG1">
+        <v>-90.394955767286163</v>
+      </c>
+      <c r="AHH1">
+        <v>-86.021527366030455</v>
+      </c>
+      <c r="AHI1">
+        <v>-77.41778489984172</v>
+      </c>
+      <c r="AHJ1">
+        <v>-67.127238618982247</v>
+      </c>
+      <c r="AHK1">
+        <v>-70.791398025521218</v>
+      </c>
+      <c r="AHL1">
+        <v>-59.881928273669615</v>
+      </c>
+      <c r="AHM1">
+        <v>-2.2022760556141903E-12</v>
+      </c>
+      <c r="AHN1">
+        <v>59.881928273666226</v>
+      </c>
+      <c r="AHO1">
+        <v>70.79139802552136</v>
+      </c>
+      <c r="AHP1">
+        <v>67.127238618982943</v>
+      </c>
+      <c r="AHQ1">
+        <v>77.417784899839944</v>
+      </c>
+      <c r="AHR1">
+        <v>86.021527366030185</v>
+      </c>
+      <c r="AHS1">
+        <v>90.394955767286504</v>
+      </c>
+      <c r="AHT1">
+        <v>95.040157151876812</v>
+      </c>
+      <c r="AHU1">
+        <v>95.000000000000355</v>
+      </c>
+      <c r="AHV1">
+        <v>91.918124483379273</v>
+      </c>
+      <c r="AHW1">
+        <v>86.595965894062005</v>
+      </c>
+      <c r="AHX1">
+        <v>76.9805801326318</v>
+      </c>
+      <c r="AHY1">
+        <v>65.417784899841834</v>
+      </c>
+      <c r="AHZ1">
+        <v>51.458874387612155</v>
+      </c>
+      <c r="AIA1">
+        <v>34.992408152296484</v>
+      </c>
+      <c r="AIB1">
+        <v>18.132478607202454</v>
+      </c>
+      <c r="AIC1">
+        <v>3.9669271582825404E-13</v>
+      </c>
+      <c r="AID1">
+        <v>-18.13247860720173</v>
+      </c>
+      <c r="AIE1">
+        <v>-34.992408152296299</v>
+      </c>
+      <c r="AIF1">
+        <v>-51.458874387612056</v>
+      </c>
+      <c r="AIG1">
+        <v>-65.41778489983983</v>
+      </c>
+      <c r="AIH1">
+        <v>-76.980580132632099</v>
+      </c>
+      <c r="AII1">
+        <v>-86.595965894062658</v>
+      </c>
+      <c r="AIJ1">
+        <v>-91.918124483378648</v>
+      </c>
+      <c r="AIK1">
+        <v>-94.999999999999631</v>
+      </c>
+      <c r="AIL1">
+        <v>-95.040157151876144</v>
+      </c>
+      <c r="AIM1">
+        <v>-90.394955767286078</v>
+      </c>
+      <c r="AIN1">
+        <v>-86.021527366030668</v>
+      </c>
+      <c r="AIO1">
+        <v>-77.417784899840498</v>
+      </c>
+      <c r="AIP1">
+        <v>-67.127238618982346</v>
+      </c>
+      <c r="AIQ1">
+        <v>-70.791398025519825</v>
+      </c>
+      <c r="AIR1">
+        <v>-59.881928273672173</v>
+      </c>
+      <c r="AIS1">
+        <v>-2.4433385400598622E-12</v>
+      </c>
+      <c r="AIT1">
+        <v>59.881928273667846</v>
+      </c>
+      <c r="AIU1">
+        <v>70.791398025519598</v>
+      </c>
+      <c r="AIV1">
+        <v>67.127238618982958</v>
+      </c>
+      <c r="AIW1">
+        <v>77.417784899840356</v>
+      </c>
+      <c r="AIX1">
+        <v>86.021527366029758</v>
+      </c>
+      <c r="AIY1">
+        <v>90.394955767286959</v>
+      </c>
+      <c r="AIZ1">
+        <v>95.040157151877366</v>
+      </c>
+      <c r="AJA1">
+        <v>95.000000000000085</v>
+      </c>
+      <c r="AJB1">
+        <v>91.918124483379401</v>
+      </c>
+      <c r="AJC1">
+        <v>86.595965894064818</v>
+      </c>
+      <c r="AJD1">
+        <v>76.980580132629669</v>
+      </c>
+      <c r="AJE1">
+        <v>65.417784899842147</v>
+      </c>
+      <c r="AJF1">
+        <v>51.458874387614472</v>
+      </c>
+      <c r="AJG1">
+        <v>34.99240815229561</v>
+      </c>
+      <c r="AJH1">
+        <v>18.132478607202167</v>
+      </c>
+      <c r="AJI1">
+        <v>6.2601839838248292E-13</v>
+      </c>
+      <c r="AJJ1">
+        <v>-18.132478607200731</v>
+      </c>
+      <c r="AJK1">
+        <v>-34.992408152297195</v>
+      </c>
+      <c r="AJL1">
+        <v>-51.458874387613214</v>
+      </c>
+      <c r="AJM1">
+        <v>-65.417784899840228</v>
+      </c>
+      <c r="AJN1">
+        <v>-76.980580132628575</v>
+      </c>
+      <c r="AJO1">
+        <v>-86.595965894064207</v>
+      </c>
+      <c r="AJP1">
+        <v>-91.918124483378463</v>
+      </c>
+      <c r="AJQ1">
+        <v>-94.999999999999787</v>
+      </c>
+      <c r="AJR1">
+        <v>-95.040157151877708</v>
+      </c>
+      <c r="AJS1">
+        <v>-90.394955767286504</v>
+      </c>
+      <c r="AJT1">
+        <v>-86.021527366031108</v>
+      </c>
+      <c r="AJU1">
+        <v>-77.417784899842843</v>
+      </c>
+      <c r="AJV1">
+        <v>-67.12723861898246</v>
+      </c>
+      <c r="AJW1">
+        <v>-70.791398025519939</v>
+      </c>
+      <c r="AJX1">
+        <v>-59.881928273671925</v>
+      </c>
+      <c r="AJY1">
+        <v>-4.8444509412162387E-12</v>
+      </c>
+      <c r="AJZ1">
+        <v>59.881928273667967</v>
+      </c>
+      <c r="AKA1">
+        <v>70.791398025520522</v>
+      </c>
+      <c r="AKB1">
+        <v>67.127238618982389</v>
+      </c>
+      <c r="AKC1">
+        <v>77.417784899841394</v>
+      </c>
+      <c r="AKD1">
+        <v>86.021527366029943</v>
+      </c>
+      <c r="AKE1">
+        <v>90.394955767286817</v>
+      </c>
+      <c r="AKF1">
+        <v>95.040157151876173</v>
+      </c>
+      <c r="AKG1">
+        <v>94.999999999999744</v>
+      </c>
+      <c r="AKH1">
+        <v>91.918124483379287</v>
+      </c>
+      <c r="AKI1">
+        <v>86.595965894063099</v>
+      </c>
+      <c r="AKJ1">
+        <v>76.980580132630749</v>
+      </c>
+      <c r="AKK1">
+        <v>65.417784899840925</v>
+      </c>
+      <c r="AKL1">
+        <v>51.458874387613342</v>
+      </c>
+      <c r="AKM1">
+        <v>34.992408152299106</v>
+      </c>
+      <c r="AKN1">
+        <v>18.132478607201541</v>
+      </c>
+      <c r="AKO1">
+        <v>-1.6783745855783251E-13</v>
+      </c>
+      <c r="AKP1">
+        <v>-18.132478607201008</v>
+      </c>
+      <c r="AKQ1">
+        <v>-34.992408152294743</v>
+      </c>
+      <c r="AKR1">
+        <v>-51.458874387614109</v>
+      </c>
+      <c r="AKS1">
+        <v>-65.417784899840726</v>
+      </c>
+      <c r="AKT1">
+        <v>-76.980580132630692</v>
+      </c>
+      <c r="AKU1">
+        <v>-86.595965894063809</v>
+      </c>
+      <c r="AKV1">
+        <v>-91.918124483378378</v>
+      </c>
+      <c r="AKW1">
+        <v>-95.000000000000114</v>
+      </c>
+      <c r="AKX1">
+        <v>-95.040157151877381</v>
+      </c>
+      <c r="AKY1">
+        <v>-90.39495576728622</v>
+      </c>
+      <c r="AKZ1">
+        <v>-86.021527366030881</v>
+      </c>
+      <c r="ALA1">
+        <v>-77.417784899842829</v>
+      </c>
+      <c r="ALB1">
+        <v>-67.127238618983327</v>
+      </c>
+      <c r="ALC1">
+        <v>-70.791398025520152</v>
+      </c>
+      <c r="ALD1">
+        <v>-59.881928273670397</v>
+      </c>
+      <c r="ALE1">
+        <v>-5.540260776548376E-12</v>
+      </c>
+      <c r="ALF1">
+        <v>59.881928273669367</v>
+      </c>
+      <c r="ALG1">
+        <v>70.791398025520905</v>
+      </c>
+      <c r="ALH1">
+        <v>67.12723861898202</v>
+      </c>
+      <c r="ALI1">
+        <v>77.417784899840598</v>
+      </c>
+      <c r="ALJ1">
+        <v>86.021527366030455</v>
+      </c>
+      <c r="ALK1">
+        <v>90.394955767286618</v>
+      </c>
+      <c r="ALL1">
+        <v>95.040157151876755</v>
+      </c>
+      <c r="ALM1">
+        <v>94.999999999999559</v>
+      </c>
+      <c r="ALN1">
+        <v>91.918124483379444</v>
+      </c>
+      <c r="ALO1">
+        <v>86.595965894063511</v>
+      </c>
+      <c r="ALP1">
+        <v>76.980580132631076</v>
+      </c>
+      <c r="ALQ1">
+        <v>65.417784899840925</v>
+      </c>
+      <c r="ALR1">
+        <v>51.458874387613498</v>
+      </c>
+      <c r="ALS1">
+        <v>34.992408152297145</v>
+      </c>
+      <c r="ALT1">
+        <v>18.132478607203566</v>
+      </c>
+      <c r="ALU1">
+        <v>5.1623557488286024E-13</v>
+      </c>
+      <c r="ALV1">
+        <v>-18.13247860720131</v>
+      </c>
+      <c r="ALW1">
+        <v>-34.992408152296264</v>
+      </c>
+      <c r="ALX1">
+        <v>-51.458874387611168</v>
+      </c>
+      <c r="ALY1">
+        <v>-65.417784899841223</v>
+      </c>
+      <c r="ALZ1">
+        <v>-76.980580132630209</v>
+      </c>
+      <c r="AMA1">
+        <v>-86.595965894063326</v>
+      </c>
+      <c r="AMB1">
+        <v>-91.91812448337933</v>
+      </c>
+      <c r="AMC1">
+        <v>-94.999999999999091</v>
+      </c>
+      <c r="AMD1">
+        <v>-95.040157151877935</v>
+      </c>
+      <c r="AME1">
+        <v>-90.394955767287257</v>
+      </c>
+      <c r="AMF1">
+        <v>-86.021527366030355</v>
+      </c>
+      <c r="AMG1">
+        <v>-77.417784899841607</v>
+      </c>
+      <c r="AMH1">
+        <v>-67.127238618983</v>
+      </c>
+      <c r="AMI1">
+        <v>-70.791398025520834</v>
+      </c>
+      <c r="AMJ1">
+        <v>-59.88192827366877</v>
+      </c>
+      <c r="AMK1">
+        <v>-2.7117786425104159E-12</v>
+      </c>
+      <c r="AML1">
+        <v>59.881928273665665</v>
+      </c>
+      <c r="AMM1">
+        <v>70.791398025521175</v>
+      </c>
+      <c r="AMN1">
+        <v>67.127238618983128</v>
+      </c>
+      <c r="AMO1">
+        <v>77.417784899840299</v>
+      </c>
+      <c r="AMP1">
+        <v>86.021527366029858</v>
+      </c>
+      <c r="AMQ1">
+        <v>90.3949557672873</v>
+      </c>
+      <c r="AMR1">
+        <v>95.040157151877295</v>
+      </c>
+      <c r="AMS1">
+        <v>94.999999999999261</v>
+      </c>
+      <c r="AMT1">
+        <v>91.91812448337997</v>
+      </c>
+      <c r="AMU1">
+        <v>86.595965894063497</v>
+      </c>
+      <c r="AMV1">
+        <v>76.980580132631161</v>
+      </c>
+      <c r="AMW1">
+        <v>65.417784899842516</v>
+      </c>
+      <c r="AMX1">
+        <v>51.458874387611964</v>
+      </c>
+      <c r="AMY1">
+        <v>34.992408152297799</v>
+      </c>
+      <c r="AMZ1">
+        <v>18.132478607202945</v>
+      </c>
+      <c r="ANA1">
+        <v>5.1818758199385656E-13</v>
+      </c>
+      <c r="ANB1">
+        <v>-18.132478607201932</v>
+      </c>
+      <c r="ANC1">
+        <v>-34.992408152295639</v>
+      </c>
+      <c r="AND1">
+        <v>-51.458874387612703</v>
+      </c>
+      <c r="ANE1">
+        <v>-65.417784899839617</v>
+      </c>
+      <c r="ANF1">
+        <v>-76.980580132630109</v>
+      </c>
+      <c r="ANG1">
+        <v>-86.595965894063326</v>
+      </c>
+      <c r="ANH1">
+        <v>-91.918124483378804</v>
+      </c>
+      <c r="ANI1">
+        <v>-94.999999999999361</v>
+      </c>
+      <c r="ANJ1">
+        <v>-95.040157151877352</v>
+      </c>
+      <c r="ANK1">
+        <v>-90.394955767286632</v>
+      </c>
+      <c r="ANL1">
+        <v>-86.021527366030952</v>
+      </c>
+      <c r="ANM1">
+        <v>-77.417784899841351</v>
+      </c>
+      <c r="ANN1">
+        <v>-67.127238618981536</v>
+      </c>
+      <c r="ANO1">
+        <v>-70.791398025519982</v>
+      </c>
+      <c r="ANP1">
+        <v>-59.881928273672749</v>
+      </c>
+      <c r="ANQ1">
+        <v>-1.1338517234102316E-12</v>
+      </c>
+      <c r="ANR1">
+        <v>59.88192827366754</v>
+      </c>
+      <c r="ANS1">
+        <v>70.791398025519811</v>
+      </c>
+      <c r="ANT1">
+        <v>67.127238618983057</v>
+      </c>
+      <c r="ANU1">
+        <v>77.417784899840925</v>
+      </c>
+      <c r="ANV1">
+        <v>86.021527366030128</v>
+      </c>
+      <c r="ANW1">
+        <v>90.3949557672873</v>
+      </c>
+      <c r="ANX1">
+        <v>95.04015715187677</v>
+      </c>
+      <c r="ANY1">
+        <v>95.000000000000313</v>
+      </c>
+      <c r="ANZ1">
+        <v>91.91812448337906</v>
+      </c>
+      <c r="AOA1">
+        <v>86.595965894063966</v>
+      </c>
+      <c r="AOB1">
+        <v>76.980580132631673</v>
+      </c>
+      <c r="AOC1">
+        <v>65.417784899842033</v>
+      </c>
+      <c r="AOD1">
+        <v>51.458874387614934</v>
+      </c>
+      <c r="AOE1">
+        <v>34.992408152296264</v>
+      </c>
+      <c r="AOF1">
+        <v>18.132478607202646</v>
+      </c>
+      <c r="AOG1">
+        <v>1.2022606154345498E-12</v>
+      </c>
+      <c r="AOH1">
+        <v>-18.132478607199907</v>
+      </c>
+      <c r="AOI1">
+        <v>-34.992408152297571</v>
+      </c>
+      <c r="AOJ1">
+        <v>-51.45887438761374</v>
+      </c>
+      <c r="AOK1">
+        <v>-65.417784899840186</v>
+      </c>
+      <c r="AOL1">
+        <v>-76.980580132629214</v>
+      </c>
+      <c r="AOM1">
+        <v>-86.595965894062488</v>
+      </c>
+      <c r="AON1">
+        <v>-91.918124483379117</v>
+      </c>
+      <c r="AOO1">
+        <v>-95.000000000000043</v>
+      </c>
+      <c r="AOP1">
+        <v>-95.040157151875903</v>
+      </c>
+      <c r="AOQ1">
+        <v>-90.394955767285751</v>
+      </c>
+      <c r="AOR1">
+        <v>-86.021527366030696</v>
+      </c>
+      <c r="AOS1">
+        <v>-77.417784899842729</v>
+      </c>
+      <c r="AOT1">
+        <v>-67.127238618982261</v>
+      </c>
+      <c r="AOU1">
+        <v>-70.791398025520266</v>
+      </c>
+      <c r="AOV1">
+        <v>-59.881928273671093</v>
+      </c>
+      <c r="AOW1">
+        <v>-5.7910634380459195E-13</v>
+      </c>
+      <c r="AOX1">
+        <v>59.881928273668798</v>
+      </c>
+      <c r="AOY1">
+        <v>70.791398025520238</v>
+      </c>
+      <c r="AOZ1">
+        <v>67.127238618982631</v>
+      </c>
+      <c r="APA1">
+        <v>77.417784899841521</v>
+      </c>
+      <c r="APB1">
+        <v>86.021527366030639</v>
+      </c>
+      <c r="APC1">
+        <v>90.394955767286504</v>
+      </c>
+      <c r="APD1">
+        <v>95.040157151876258</v>
+      </c>
+      <c r="APE1">
+        <v>95.000000000000441</v>
+      </c>
+      <c r="APF1">
+        <v>91.918124483379657</v>
+      </c>
+      <c r="APG1">
+        <v>86.59596589406479</v>
+      </c>
+      <c r="APH1">
+        <v>76.980580132630095</v>
+      </c>
+      <c r="API1">
+        <v>65.417784899840981</v>
+      </c>
+      <c r="APJ1">
+        <v>51.458874387615218</v>
+      </c>
+      <c r="APK1">
+        <v>34.992408152298772</v>
+      </c>
+      <c r="APL1">
+        <v>18.132478607201627</v>
+      </c>
+      <c r="APM1">
+        <v>6.7344245329386289E-14</v>
+      </c>
+      <c r="APN1">
+        <v>-18.132478607201147</v>
+      </c>
+      <c r="APO1">
+        <v>-34.992408152293997</v>
+      </c>
+      <c r="APP1">
+        <v>-51.458874387613456</v>
+      </c>
+      <c r="APQ1">
+        <v>-65.417784899840839</v>
+      </c>
+      <c r="APR1">
+        <v>-76.980580132628717</v>
+      </c>
+      <c r="APS1">
+        <v>-86.595965894064847</v>
+      </c>
+      <c r="APT1">
+        <v>-91.918124483378904</v>
+      </c>
+      <c r="APU1">
+        <v>-94.999999999999886</v>
+      </c>
+      <c r="APV1">
+        <v>-95.040157151877949</v>
+      </c>
+      <c r="APW1">
+        <v>-90.394955767286703</v>
+      </c>
+      <c r="APX1">
+        <v>-86.021527366030185</v>
+      </c>
+      <c r="APY1">
+        <v>-77.417784899841635</v>
+      </c>
+      <c r="APZ1">
+        <v>-67.12723861898246</v>
+      </c>
+      <c r="AQA1">
+        <v>-70.791398025518788</v>
+      </c>
+      <c r="AQB1">
+        <v>-59.8819282736711</v>
+      </c>
+      <c r="AQC1">
+        <v>-4.2307739598987464E-12</v>
+      </c>
+      <c r="AQD1">
+        <v>59.881928273668798</v>
+      </c>
+      <c r="AQE1">
+        <v>70.791398025520635</v>
+      </c>
+      <c r="AQF1">
+        <v>67.127238618981892</v>
+      </c>
+      <c r="AQG1">
+        <v>77.417784899838622</v>
+      </c>
+      <c r="AQH1">
+        <v>86.021527366029943</v>
+      </c>
+      <c r="AQI1">
+        <v>90.394955767287371</v>
+      </c>
+      <c r="AQJ1">
+        <v>95.040157151876571</v>
+      </c>
+      <c r="AQK1">
+        <v>94.999999999999815</v>
+      </c>
+      <c r="AQL1">
+        <v>91.91812448337933</v>
+      </c>
+      <c r="AQM1">
+        <v>86.595965894062644</v>
+      </c>
+      <c r="AQN1">
+        <v>76.980580132633037</v>
+      </c>
+      <c r="AQO1">
+        <v>65.417784899841124</v>
+      </c>
+      <c r="AQP1">
+        <v>51.458874387612866</v>
+      </c>
+      <c r="AQQ1">
+        <v>34.992408152297891</v>
+      </c>
+      <c r="AQR1">
+        <v>18.13247860720324</v>
+      </c>
+      <c r="AQS1">
+        <v>6.3773044104846306E-13</v>
+      </c>
+      <c r="AQT1">
+        <v>-18.132478607200831</v>
+      </c>
+      <c r="AQU1">
+        <v>-34.992408152294892</v>
+      </c>
+      <c r="AQV1">
+        <v>-51.458874387612333</v>
+      </c>
+      <c r="AQW1">
+        <v>-65.417784899841067</v>
+      </c>
+      <c r="AQX1">
+        <v>-76.980580132630294</v>
+      </c>
+      <c r="AQY1">
+        <v>-86.595965894061607</v>
+      </c>
+      <c r="AQZ1">
+        <v>-91.918124483378335</v>
+      </c>
+      <c r="ARA1">
+        <v>-95.000000000000639</v>
+      </c>
+      <c r="ARB1">
+        <v>-95.040157151876556</v>
+      </c>
+      <c r="ARC1">
+        <v>-90.394955767285197</v>
+      </c>
+      <c r="ARD1">
+        <v>-86.021527366030881</v>
+      </c>
+      <c r="ARE1">
+        <v>-77.417784899841834</v>
+      </c>
+      <c r="ARF1">
+        <v>-67.127238618983156</v>
+      </c>
+      <c r="ARG1">
+        <v>-70.791398025521161</v>
+      </c>
+      <c r="ARH1">
+        <v>-59.881928273669224</v>
+      </c>
+      <c r="ARI1">
+        <v>-3.221281229406642E-12</v>
+      </c>
+      <c r="ARJ1">
+        <v>59.88192827366651</v>
+      </c>
+      <c r="ARK1">
+        <v>70.791398025521445</v>
+      </c>
+      <c r="ARL1">
+        <v>67.127238618982162</v>
+      </c>
+      <c r="ARM1">
+        <v>77.417784899840413</v>
+      </c>
+      <c r="ARN1">
+        <v>86.021527366029986</v>
+      </c>
+      <c r="ARO1">
+        <v>90.39495576728639</v>
+      </c>
+      <c r="ARP1">
+        <v>95.040157151876954</v>
+      </c>
+      <c r="ARQ1">
+        <v>94.999999999999943</v>
+      </c>
+      <c r="ARR1">
+        <v>91.918124483379913</v>
+      </c>
+      <c r="ARS1">
+        <v>86.595965894063298</v>
+      </c>
+      <c r="ART1">
+        <v>76.980580132631459</v>
+      </c>
+      <c r="ARU1">
+        <v>65.417784899842545</v>
+      </c>
+      <c r="ARV1">
+        <v>51.458874387611445</v>
+      </c>
+      <c r="ARW1">
+        <v>34.992408152296974</v>
+      </c>
+      <c r="ARX1">
+        <v>18.132478607202192</v>
+      </c>
+      <c r="ARY1">
+        <v>7.5336928588107561E-13</v>
+      </c>
+      <c r="ARZ1">
+        <v>-18.132478607201843</v>
+      </c>
+      <c r="ASA1">
+        <v>-34.992408152296136</v>
+      </c>
+      <c r="ASB1">
+        <v>-51.458874387612042</v>
+      </c>
+      <c r="ASC1">
+        <v>-65.417784899839731</v>
+      </c>
+      <c r="ASD1">
+        <v>-76.980580132631317</v>
+      </c>
+      <c r="ASE1">
+        <v>-86.595965894063539</v>
+      </c>
+      <c r="ASF1">
+        <v>-91.918124483378222</v>
+      </c>
+      <c r="ASG1">
+        <v>-94.999999999999133</v>
+      </c>
+      <c r="ASH1">
+        <v>-95.040157151876826</v>
+      </c>
+      <c r="ASI1">
+        <v>-90.394955767286461</v>
+      </c>
+      <c r="ASJ1">
+        <v>-86.021527366030256</v>
+      </c>
+      <c r="ASK1">
+        <v>-77.417784899840754</v>
+      </c>
+      <c r="ASL1">
+        <v>-67.127238618981707</v>
+      </c>
+      <c r="ASM1">
+        <v>-70.791398025520095</v>
+      </c>
+      <c r="ASN1">
+        <v>-59.881928273673417</v>
+      </c>
+      <c r="ASO1">
+        <v>-2.7802226875226178E-12</v>
+      </c>
+      <c r="ASP1">
+        <v>59.881928273666624</v>
+      </c>
+      <c r="ASQ1">
+        <v>70.791398025519726</v>
+      </c>
+      <c r="ASR1">
+        <v>67.12723861898364</v>
+      </c>
+      <c r="ASS1">
+        <v>77.417784899839859</v>
+      </c>
+      <c r="AST1">
+        <v>86.021527366029972</v>
+      </c>
+      <c r="ASU1">
+        <v>90.394955767287911</v>
+      </c>
+      <c r="ASV1">
+        <v>95.040157151877011</v>
+      </c>
+      <c r="ASW1">
+        <v>95.000000000000526</v>
+      </c>
+      <c r="ASX1">
+        <v>91.918124483379586</v>
+      </c>
+      <c r="ASY1">
+        <v>86.595965894063781</v>
+      </c>
+      <c r="ASZ1">
+        <v>76.98058013263099</v>
+      </c>
+      <c r="ATA1">
+        <v>65.417784899841891</v>
+      </c>
+      <c r="ATB1">
+        <v>51.458874387614529</v>
+      </c>
+      <c r="ATC1">
+        <v>34.992408152296406</v>
+      </c>
+      <c r="ATD1">
+        <v>18.132478607202408</v>
+      </c>
+      <c r="ATE1">
+        <v>3.0057394210560827E-13</v>
+      </c>
+      <c r="ATF1">
+        <v>-18.132478607200234</v>
+      </c>
+      <c r="ATG1">
+        <v>-34.992408152297024</v>
+      </c>
+      <c r="ATH1">
+        <v>-51.458874387613058</v>
+      </c>
+      <c r="ATI1">
+        <v>-65.417784899840782</v>
+      </c>
+      <c r="ATJ1">
+        <v>-76.980580132629498</v>
+      </c>
+      <c r="ATK1">
+        <v>-86.595965894063127</v>
+      </c>
+      <c r="ATL1">
+        <v>-91.918124483378747</v>
+      </c>
+      <c r="ATM1">
+        <v>-95.000000000000227</v>
+      </c>
+      <c r="ATN1">
+        <v>-95.040157151877082</v>
+      </c>
+      <c r="ATO1">
+        <v>-90.39495576728558</v>
+      </c>
+      <c r="ATP1">
+        <v>-86.021527366030256</v>
+      </c>
+      <c r="ATQ1">
+        <v>-77.417784899843639</v>
+      </c>
+      <c r="ATR1">
+        <v>-67.127238618981778</v>
+      </c>
+      <c r="ATS1">
+        <v>-70.791398025519328</v>
+      </c>
+      <c r="ATT1">
+        <v>-59.881928273671527</v>
+      </c>
+      <c r="ATU1">
+        <v>-6.3182034658951542E-12</v>
+      </c>
+      <c r="ATV1">
+        <v>59.8819282736685</v>
+      </c>
+      <c r="ATW1">
+        <v>70.791398025519484</v>
+      </c>
+      <c r="ATX1">
+        <v>67.127238618980982</v>
+      </c>
+      <c r="ATY1">
+        <v>77.417784899840825</v>
+      </c>
+      <c r="ATZ1">
+        <v>86.021527366029815</v>
+      </c>
+      <c r="AUA1">
+        <v>90.394955767286646</v>
+      </c>
+      <c r="AUB1">
+        <v>95.040157151875007</v>
+      </c>
+      <c r="AUC1">
+        <v>95.000000000000696</v>
+      </c>
+      <c r="AUD1">
+        <v>91.918124483380183</v>
+      </c>
+      <c r="AUE1">
+        <v>86.595965894064108</v>
+      </c>
+      <c r="AUF1">
+        <v>76.980580132630408</v>
+      </c>
+      <c r="AUG1">
+        <v>65.417784899841664</v>
+      </c>
+      <c r="AUH1">
+        <v>51.458874387613612</v>
+      </c>
+      <c r="AUI1">
+        <v>34.992408152298651</v>
+      </c>
+      <c r="AUJ1">
+        <v>18.132478607201488</v>
+      </c>
+      <c r="AUK1">
+        <v>8.7096013782468539E-13</v>
+      </c>
+      <c r="AUL1">
+        <v>-18.132478607201143</v>
+      </c>
+      <c r="AUM1">
+        <v>-34.992408152295837</v>
+      </c>
+      <c r="AUN1">
+        <v>-51.458874387613406</v>
+      </c>
+      <c r="AUO1">
+        <v>-65.41778489984064</v>
+      </c>
+      <c r="AUP1">
+        <v>-76.980580132629967</v>
+      </c>
+      <c r="AUQ1">
+        <v>-86.595965894065031</v>
+      </c>
+      <c r="AUR1">
+        <v>-91.918124483379046</v>
+      </c>
+      <c r="AUS1">
+        <v>-94.999999999999616</v>
+      </c>
+      <c r="AUT1">
+        <v>-95.040157151877509</v>
+      </c>
+      <c r="AUU1">
+        <v>-90.394955767286447</v>
+      </c>
+      <c r="AUV1">
+        <v>-86.02152736603044</v>
+      </c>
+      <c r="AUW1">
+        <v>-77.417784899841877</v>
+      </c>
+      <c r="AUX1">
+        <v>-67.127238618983682</v>
+      </c>
+      <c r="AUY1">
+        <v>-70.79139802551893</v>
+      </c>
+      <c r="AUZ1">
+        <v>-59.881928273671527</v>
+      </c>
+      <c r="AVA1">
+        <v>-4.7402765467949725E-12</v>
+      </c>
+      <c r="AVB1">
+        <v>59.881928273668265</v>
+      </c>
+      <c r="AVC1">
+        <v>70.791398025520934</v>
+      </c>
+      <c r="AVD1">
+        <v>67.127238618983085</v>
+      </c>
+      <c r="AVE1">
+        <v>77.417784899839859</v>
+      </c>
+      <c r="AVF1">
+        <v>86.021527366029773</v>
+      </c>
+      <c r="AVG1">
+        <v>90.394955767287513</v>
+      </c>
+      <c r="AVH1">
+        <v>95.040157151876372</v>
+      </c>
+      <c r="AVI1">
+        <v>94.999999999998664</v>
+      </c>
+      <c r="AVJ1">
+        <v>91.918124483378719</v>
+      </c>
+      <c r="AVK1">
+        <v>86.595965894061749</v>
+      </c>
+      <c r="AVL1">
+        <v>76.980580132632383</v>
+      </c>
+      <c r="AVM1">
+        <v>65.41778489984101</v>
+      </c>
+      <c r="AVN1">
+        <v>51.458874387613918</v>
+      </c>
+      <c r="AVO1">
+        <v>34.992408152299099</v>
+      </c>
+      <c r="AVP1">
+        <v>18.132478607203105</v>
+      </c>
+      <c r="AVQ1">
+        <v>1.5550331712653782E-12</v>
+      </c>
+      <c r="AVR1">
+        <v>-18.132478607200937</v>
+      </c>
+      <c r="AVS1">
+        <v>-34.992408152295376</v>
+      </c>
+      <c r="AVT1">
+        <v>-51.458874387611964</v>
+      </c>
+      <c r="AVU1">
+        <v>-65.417784899841692</v>
+      </c>
+      <c r="AVV1">
+        <v>-76.98058013263153</v>
+      </c>
+      <c r="AVW1">
+        <v>-86.595965894062317</v>
+      </c>
+      <c r="AVX1">
+        <v>-91.918124483379529</v>
+      </c>
+      <c r="AVY1">
+        <v>-94.999999999999503</v>
+      </c>
+      <c r="AVZ1">
+        <v>-95.040157151878006</v>
+      </c>
+      <c r="AWA1">
+        <v>-90.394955767287442</v>
+      </c>
+      <c r="AWB1">
+        <v>-86.021527366030469</v>
+      </c>
+      <c r="AWC1">
+        <v>-77.417784899841934</v>
+      </c>
+      <c r="AWD1">
+        <v>-67.127238618982958</v>
+      </c>
+      <c r="AWE1">
+        <v>-70.791398025521872</v>
+      </c>
+      <c r="AWF1">
+        <v>-59.881928273669878</v>
+      </c>
+      <c r="AWG1">
+        <v>-4.1855311671893318E-12</v>
+      </c>
+      <c r="AWH1">
+        <v>59.881928273666205</v>
+      </c>
+      <c r="AWI1">
+        <v>70.791398025520678</v>
+      </c>
+      <c r="AWJ1">
+        <v>67.127238618982844</v>
+      </c>
+      <c r="AWK1">
+        <v>77.417784899840541</v>
+      </c>
+      <c r="AWL1">
+        <v>86.021527366029844</v>
+      </c>
+      <c r="AWM1">
+        <v>90.394955767286689</v>
+      </c>
+      <c r="AWN1">
+        <v>95.040157151875718</v>
+      </c>
+      <c r="AWO1">
+        <v>95.000000000000171</v>
+      </c>
+      <c r="AWP1">
+        <v>91.918124483379813</v>
+      </c>
+      <c r="AWQ1">
+        <v>86.595965894062587</v>
+      </c>
+      <c r="AWR1">
+        <v>76.980580132633179</v>
+      </c>
+      <c r="AWS1">
+        <v>65.417784899841962</v>
+      </c>
+      <c r="AWT1">
+        <v>51.458874387612248</v>
+      </c>
+      <c r="AWU1">
+        <v>34.992408152297152</v>
+      </c>
+      <c r="AWV1">
+        <v>18.1324786072039</v>
+      </c>
+      <c r="AWW1">
+        <v>1.8980456915412231E-12</v>
+      </c>
+      <c r="AWX1">
+        <v>-18.132478607201843</v>
+      </c>
+      <c r="AWY1">
+        <v>-34.992408152296292</v>
+      </c>
+      <c r="AWZ1">
+        <v>-51.45887438761104</v>
+      </c>
+      <c r="AXA1">
+        <v>-65.417784899839617</v>
+      </c>
+      <c r="AXB1">
+        <v>-76.980580132631047</v>
+      </c>
+      <c r="AXC1">
+        <v>-86.595965894062772</v>
+      </c>
+      <c r="AXD1">
+        <v>-91.918124483379074</v>
+      </c>
+      <c r="AXE1">
+        <v>-95.000000000000114</v>
+      </c>
+      <c r="AXF1">
+        <v>-95.040157151877679</v>
+      </c>
+      <c r="AXG1">
+        <v>-90.394955767286774</v>
+      </c>
+      <c r="AXH1">
+        <v>-86.021527366030512</v>
+      </c>
+      <c r="AXI1">
+        <v>-77.417784899841934</v>
+      </c>
+      <c r="AXJ1">
+        <v>-67.127238618984236</v>
+      </c>
+      <c r="AXK1">
+        <v>-70.791398025519811</v>
+      </c>
+      <c r="AXL1">
+        <v>-59.881928273668514</v>
+      </c>
+      <c r="AXM1">
+        <v>-7.8371987832834851E-12</v>
+      </c>
+      <c r="AXN1">
+        <v>59.881928273667555</v>
+      </c>
+      <c r="AXO1">
+        <v>70.791398025522369</v>
+      </c>
+      <c r="AXP1">
+        <v>67.127238618983014</v>
+      </c>
+      <c r="AXQ1">
+        <v>77.417784899840782</v>
+      </c>
+      <c r="AXR1">
+        <v>86.021527366030114</v>
+      </c>
+      <c r="AXS1">
+        <v>90.394955767285666</v>
+      </c>
+      <c r="AXT1">
+        <v>95.040157151877153</v>
+      </c>
+      <c r="AXU1">
+        <v>94.999999999998167</v>
+      </c>
+      <c r="AXV1">
+        <v>91.918124483379401</v>
+      </c>
+      <c r="AXW1">
+        <v>86.595965894062601</v>
+      </c>
+      <c r="AXX1">
+        <v>76.980580132633861</v>
+      </c>
+      <c r="AXY1">
+        <v>65.417784899842829</v>
+      </c>
+      <c r="AXZ1">
+        <v>51.458874387612546</v>
+      </c>
+      <c r="AYA1">
+        <v>34.992408152300726</v>
+      </c>
+      <c r="AYB1">
+        <v>18.13247860720266</v>
+      </c>
+      <c r="AYC1">
+        <v>3.0838197054959536E-13</v>
+      </c>
+      <c r="AYD1">
+        <v>-18.132478607200241</v>
+      </c>
+      <c r="AYE1">
+        <v>-34.992408152296875</v>
+      </c>
+      <c r="AYF1">
+        <v>-51.458874387610997</v>
+      </c>
+      <c r="AYG1">
+        <v>-65.417784899840569</v>
+      </c>
+      <c r="AYH1">
+        <v>-76.980580132630323</v>
+      </c>
+      <c r="AYI1">
+        <v>-86.595965894061436</v>
+      </c>
+      <c r="AYJ1">
+        <v>-91.918124483378435</v>
+      </c>
+      <c r="AYK1">
+        <v>-94.999999999998749</v>
+      </c>
+      <c r="AYL1">
+        <v>-95.040157151878617</v>
+      </c>
+      <c r="AYM1">
+        <v>-90.394955767287414</v>
+      </c>
+      <c r="AYN1">
+        <v>-86.021527366030213</v>
+      </c>
+      <c r="AYO1">
+        <v>-77.417784899844023</v>
+      </c>
+      <c r="AYP1">
+        <v>-67.127238618981565</v>
+      </c>
+      <c r="AYQ1">
+        <v>-70.791398025522795</v>
+      </c>
+      <c r="AYR1">
+        <v>-59.881928273671946</v>
+      </c>
+      <c r="AYS1">
+        <v>1.4714331008865893E-12</v>
+      </c>
+      <c r="AYT1">
+        <v>59.881928273663888</v>
+      </c>
+      <c r="AYU1">
+        <v>70.791398025520451</v>
+      </c>
+      <c r="AYV1">
+        <v>67.127238618984236</v>
+      </c>
+      <c r="AYW1">
+        <v>77.417784899839432</v>
+      </c>
+      <c r="AYX1">
+        <v>86.021527366030767</v>
+      </c>
+      <c r="AYY1">
+        <v>90.394955767286305</v>
+      </c>
+      <c r="AYZ1">
+        <v>95.040157151875093</v>
+      </c>
+      <c r="AZA1">
+        <v>95.000000000000938</v>
+      </c>
+      <c r="AZB1">
+        <v>91.918124483379415</v>
+      </c>
+      <c r="AZC1">
+        <v>86.595965894063482</v>
+      </c>
+      <c r="AZD1">
+        <v>76.980580132630976</v>
+      </c>
+      <c r="AZE1">
+        <v>65.41778489984307</v>
+      </c>
+      <c r="AZF1">
+        <v>51.458874387613236</v>
+      </c>
+      <c r="AZG1">
+        <v>34.992408152295454</v>
+      </c>
+      <c r="AZH1">
+        <v>18.13247860720459</v>
+      </c>
+      <c r="AZI1">
+        <v>1.7882628680416001E-12</v>
+      </c>
+      <c r="AZJ1">
+        <v>-18.132478607201307</v>
+      </c>
+      <c r="AZK1">
+        <v>-34.992408152294658</v>
+      </c>
+      <c r="AZL1">
+        <v>-51.458874387612425</v>
+      </c>
+      <c r="AZM1">
+        <v>-65.417784899838523</v>
+      </c>
+      <c r="AZN1">
+        <v>-76.980580132630607</v>
+      </c>
+      <c r="AZO1">
+        <v>-86.595965894063852</v>
+      </c>
+      <c r="AZP1">
+        <v>-91.918124483379472</v>
+      </c>
+      <c r="AZQ1">
+        <v>-95.000000000000782</v>
+      </c>
+      <c r="AZR1">
+        <v>-95.040157151876528</v>
+      </c>
+      <c r="AZS1">
+        <v>-90.394955767286305</v>
+      </c>
+      <c r="AZT1">
+        <v>-86.021527366030696</v>
+      </c>
+      <c r="AZU1">
+        <v>-77.417784899840228</v>
+      </c>
+      <c r="AZV1">
+        <v>-67.127238618983483</v>
+      </c>
+      <c r="AZW1">
+        <v>-70.791398025518603</v>
+      </c>
+      <c r="AZX1">
+        <v>-59.881928273674767</v>
+      </c>
+      <c r="AZY1">
+        <v>-5.7045264845776619E-12</v>
+      </c>
+      <c r="AZZ1">
+        <v>59.881928273669189</v>
+      </c>
+      <c r="BAA1">
+        <v>70.791398025519314</v>
+      </c>
+      <c r="BAB1">
+        <v>67.127238618982332</v>
+      </c>
+      <c r="BAC1">
+        <v>77.417784899842488</v>
+      </c>
+      <c r="BAD1">
+        <v>86.021527366030597</v>
+      </c>
+      <c r="BAE1">
+        <v>90.394955767285722</v>
+      </c>
+      <c r="BAF1">
+        <v>95.040157151876613</v>
+      </c>
+      <c r="BAG1">
+        <v>94.999999999998892</v>
+      </c>
+      <c r="BAH1">
+        <v>91.918124483378605</v>
+      </c>
+      <c r="BAI1">
+        <v>86.595965894065884</v>
+      </c>
+      <c r="BAJ1">
+        <v>76.980580132630664</v>
+      </c>
+      <c r="BAK1">
+        <v>65.417784899841124</v>
+      </c>
+      <c r="BAL1">
+        <v>51.458874387616738</v>
+      </c>
+      <c r="BAM1">
+        <v>34.992408152296619</v>
+      </c>
+      <c r="BAN1">
+        <v>18.132478607201961</v>
+      </c>
+      <c r="BAO1">
+        <v>1.1080938488229008E-12</v>
+      </c>
+      <c r="BAP1">
+        <v>-18.132478607201207</v>
+      </c>
+      <c r="BAQ1">
+        <v>-34.992408152297315</v>
+      </c>
+      <c r="BAR1">
+        <v>-51.458874387611743</v>
+      </c>
+      <c r="BAS1">
+        <v>-65.417784899841351</v>
+      </c>
+      <c r="BAT1">
+        <v>-76.980580132626542</v>
+      </c>
+      <c r="BAU1">
+        <v>-86.595965894062957</v>
+      </c>
+      <c r="BAV1">
+        <v>-91.918124483377937</v>
+      </c>
+      <c r="BAW1">
+        <v>-95.000000000000483</v>
+      </c>
+      <c r="BAX1">
+        <v>-95.040157151878574</v>
+      </c>
+      <c r="BAY1">
+        <v>-90.39495576728774</v>
+      </c>
+      <c r="BAZ1">
+        <v>-86.021527366030909</v>
+      </c>
+      <c r="BBA1">
+        <v>-77.417784899841976</v>
+      </c>
+      <c r="BBB1">
+        <v>-67.127238618979419</v>
+      </c>
+      <c r="BBC1">
+        <v>-70.791398025521588</v>
+      </c>
+      <c r="BBD1">
+        <v>-59.881928273670297</v>
+      </c>
+      <c r="BBE1">
+        <v>-6.8550836707962601E-12</v>
+      </c>
+      <c r="BBF1">
+        <v>59.881928273665771</v>
+      </c>
+      <c r="BBG1">
+        <v>70.791398025520621</v>
+      </c>
+      <c r="BBH1">
+        <v>67.12723861898175</v>
+      </c>
+      <c r="BBI1">
+        <v>77.417784899839589</v>
+      </c>
+      <c r="BBJ1">
+        <v>86.021527366030597</v>
+      </c>
+      <c r="BBK1">
+        <v>90.394955767286817</v>
+      </c>
+      <c r="BBL1">
+        <v>95.04015715187623</v>
+      </c>
+      <c r="BBM1">
+        <v>95.000000000001691</v>
+      </c>
+      <c r="BBN1">
+        <v>91.918124483379671</v>
+      </c>
+      <c r="BBO1">
+        <v>86.595965894062388</v>
+      </c>
+      <c r="BBP1">
+        <v>76.980580132629854</v>
+      </c>
+      <c r="BBQ1">
+        <v>65.417784899842175</v>
+      </c>
+      <c r="BBR1">
+        <v>51.45887438761185</v>
+      </c>
+      <c r="BBS1">
+        <v>34.992408152300222</v>
+      </c>
+      <c r="BBT1">
+        <v>18.13247860720357</v>
+      </c>
+      <c r="BBU1">
+        <v>5.4161166732581734E-13</v>
+      </c>
+      <c r="BBV1">
+        <v>-18.132478607199261</v>
+      </c>
+      <c r="BBW1">
+        <v>-34.992408152296115</v>
+      </c>
+      <c r="BBX1">
+        <v>-51.458874387616198</v>
+      </c>
+      <c r="BBY1">
+        <v>-65.417784899838438</v>
+      </c>
+      <c r="BBZ1">
+        <v>-76.980580132631687</v>
+      </c>
+      <c r="BCA1">
+        <v>-86.595965894065358</v>
+      </c>
+      <c r="BCB1">
+        <v>-91.918124483377881</v>
+      </c>
+      <c r="BCC1">
+        <v>-95.000000000000028</v>
+      </c>
+      <c r="BCD1">
+        <v>-95.040157151876727</v>
+      </c>
+      <c r="BCE1">
+        <v>-90.394955767285722</v>
+      </c>
+      <c r="BCF1">
+        <v>-86.021527366030895</v>
+      </c>
+      <c r="BCG1">
+        <v>-77.417784899843326</v>
+      </c>
+      <c r="BCH1">
+        <v>-67.12723861898283</v>
+      </c>
+      <c r="BCI1">
+        <v>-70.791398025518475</v>
+      </c>
+      <c r="BCJ1">
+        <v>-59.881928273672905</v>
+      </c>
+      <c r="BCK1">
+        <v>-3.79922786131507E-12</v>
+      </c>
+      <c r="BCL1">
+        <v>59.881928273670844</v>
+      </c>
+      <c r="BCM1">
+        <v>70.791398025520522</v>
+      </c>
+      <c r="BCN1">
+        <v>67.127238618983711</v>
+      </c>
+      <c r="BCO1">
+        <v>77.417784899839376</v>
+      </c>
+      <c r="BCP1">
+        <v>86.021527366030639</v>
+      </c>
+      <c r="BCQ1">
+        <v>90.394955767285339</v>
+      </c>
+      <c r="BCR1">
+        <v>95.040157151875306</v>
+      </c>
+      <c r="BCS1">
+        <v>95.000000000000568</v>
+      </c>
+      <c r="BCT1">
+        <v>91.918124483377753</v>
+      </c>
+      <c r="BCU1">
+        <v>86.595965894064364</v>
+      </c>
+      <c r="BCV1">
+        <v>76.980580132629569</v>
+      </c>
+      <c r="BCW1">
+        <v>65.417784899840228</v>
+      </c>
+      <c r="BCX1">
+        <v>51.458874387616</v>
+      </c>
+      <c r="BCY1">
+        <v>34.992408152296179</v>
+      </c>
+      <c r="BCZ1">
+        <v>18.132478607204501</v>
+      </c>
+      <c r="BDA1">
+        <v>1.3393715384881267E-12</v>
+      </c>
+      <c r="BDB1">
+        <v>-18.132478607201897</v>
+      </c>
+      <c r="BDC1">
+        <v>-34.992408152293898</v>
+      </c>
+      <c r="BDD1">
+        <v>-51.458874387613122</v>
+      </c>
+      <c r="BDE1">
+        <v>-65.417784899842246</v>
+      </c>
+      <c r="BDF1">
+        <v>-76.980580132628575</v>
+      </c>
+      <c r="BDG1">
+        <v>-86.595965894064022</v>
+      </c>
+      <c r="BDH1">
+        <v>-91.91812448337879</v>
+      </c>
+      <c r="BDI1">
+        <v>-94.999999999999758</v>
+      </c>
+      <c r="BDJ1">
+        <v>-95.040157151877438</v>
+      </c>
+      <c r="BDK1">
+        <v>-90.394955767286774</v>
+      </c>
+      <c r="BDL1">
+        <v>-86.02152736603081</v>
+      </c>
+      <c r="BDM1">
+        <v>-77.417784899840257</v>
+      </c>
+      <c r="BDN1">
+        <v>-67.127238618984734</v>
+      </c>
+      <c r="BDO1">
+        <v>-70.791398025519129</v>
+      </c>
+      <c r="BDP1">
+        <v>-59.881928273668663</v>
+      </c>
+      <c r="BDQ1">
+        <v>-6.0866534247498317E-12</v>
+      </c>
+      <c r="BDR1">
+        <v>59.881928273667398</v>
+      </c>
+      <c r="BDS1">
+        <v>70.791398025521787</v>
+      </c>
+      <c r="BDT1">
+        <v>67.12723861898175</v>
+      </c>
+      <c r="BDU1">
+        <v>77.417784899841294</v>
+      </c>
+      <c r="BDV1">
+        <v>86.021527366029915</v>
+      </c>
+      <c r="BDW1">
+        <v>90.394955767287357</v>
+      </c>
+      <c r="BDX1">
+        <v>95.040157151877395</v>
+      </c>
+      <c r="BDY1">
+        <v>94.999999999998522</v>
+      </c>
+      <c r="BDZ1">
+        <v>91.918124483380168</v>
+      </c>
+      <c r="BEA1">
+        <v>86.595965894060896</v>
+      </c>
+      <c r="BEB1">
+        <v>76.98058013263271</v>
+      </c>
+      <c r="BEC1">
+        <v>65.417784899840456</v>
+      </c>
+      <c r="BED1">
+        <v>51.458874387610472</v>
+      </c>
+      <c r="BEE1">
+        <v>34.992408152298736</v>
+      </c>
+      <c r="BEF1">
+        <v>18.13247860720287</v>
+      </c>
+      <c r="BEG1">
+        <v>1.3413235455991233E-12</v>
+      </c>
+      <c r="BEH1">
+        <v>-18.132478607200291</v>
+      </c>
+      <c r="BEI1">
+        <v>-34.992408152296562</v>
+      </c>
+      <c r="BEJ1">
+        <v>-51.458874387612433</v>
+      </c>
+      <c r="BEK1">
+        <v>-65.417784899841308</v>
+      </c>
+      <c r="BEL1">
+        <v>-76.980580132633719</v>
+      </c>
+      <c r="BEM1">
+        <v>-86.595965894061621</v>
+      </c>
+      <c r="BEN1">
+        <v>-91.918124483377596</v>
+      </c>
+      <c r="BEO1">
+        <v>-94.999999999999261</v>
+      </c>
+      <c r="BEP1">
+        <v>-95.040157151875604</v>
+      </c>
+      <c r="BEQ1">
+        <v>-90.394955767285666</v>
+      </c>
+      <c r="BER1">
+        <v>-86.021527366032487</v>
+      </c>
+      <c r="BES1">
+        <v>-77.417784899843141</v>
+      </c>
+      <c r="BET1">
+        <v>-67.127238618981437</v>
+      </c>
+      <c r="BEU1">
+        <v>-70.791398025522071</v>
+      </c>
+      <c r="BEV1">
+        <v>-59.881928273671264</v>
+      </c>
+      <c r="BEW1">
+        <v>-1.6665555626092464E-12</v>
+      </c>
+      <c r="BEX1">
+        <v>59.881928273664798</v>
+      </c>
+      <c r="BEY1">
+        <v>70.791398025520692</v>
+      </c>
+      <c r="BEZ1">
+        <v>67.127238618983725</v>
+      </c>
+      <c r="BFA1">
+        <v>77.417784899841081</v>
+      </c>
+      <c r="BFB1">
+        <v>86.021527366031407</v>
+      </c>
+      <c r="BFC1">
+        <v>90.394955767285907</v>
+      </c>
+      <c r="BFD1">
+        <v>95.040157151876457</v>
+      </c>
+      <c r="BFE1">
+        <v>95.000000000001322</v>
+      </c>
+      <c r="BFF1">
+        <v>91.918124483380126</v>
+      </c>
+      <c r="BFG1">
+        <v>86.595965894063667</v>
+      </c>
+      <c r="BFH1">
+        <v>76.980580132628518</v>
+      </c>
+      <c r="BFI1">
+        <v>65.417784899844293</v>
+      </c>
+      <c r="BFJ1">
+        <v>51.458874387614621</v>
+      </c>
+      <c r="BFK1">
+        <v>34.992408152294686</v>
+      </c>
+      <c r="BFL1">
+        <v>18.132478607203307</v>
+      </c>
+      <c r="BFM1">
+        <v>9.2720337772343462E-14</v>
+      </c>
+      <c r="BFN1">
+        <v>-18.132478607199587</v>
+      </c>
+      <c r="BFO1">
+        <v>-34.992408152295589</v>
+      </c>
+      <c r="BFP1">
+        <v>-51.458874387613861</v>
+      </c>
+      <c r="BFQ1">
+        <v>-65.417784899839205</v>
+      </c>
+      <c r="BFR1">
+        <v>-76.980580132629839</v>
+      </c>
+      <c r="BFS1">
+        <v>-86.595965894065984</v>
+      </c>
+      <c r="BFT1">
+        <v>-91.918124483378762</v>
+      </c>
+      <c r="BFU1">
+        <v>-94.999999999999005</v>
+      </c>
+      <c r="BFV1">
+        <v>-95.040157151876301</v>
+      </c>
+      <c r="BFW1">
+        <v>-90.394955767286717</v>
+      </c>
+      <c r="BFX1">
+        <v>-86.021527366031023</v>
+      </c>
+      <c r="BFY1">
+        <v>-77.417784899843369</v>
+      </c>
+      <c r="BFZ1">
+        <v>-67.12723861898337</v>
+      </c>
+      <c r="BGA1">
+        <v>-70.791398025518987</v>
+      </c>
+      <c r="BGB1">
+        <v>-59.881928273673864</v>
+      </c>
+      <c r="BGC1">
+        <v>-4.8634758278169343E-12</v>
+      </c>
+      <c r="BGD1">
+        <v>59.881928273669274</v>
+      </c>
+      <c r="BGE1">
+        <v>70.791398025517751</v>
+      </c>
+      <c r="BGF1">
+        <v>67.127238618982517</v>
+      </c>
+      <c r="BGG1">
+        <v>77.417784899841095</v>
+      </c>
+      <c r="BGH1">
+        <v>86.021527366028806</v>
+      </c>
+      <c r="BGI1">
+        <v>90.394955767287456</v>
+      </c>
+      <c r="BGJ1">
+        <v>95.040157151877182</v>
+      </c>
+      <c r="BGK1">
+        <v>94.999999999999275</v>
+      </c>
+      <c r="BGL1">
+        <v>91.918124483379316</v>
+      </c>
+      <c r="BGM1">
+        <v>86.595965894066097</v>
+      </c>
+      <c r="BGN1">
+        <v>76.980580132631644</v>
+      </c>
+      <c r="BGO1">
+        <v>65.417784899840825</v>
+      </c>
+      <c r="BGP1">
+        <v>51.458874387615296</v>
+      </c>
+      <c r="BGQ1">
+        <v>34.992408152298289</v>
+      </c>
+      <c r="BGR1">
+        <v>18.132478607201683</v>
+      </c>
+      <c r="BGS1">
+        <v>-3.6007500600312356E-13</v>
+      </c>
+      <c r="BGT1">
+        <v>-18.132478607201215</v>
+      </c>
+      <c r="BGU1">
+        <v>-34.992408152291993</v>
+      </c>
+      <c r="BGV1">
+        <v>-51.458874387614429</v>
+      </c>
+      <c r="BGW1">
+        <v>-65.417784899841081</v>
+      </c>
+      <c r="BGX1">
+        <v>-76.980580132626685</v>
+      </c>
+      <c r="BGY1">
+        <v>-86.595965894063596</v>
+      </c>
+      <c r="BGZ1">
+        <v>-91.918124483379572</v>
+      </c>
+      <c r="BHA1">
+        <v>-95.000000000001037</v>
+      </c>
+      <c r="BHB1">
+        <v>-95.040157151875604</v>
+      </c>
+      <c r="BHC1">
+        <v>-90.394955767286064</v>
+      </c>
+      <c r="BHD1">
+        <v>-86.021527366030597</v>
+      </c>
+      <c r="BHE1">
+        <v>-77.417784899841763</v>
+      </c>
+      <c r="BHF1">
+        <v>-67.127238618984549</v>
+      </c>
+      <c r="BHG1">
+        <v>-70.79139802552065</v>
+      </c>
+      <c r="BHH1">
+        <v>-59.881928273669388</v>
+      </c>
+      <c r="BHI1">
+        <v>-6.0140330140355357E-12</v>
+      </c>
+      <c r="BHJ1">
+        <v>59.881928273666674</v>
+      </c>
+      <c r="BHK1">
+        <v>70.791398025522938</v>
+      </c>
+      <c r="BHL1">
+        <v>67.127238618981877</v>
+      </c>
+      <c r="BHM1">
+        <v>77.417784899840854</v>
+      </c>
+      <c r="BHN1">
+        <v>86.021527366030242</v>
+      </c>
+      <c r="BHO1">
+        <v>90.39495576728639</v>
+      </c>
+      <c r="BHP1">
+        <v>95.040157151876471</v>
+      </c>
+      <c r="BHQ1">
+        <v>94.999999999999545</v>
+      </c>
+      <c r="BHR1">
+        <v>91.918124483380396</v>
+      </c>
+      <c r="BHS1">
+        <v>86.595965894062616</v>
+      </c>
+      <c r="BHT1">
+        <v>76.980580132634785</v>
+      </c>
+      <c r="BHU1">
+        <v>65.417784899842914</v>
+      </c>
+      <c r="BHV1">
+        <v>51.458874387613861</v>
+      </c>
+      <c r="BHW1">
+        <v>34.992408152300506</v>
+      </c>
+      <c r="BHX1">
+        <v>18.13247860720239</v>
+      </c>
+      <c r="BHY1">
+        <v>6.6505854060241718E-13</v>
+      </c>
+      <c r="BHZ1">
+        <v>-18.132478607200063</v>
+      </c>
+      <c r="BIA1">
+        <v>-34.99240815229814</v>
+      </c>
+      <c r="BIB1">
+        <v>-51.45887438761028</v>
+      </c>
+      <c r="BIC1">
+        <v>-65.417784899838992</v>
+      </c>
+      <c r="BID1">
+        <v>-76.980580132631843</v>
+      </c>
+      <c r="BIE1">
+        <v>-86.595965894060328</v>
+      </c>
+      <c r="BIF1">
+        <v>-91.91812448337852</v>
+      </c>
+      <c r="BIG1">
+        <v>-94.999999999998252</v>
+      </c>
+      <c r="BIH1">
+        <v>-95.040157151877622</v>
+      </c>
+      <c r="BII1">
+        <v>-90.394955767287115</v>
+      </c>
+      <c r="BIJ1">
+        <v>-86.021527366029119</v>
+      </c>
+      <c r="BIK1">
+        <v>-77.41778489984199</v>
+      </c>
+      <c r="BIL1">
+        <v>-67.127238618982602</v>
+      </c>
+      <c r="BIM1">
+        <v>-70.791398025521787</v>
+      </c>
+      <c r="BIN1">
+        <v>-59.881928273672429</v>
+      </c>
+      <c r="BIO1">
+        <v>-3.8676719063272722E-12</v>
       </c>
     </row>
   </sheetData>

--- a/k.xlsx
+++ b/k.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MATLAB GIT\SamplingMethods\SamplingMethods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD2EC58-DC8B-4E7E-B527-3573444E07DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD3074C-60A6-4785-A1D2-2DCFF1FBC7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="0" windowWidth="18900" windowHeight="10965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18900" windowHeight="10965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -341,4817 +341,4814 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BIO1"/>
+  <dimension ref="A1:BIN1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFC1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1601" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1600" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1">
-        <v>59.881928273669025</v>
+        <v>161.13794165252276</v>
       </c>
       <c r="C1">
-        <v>70.791398025520124</v>
+        <v>90.88806951046567</v>
       </c>
       <c r="D1">
-        <v>67.127238618982489</v>
+        <v>89.01683431294299</v>
       </c>
       <c r="E1">
-        <v>77.417784899841294</v>
+        <v>94.124891681027833</v>
       </c>
       <c r="F1">
-        <v>86.021527366030398</v>
+        <v>95.835118822122539</v>
       </c>
       <c r="G1">
-        <v>90.394955767286561</v>
+        <v>98.876420227557858</v>
       </c>
       <c r="H1">
-        <v>95.040157151876741</v>
+        <v>101.45947854487147</v>
       </c>
       <c r="I1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J1">
-        <v>91.918124483379131</v>
+        <v>96.122972592415664</v>
       </c>
       <c r="K1">
-        <v>86.595965894063212</v>
+        <v>90.592148980095899</v>
       </c>
       <c r="L1">
-        <v>76.980580132630905</v>
+        <v>81.688726095726437</v>
       </c>
       <c r="M1">
-        <v>65.417784899841294</v>
+        <v>70.12489168102789</v>
       </c>
       <c r="N1">
-        <v>51.458874387613413</v>
+        <v>57.331336343145665</v>
       </c>
       <c r="O1">
-        <v>34.992408152296804</v>
+        <v>42.603798263003775</v>
       </c>
       <c r="P1">
-        <v>18.132478607201911</v>
+        <v>26.262330456665939</v>
       </c>
       <c r="Q1">
-        <v>8.0814309130993539E-15</v>
+        <v>9.9999999999999822</v>
       </c>
       <c r="R1">
-        <v>-18.132478607201875</v>
+        <v>-6.2623304566658859</v>
       </c>
       <c r="S1">
-        <v>-34.992408152296782</v>
+        <v>-22.603798263003704</v>
       </c>
       <c r="T1">
-        <v>-51.458874387613385</v>
+        <v>-37.331336343145715</v>
       </c>
       <c r="U1">
-        <v>-65.417784899841308</v>
+        <v>-50.124891681027805</v>
       </c>
       <c r="V1">
-        <v>-76.980580132630891</v>
+        <v>-61.688726095726295</v>
       </c>
       <c r="W1">
-        <v>-86.59596589406317</v>
+        <v>-70.592148980095928</v>
       </c>
       <c r="X1">
-        <v>-91.918124483379131</v>
+        <v>-76.122972592415522</v>
       </c>
       <c r="Y1">
-        <v>-94.999999999999986</v>
+        <v>-79.999999999999986</v>
       </c>
       <c r="Z1">
-        <v>-95.040157151876727</v>
+        <v>-81.459478544871629</v>
       </c>
       <c r="AA1">
-        <v>-90.394955767286561</v>
+        <v>-78.876420227557716</v>
       </c>
       <c r="AB1">
-        <v>-86.02152736603044</v>
+        <v>-75.835118822122595</v>
       </c>
       <c r="AC1">
-        <v>-77.417784899841337</v>
+        <v>-74.124891681027933</v>
       </c>
       <c r="AD1">
-        <v>-67.12723861898246</v>
+        <v>-69.016834312942891</v>
       </c>
       <c r="AE1">
-        <v>-70.791398025520138</v>
+        <v>-70.888069510465726</v>
       </c>
       <c r="AF1">
-        <v>-59.881928273669125</v>
+        <v>-141.13794165252261</v>
       </c>
       <c r="AG1">
-        <v>-8.4743082578450498E-14</v>
+        <v>9.9999999999996039</v>
       </c>
       <c r="AH1">
-        <v>59.881928273669011</v>
+        <v>161.13794165252287</v>
       </c>
       <c r="AI1">
-        <v>70.791398025520152</v>
+        <v>90.888069510465641</v>
       </c>
       <c r="AJ1">
-        <v>67.12723861898246</v>
+        <v>89.01683431294299</v>
       </c>
       <c r="AK1">
-        <v>77.41778489984128</v>
+        <v>94.124891681027933</v>
       </c>
       <c r="AL1">
-        <v>86.021527366030412</v>
+        <v>95.835118822122524</v>
       </c>
       <c r="AM1">
-        <v>90.394955767286604</v>
+        <v>98.876420227557901</v>
       </c>
       <c r="AN1">
-        <v>95.040157151876713</v>
+        <v>101.4594785448714</v>
       </c>
       <c r="AO1">
-        <v>95</v>
+        <v>99.999999999999972</v>
       </c>
       <c r="AP1">
-        <v>91.918124483379131</v>
+        <v>96.122972592415792</v>
       </c>
       <c r="AQ1">
-        <v>86.595965894063241</v>
+        <v>90.592148980095857</v>
       </c>
       <c r="AR1">
-        <v>76.980580132630948</v>
+        <v>81.688726095726551</v>
       </c>
       <c r="AS1">
-        <v>65.417784899841379</v>
+        <v>70.124891681027691</v>
       </c>
       <c r="AT1">
-        <v>51.458874387613456</v>
+        <v>57.331336343145828</v>
       </c>
       <c r="AU1">
-        <v>34.992408152296846</v>
+        <v>42.603798263003753</v>
       </c>
       <c r="AV1">
-        <v>18.132478607201879</v>
+        <v>26.26233045666585</v>
       </c>
       <c r="AW1">
-        <v>2.0691579060497558E-14</v>
+        <v>9.9999999999998952</v>
       </c>
       <c r="AX1">
-        <v>-18.132478607201818</v>
+        <v>-6.2623304566659392</v>
       </c>
       <c r="AY1">
-        <v>-34.992408152296818</v>
+        <v>-22.603798263003725</v>
       </c>
       <c r="AZ1">
-        <v>-51.45887438761342</v>
+        <v>-37.331336343145715</v>
       </c>
       <c r="BA1">
-        <v>-65.417784899841322</v>
+        <v>-50.124891681027719</v>
       </c>
       <c r="BB1">
-        <v>-76.980580132630877</v>
+        <v>-61.688726095726182</v>
       </c>
       <c r="BC1">
-        <v>-86.595965894063184</v>
+        <v>-70.592148980096127</v>
       </c>
       <c r="BD1">
-        <v>-91.918124483379088</v>
+        <v>-76.122972592415209</v>
       </c>
       <c r="BE1">
-        <v>-95</v>
+        <v>-79.999999999999915</v>
       </c>
       <c r="BF1">
-        <v>-95.040157151876713</v>
+        <v>-81.459478544871502</v>
       </c>
       <c r="BG1">
-        <v>-90.394955767286589</v>
+        <v>-78.876420227557645</v>
       </c>
       <c r="BH1">
-        <v>-86.021527366030412</v>
+        <v>-75.835118822122581</v>
       </c>
       <c r="BI1">
-        <v>-77.417784899841394</v>
+        <v>-74.124891681028103</v>
       </c>
       <c r="BJ1">
-        <v>-67.127238618982474</v>
+        <v>-69.016834312942947</v>
       </c>
       <c r="BK1">
-        <v>-70.79139802552011</v>
+        <v>-70.888069510465613</v>
       </c>
       <c r="BL1">
-        <v>-59.881928273668997</v>
+        <v>-141.13794165252241</v>
       </c>
       <c r="BM1">
-        <v>-1.69486165156901E-13</v>
+        <v>9.9999999999992077</v>
       </c>
       <c r="BN1">
-        <v>59.881928273668798</v>
+        <v>161.13794165252281</v>
       </c>
       <c r="BO1">
-        <v>70.791398025520166</v>
+        <v>90.888069510465598</v>
       </c>
       <c r="BP1">
-        <v>67.127238618982517</v>
+        <v>89.016834312943303</v>
       </c>
       <c r="BQ1">
-        <v>77.417784899841322</v>
+        <v>94.124891681028004</v>
       </c>
       <c r="BR1">
-        <v>86.021527366030398</v>
+        <v>95.835118822122169</v>
       </c>
       <c r="BS1">
-        <v>90.39495576728649</v>
+        <v>98.876420227557915</v>
       </c>
       <c r="BT1">
-        <v>95.040157151876699</v>
+        <v>101.45947854487109</v>
       </c>
       <c r="BU1">
-        <v>95.000000000000028</v>
+        <v>99.999999999999915</v>
       </c>
       <c r="BV1">
-        <v>91.91812448337906</v>
+        <v>96.122972592415451</v>
       </c>
       <c r="BW1">
-        <v>86.595965894063241</v>
+        <v>90.592148980095715</v>
       </c>
       <c r="BX1">
-        <v>76.980580132630962</v>
+        <v>81.688726095726594</v>
       </c>
       <c r="BY1">
-        <v>65.417784899841408</v>
+        <v>70.124891681028004</v>
       </c>
       <c r="BZ1">
-        <v>51.458874387613527</v>
+        <v>57.331336343146013</v>
       </c>
       <c r="CA1">
-        <v>34.992408152296925</v>
+        <v>42.603798263003981</v>
       </c>
       <c r="CB1">
-        <v>18.132478607201911</v>
+        <v>26.262330456666202</v>
       </c>
       <c r="CC1">
-        <v>3.3301727207895765E-14</v>
+        <v>9.9999999999996358</v>
       </c>
       <c r="CD1">
-        <v>-18.132478607201755</v>
+        <v>-6.2623304566657723</v>
       </c>
       <c r="CE1">
-        <v>-34.992408152296569</v>
+        <v>-22.603798263003291</v>
       </c>
       <c r="CF1">
-        <v>-51.458874387613477</v>
+        <v>-37.331336343146006</v>
       </c>
       <c r="CG1">
-        <v>-65.417784899841294</v>
+        <v>-50.124891681027854</v>
       </c>
       <c r="CH1">
-        <v>-76.98058013263082</v>
+        <v>-61.688726095725983</v>
       </c>
       <c r="CI1">
-        <v>-86.595965894063198</v>
+        <v>-70.592148980096113</v>
       </c>
       <c r="CJ1">
-        <v>-91.918124483379074</v>
+        <v>-76.122972592415323</v>
       </c>
       <c r="CK1">
-        <v>-95.000000000000142</v>
+        <v>-80.000000000000625</v>
       </c>
       <c r="CL1">
-        <v>-95.040157151876784</v>
+        <v>-81.459478544871743</v>
       </c>
       <c r="CM1">
-        <v>-90.394955767286575</v>
+        <v>-78.876420227557517</v>
       </c>
       <c r="CN1">
-        <v>-86.021527366030483</v>
+        <v>-75.835118822122709</v>
       </c>
       <c r="CO1">
-        <v>-77.417784899841493</v>
+        <v>-74.124891681028316</v>
       </c>
       <c r="CP1">
-        <v>-67.127238618982545</v>
+        <v>-69.016834312942933</v>
       </c>
       <c r="CQ1">
-        <v>-70.791398025519968</v>
+        <v>-70.888069510465584</v>
       </c>
       <c r="CR1">
-        <v>-59.881928273669033</v>
+        <v>-141.13794165252261</v>
       </c>
       <c r="CS1">
-        <v>-3.0396723923855839E-13</v>
+        <v>9.9999999999985771</v>
       </c>
       <c r="CT1">
-        <v>59.881928273668748</v>
+        <v>161.13794165252253</v>
       </c>
       <c r="CU1">
-        <v>70.791398025519968</v>
+        <v>90.888069510465073</v>
       </c>
       <c r="CV1">
-        <v>67.127238618982659</v>
+        <v>89.016834312943601</v>
       </c>
       <c r="CW1">
-        <v>77.41778489984128</v>
+        <v>94.124891681027705</v>
       </c>
       <c r="CX1">
-        <v>86.021527366030341</v>
+        <v>95.835118822122084</v>
       </c>
       <c r="CY1">
-        <v>90.394955767286618</v>
+        <v>98.876420227558626</v>
       </c>
       <c r="CZ1">
-        <v>95.04015715187667</v>
+        <v>101.45947854487092</v>
       </c>
       <c r="DA1">
-        <v>95.000000000000142</v>
+        <v>100.00000000000051</v>
       </c>
       <c r="DB1">
-        <v>91.918124483379188</v>
+        <v>96.122972592415778</v>
       </c>
       <c r="DC1">
-        <v>86.595965894063227</v>
+        <v>90.592148980095473</v>
       </c>
       <c r="DD1">
-        <v>76.980580132630848</v>
+        <v>81.688726095726409</v>
       </c>
       <c r="DE1">
-        <v>65.417784899841365</v>
+        <v>70.124891681027933</v>
       </c>
       <c r="DF1">
-        <v>51.458874387613641</v>
+        <v>57.331336343145665</v>
       </c>
       <c r="DG1">
-        <v>34.992408152296889</v>
+        <v>42.603798263004613</v>
       </c>
       <c r="DH1">
-        <v>18.132478607201914</v>
+        <v>26.262330456666138</v>
       </c>
       <c r="DI1">
-        <v>9.2097153179700465E-14</v>
+        <v>9.9999999999997566</v>
       </c>
       <c r="DJ1">
-        <v>-18.13247860720173</v>
+        <v>-6.262330456665115</v>
       </c>
       <c r="DK1">
-        <v>-34.992408152296548</v>
+        <v>-22.603798263003419</v>
       </c>
       <c r="DL1">
-        <v>-51.458874387613655</v>
+        <v>-37.331336343146582</v>
       </c>
       <c r="DM1">
-        <v>-65.417784899841322</v>
+        <v>-50.124891681027108</v>
       </c>
       <c r="DN1">
-        <v>-76.980580132630834</v>
+        <v>-61.688726095726011</v>
       </c>
       <c r="DO1">
-        <v>-86.595965894063141</v>
+        <v>-70.592148980096226</v>
       </c>
       <c r="DP1">
-        <v>-91.918124483379017</v>
+        <v>-76.122972592414811</v>
       </c>
       <c r="DQ1">
-        <v>-95.000000000000071</v>
+        <v>-80.000000000000455</v>
       </c>
       <c r="DR1">
-        <v>-95.040157151876855</v>
+        <v>-81.459478544872141</v>
       </c>
       <c r="DS1">
-        <v>-90.394955767286561</v>
+        <v>-78.876420227556991</v>
       </c>
       <c r="DT1">
-        <v>-86.021527366030512</v>
+        <v>-75.835118822122865</v>
       </c>
       <c r="DU1">
-        <v>-77.41778489984145</v>
+        <v>-74.124891681027862</v>
       </c>
       <c r="DV1">
-        <v>-67.12723861898256</v>
+        <v>-69.016834312942464</v>
       </c>
       <c r="DW1">
-        <v>-70.791398025520039</v>
+        <v>-70.888069510466067</v>
       </c>
       <c r="DX1">
-        <v>-59.881928273669203</v>
+        <v>-141.13794165252227</v>
       </c>
       <c r="DY1">
-        <v>-3.3897233031380199E-13</v>
+        <v>9.9999999999984155</v>
       </c>
       <c r="DZ1">
-        <v>59.881928273668805</v>
+        <v>161.13794165252312</v>
       </c>
       <c r="EA1">
-        <v>70.791398025520067</v>
+        <v>90.888069510465698</v>
       </c>
       <c r="EB1">
-        <v>67.127238618982574</v>
+        <v>89.016834312943089</v>
       </c>
       <c r="EC1">
-        <v>77.417784899841351</v>
+        <v>94.124891681027975</v>
       </c>
       <c r="ED1">
-        <v>86.021527366030426</v>
+        <v>95.83511882212224</v>
       </c>
       <c r="EE1">
-        <v>90.394955767286532</v>
+        <v>98.876420227558043</v>
       </c>
       <c r="EF1">
-        <v>95.040157151876883</v>
+        <v>101.45947854487166</v>
       </c>
       <c r="EG1">
-        <v>95.000000000000114</v>
+        <v>100.00000000000045</v>
       </c>
       <c r="EH1">
-        <v>91.918124483379174</v>
+        <v>96.122972592415849</v>
       </c>
       <c r="EI1">
-        <v>86.595965894063056</v>
+        <v>90.592148980095303</v>
       </c>
       <c r="EJ1">
-        <v>76.980580132630948</v>
+        <v>81.688726095726452</v>
       </c>
       <c r="EK1">
-        <v>65.417784899841394</v>
+        <v>70.12489168102735</v>
       </c>
       <c r="EL1">
-        <v>51.458874387613768</v>
+        <v>57.331336343146241</v>
       </c>
       <c r="EM1">
-        <v>34.99240815229674</v>
+        <v>42.603798263003867</v>
       </c>
       <c r="EN1">
-        <v>18.13247860720185</v>
+        <v>26.262330456665136</v>
       </c>
       <c r="EO1">
-        <v>3.7205741429889185E-14</v>
+        <v>10.000000000000135</v>
       </c>
       <c r="EP1">
-        <v>-18.132478607201708</v>
+        <v>-6.2623304566657758</v>
       </c>
       <c r="EQ1">
-        <v>-34.992408152296633</v>
+        <v>-22.603798263003775</v>
       </c>
       <c r="ER1">
-        <v>-51.458874387613498</v>
+        <v>-37.331336343145786</v>
       </c>
       <c r="ES1">
-        <v>-65.417784899841266</v>
+        <v>-50.124891681027599</v>
       </c>
       <c r="ET1">
-        <v>-76.980580132630934</v>
+        <v>-61.68872609572658</v>
       </c>
       <c r="EU1">
-        <v>-86.595965894063156</v>
+        <v>-70.592148980096226</v>
       </c>
       <c r="EV1">
-        <v>-91.918124483378946</v>
+        <v>-76.122972592414868</v>
       </c>
       <c r="EW1">
-        <v>-95.000000000000043</v>
+        <v>-80.000000000000568</v>
       </c>
       <c r="EX1">
-        <v>-95.040157151876755</v>
+        <v>-81.459478544871843</v>
       </c>
       <c r="EY1">
-        <v>-90.394955767286433</v>
+        <v>-78.876420227556821</v>
       </c>
       <c r="EZ1">
-        <v>-86.021527366030426</v>
+        <v>-75.835118822123121</v>
       </c>
       <c r="FA1">
-        <v>-77.417784899841365</v>
+        <v>-74.124891681027748</v>
       </c>
       <c r="FB1">
-        <v>-67.127238618982716</v>
+        <v>-69.016834312942819</v>
       </c>
       <c r="FC1">
-        <v>-70.791398025519868</v>
+        <v>-70.888069510465314</v>
       </c>
       <c r="FD1">
-        <v>-59.881928273669175</v>
+        <v>-141.13794165252179</v>
       </c>
       <c r="FE1">
-        <v>-5.2319139589866648E-13</v>
+        <v>9.9999999999978915</v>
       </c>
       <c r="FF1">
-        <v>59.881928273668642</v>
+        <v>161.13794165252287</v>
       </c>
       <c r="FG1">
-        <v>70.791398025520181</v>
+        <v>90.888069510465485</v>
       </c>
       <c r="FH1">
-        <v>67.127238618982389</v>
+        <v>89.016834312943772</v>
       </c>
       <c r="FI1">
-        <v>77.417784899841081</v>
+        <v>94.124891681027506</v>
       </c>
       <c r="FJ1">
-        <v>86.021527366030256</v>
+        <v>95.835118822122425</v>
       </c>
       <c r="FK1">
-        <v>90.394955767286532</v>
+        <v>98.876420227558611</v>
       </c>
       <c r="FL1">
-        <v>95.040157151876642</v>
+        <v>101.45947854487093</v>
       </c>
       <c r="FM1">
-        <v>94.999999999999986</v>
+        <v>100</v>
       </c>
       <c r="FN1">
-        <v>91.918124483379145</v>
+        <v>96.122972592415863</v>
       </c>
       <c r="FO1">
-        <v>86.595965894063283</v>
+        <v>90.592148980095445</v>
       </c>
       <c r="FP1">
-        <v>76.980580132631133</v>
+        <v>81.688726095727333</v>
       </c>
       <c r="FQ1">
-        <v>65.417784899841394</v>
+        <v>70.124891681027734</v>
       </c>
       <c r="FR1">
-        <v>51.458874387613825</v>
+        <v>57.331336343146809</v>
       </c>
       <c r="FS1">
-        <v>34.992408152297209</v>
+        <v>42.603798263004471</v>
       </c>
       <c r="FT1">
-        <v>18.132478607202223</v>
+        <v>26.262330456666653</v>
       </c>
       <c r="FU1">
-        <v>5.3368603256087919E-14</v>
+        <v>9.9999999999994884</v>
       </c>
       <c r="FV1">
-        <v>-18.132478607201922</v>
+        <v>-6.2623304566663798</v>
       </c>
       <c r="FW1">
-        <v>-34.992408152296882</v>
+        <v>-22.603798263003227</v>
       </c>
       <c r="FX1">
-        <v>-51.458874387613456</v>
+        <v>-37.331336343145693</v>
       </c>
       <c r="FY1">
-        <v>-65.417784899841294</v>
+        <v>-50.124891681027762</v>
       </c>
       <c r="FZ1">
-        <v>-76.98058013263072</v>
+        <v>-61.688726095725642</v>
       </c>
       <c r="GA1">
-        <v>-86.595965894063085</v>
+        <v>-70.592148980095885</v>
       </c>
       <c r="GB1">
-        <v>-91.918124483379131</v>
+        <v>-76.12297259241528</v>
       </c>
       <c r="GC1">
-        <v>-95.000000000000142</v>
+        <v>-80.000000000000341</v>
       </c>
       <c r="GD1">
-        <v>-95.040157151876883</v>
+        <v>-81.459478544871928</v>
       </c>
       <c r="GE1">
-        <v>-90.394955767286632</v>
+        <v>-78.876420227557574</v>
       </c>
       <c r="GF1">
-        <v>-86.02152736603054</v>
+        <v>-75.835118822124088</v>
       </c>
       <c r="GG1">
-        <v>-77.417784899841195</v>
+        <v>-74.124891681027052</v>
       </c>
       <c r="GH1">
-        <v>-67.127238618982247</v>
+        <v>-69.016834312942507</v>
       </c>
       <c r="GI1">
-        <v>-70.791398025520124</v>
+        <v>-70.888069510465712</v>
       </c>
       <c r="GJ1">
-        <v>-59.881928273669303</v>
+        <v>-141.13794165252193</v>
       </c>
       <c r="GK1">
-        <v>-6.0793447847711679E-13</v>
+        <v>9.9999999999971525</v>
       </c>
       <c r="GL1">
-        <v>59.881928273668677</v>
+        <v>161.13794165252264</v>
       </c>
       <c r="GM1">
-        <v>70.791398025519968</v>
+        <v>90.88806951046557</v>
       </c>
       <c r="GN1">
-        <v>67.127238618982318</v>
+        <v>89.016834312944226</v>
       </c>
       <c r="GO1">
-        <v>77.417784899840981</v>
+        <v>94.124891681026213</v>
       </c>
       <c r="GP1">
-        <v>86.021527366030298</v>
+        <v>95.835118822122524</v>
       </c>
       <c r="GQ1">
-        <v>90.394955767286675</v>
+        <v>98.876420227559407</v>
       </c>
       <c r="GR1">
-        <v>95.040157151876713</v>
+        <v>101.45947854487045</v>
       </c>
       <c r="GS1">
-        <v>95.000000000000185</v>
+        <v>100.00000000000102</v>
       </c>
       <c r="GT1">
-        <v>91.918124483379188</v>
+        <v>96.122972592416389</v>
       </c>
       <c r="GU1">
-        <v>86.595965894063099</v>
+        <v>90.592148980095047</v>
       </c>
       <c r="GV1">
-        <v>76.98058013263082</v>
+        <v>81.688726095726395</v>
       </c>
       <c r="GW1">
-        <v>65.417784899841593</v>
+        <v>70.124891681027819</v>
       </c>
       <c r="GX1">
-        <v>51.458874387613619</v>
+        <v>57.331336343145367</v>
       </c>
       <c r="GY1">
-        <v>34.992408152297081</v>
+        <v>42.603798263004073</v>
       </c>
       <c r="GZ1">
-        <v>18.132478607202181</v>
+        <v>26.262330456665751</v>
       </c>
       <c r="HA1">
-        <v>5.5320610367084572E-14</v>
+        <v>10.000000000000179</v>
       </c>
       <c r="HB1">
-        <v>-18.132478607201929</v>
+        <v>-6.2623304566667848</v>
       </c>
       <c r="HC1">
-        <v>-34.99240815229701</v>
+        <v>-22.603798263003966</v>
       </c>
       <c r="HD1">
-        <v>-51.45887438761369</v>
+        <v>-37.33133634314688</v>
       </c>
       <c r="HE1">
-        <v>-65.417784899841209</v>
+        <v>-50.124891681027634</v>
       </c>
       <c r="HF1">
-        <v>-76.980580132630763</v>
+        <v>-61.688726095725997</v>
       </c>
       <c r="HG1">
-        <v>-86.595965894063255</v>
+        <v>-70.592148980097065</v>
       </c>
       <c r="HH1">
-        <v>-91.918124483379088</v>
+        <v>-76.122972592415081</v>
       </c>
       <c r="HI1">
-        <v>-94.999999999999957</v>
+        <v>-80.000000000000682</v>
       </c>
       <c r="HJ1">
-        <v>-95.040157151876684</v>
+        <v>-81.459478544871487</v>
       </c>
       <c r="HK1">
-        <v>-90.394955767286561</v>
+        <v>-78.876420227557404</v>
       </c>
       <c r="HL1">
-        <v>-86.021527366030355</v>
+        <v>-75.835118822123391</v>
       </c>
       <c r="HM1">
-        <v>-77.417784899841095</v>
+        <v>-74.124891681026554</v>
       </c>
       <c r="HN1">
-        <v>-67.127238618982247</v>
+        <v>-69.016834312942194</v>
       </c>
       <c r="HO1">
-        <v>-70.791398025519925</v>
+        <v>-70.888069510465954</v>
       </c>
       <c r="HP1">
-        <v>-59.881928273669253</v>
+        <v>-141.13794165252241</v>
       </c>
       <c r="HQ1">
-        <v>-5.5056901390354756E-13</v>
+        <v>9.9999999999976943</v>
       </c>
       <c r="HR1">
-        <v>59.881928273668777</v>
+        <v>161.13794165252375</v>
       </c>
       <c r="HS1">
-        <v>70.791398025520181</v>
+        <v>90.888069510465741</v>
       </c>
       <c r="HT1">
-        <v>67.12723861898246</v>
+        <v>89.016834312943431</v>
       </c>
       <c r="HU1">
-        <v>77.417784899840925</v>
+        <v>94.12489168102708</v>
       </c>
       <c r="HV1">
-        <v>86.021527366030412</v>
+        <v>95.835118822123121</v>
       </c>
       <c r="HW1">
-        <v>90.394955767286447</v>
+        <v>98.876420227558853</v>
       </c>
       <c r="HX1">
-        <v>95.040157151876798</v>
+        <v>101.45947854487162</v>
       </c>
       <c r="HY1">
-        <v>95.000000000000227</v>
+        <v>100.00000000000068</v>
       </c>
       <c r="HZ1">
-        <v>91.918124483379017</v>
+        <v>96.122972592415877</v>
       </c>
       <c r="IA1">
-        <v>86.595965894063241</v>
+        <v>90.592148980095018</v>
       </c>
       <c r="IB1">
-        <v>76.980580132631317</v>
+        <v>81.688726095727759</v>
       </c>
       <c r="IC1">
-        <v>65.417784899841664</v>
+        <v>70.124891681027933</v>
       </c>
       <c r="ID1">
-        <v>51.458874387613726</v>
+        <v>57.331336343145992</v>
       </c>
       <c r="IE1">
-        <v>34.992408152297379</v>
+        <v>42.603798263004819</v>
       </c>
       <c r="IF1">
-        <v>18.132478607202234</v>
+        <v>26.262330456666582</v>
       </c>
       <c r="IG1">
-        <v>1.5674860048449526E-13</v>
+        <v>9.9999999999988933</v>
       </c>
       <c r="IH1">
-        <v>-18.132478607201797</v>
+        <v>-6.2623304566659854</v>
       </c>
       <c r="II1">
-        <v>-34.992408152296889</v>
+        <v>-22.603798263002886</v>
       </c>
       <c r="IJ1">
-        <v>-51.458874387613527</v>
+        <v>-37.331336343147562</v>
       </c>
       <c r="IK1">
-        <v>-65.417784899841251</v>
+        <v>-50.124891681027968</v>
       </c>
       <c r="IL1">
-        <v>-76.980580132630777</v>
+        <v>-61.688726095725727</v>
       </c>
       <c r="IM1">
-        <v>-86.59596589406307</v>
+        <v>-70.592148980096241</v>
       </c>
       <c r="IN1">
-        <v>-91.918124483378946</v>
+        <v>-76.122972592414541</v>
       </c>
       <c r="IO1">
-        <v>-94.999999999999901</v>
+        <v>-80.000000000000114</v>
       </c>
       <c r="IP1">
-        <v>-95.040157151876926</v>
+        <v>-81.459478544871644</v>
       </c>
       <c r="IQ1">
-        <v>-90.39495576728649</v>
+        <v>-78.876420227556636</v>
       </c>
       <c r="IR1">
-        <v>-86.021527366030256</v>
+        <v>-75.835118822122837</v>
       </c>
       <c r="IS1">
-        <v>-77.417784899841422</v>
+        <v>-74.124891681028188</v>
       </c>
       <c r="IT1">
-        <v>-67.12723861898256</v>
+        <v>-69.016834312942606</v>
       </c>
       <c r="IU1">
-        <v>-70.791398025519953</v>
+        <v>-70.888069510466053</v>
       </c>
       <c r="IV1">
-        <v>-59.881928273669324</v>
+        <v>-141.13794165252182</v>
       </c>
       <c r="IW1">
-        <v>-6.7794466062760398E-13</v>
+        <v>9.9999999999968292</v>
       </c>
       <c r="IX1">
-        <v>59.881928273668542</v>
+        <v>161.13794165252338</v>
       </c>
       <c r="IY1">
-        <v>70.79139802552001</v>
+        <v>90.888069510465272</v>
       </c>
       <c r="IZ1">
-        <v>67.127238618982602</v>
+        <v>89.016834312943828</v>
       </c>
       <c r="JA1">
-        <v>77.417784899841124</v>
+        <v>94.124891681027833</v>
       </c>
       <c r="JB1">
-        <v>86.021527366030142</v>
+        <v>95.835118822121601</v>
       </c>
       <c r="JC1">
-        <v>90.394955767286518</v>
+        <v>98.876420227558611</v>
       </c>
       <c r="JD1">
-        <v>95.040157151876571</v>
+        <v>101.45947854486965</v>
       </c>
       <c r="JE1">
-        <v>95.000000000000043</v>
+        <v>100.00000000000057</v>
       </c>
       <c r="JF1">
-        <v>91.918124483378989</v>
+        <v>96.122972592415778</v>
       </c>
       <c r="JG1">
-        <v>86.595965894063127</v>
+        <v>90.592148980094407</v>
       </c>
       <c r="JH1">
-        <v>76.980580132631005</v>
+        <v>81.688726095726963</v>
       </c>
       <c r="JI1">
-        <v>65.417784899841564</v>
+        <v>70.124891681028544</v>
       </c>
       <c r="JJ1">
-        <v>51.458874387613427</v>
+        <v>57.33133634314548</v>
       </c>
       <c r="JK1">
-        <v>34.992408152297259</v>
+        <v>42.603798263003426</v>
       </c>
       <c r="JL1">
-        <v>18.132478607202202</v>
+        <v>26.262330456666717</v>
       </c>
       <c r="JM1">
-        <v>1.0185718873468402E-13</v>
+        <v>10.000000000000435</v>
       </c>
       <c r="JN1">
-        <v>-18.132478607201826</v>
+        <v>-6.2623304566658611</v>
       </c>
       <c r="JO1">
-        <v>-34.992408152296996</v>
+        <v>-22.603798263003597</v>
       </c>
       <c r="JP1">
-        <v>-51.458874387613832</v>
+        <v>-37.331336343147839</v>
       </c>
       <c r="JQ1">
-        <v>-65.41778489984118</v>
+        <v>-50.12489168102725</v>
       </c>
       <c r="JR1">
-        <v>-76.980580132631076</v>
+        <v>-61.688726095726565</v>
       </c>
       <c r="JS1">
-        <v>-86.595965894063184</v>
+        <v>-70.592148980096482</v>
       </c>
       <c r="JT1">
-        <v>-91.918124483378833</v>
+        <v>-76.122972592413944</v>
       </c>
       <c r="JU1">
-        <v>-95.000000000000057</v>
+        <v>-80.000000000000227</v>
       </c>
       <c r="JV1">
-        <v>-95.04015715187677</v>
+        <v>-81.459478544872653</v>
       </c>
       <c r="JW1">
-        <v>-90.394955767286447</v>
+        <v>-78.876420227557304</v>
       </c>
       <c r="JX1">
-        <v>-86.02152736603054</v>
+        <v>-75.835118822124699</v>
       </c>
       <c r="JY1">
-        <v>-77.417784899841266</v>
+        <v>-74.124891681027549</v>
       </c>
       <c r="JZ1">
-        <v>-67.127238618982346</v>
+        <v>-69.016834312942535</v>
       </c>
       <c r="KA1">
-        <v>-70.791398025520266</v>
+        <v>-70.888069510467176</v>
       </c>
       <c r="KB1">
-        <v>-59.881928273669494</v>
+        <v>-141.13794165252253</v>
       </c>
       <c r="KC1">
-        <v>-8.0532030735166051E-13</v>
+        <v>9.9999999999956231</v>
       </c>
       <c r="KD1">
-        <v>59.881928273668464</v>
+        <v>161.13794165252398</v>
       </c>
       <c r="KE1">
-        <v>70.791398025519982</v>
+        <v>90.888069510465186</v>
       </c>
       <c r="KF1">
-        <v>67.127238618982261</v>
+        <v>89.016834312942976</v>
       </c>
       <c r="KG1">
-        <v>77.417784899840726</v>
+        <v>94.12489168102644</v>
       </c>
       <c r="KH1">
-        <v>86.021527366030242</v>
+        <v>95.835118822122169</v>
       </c>
       <c r="KI1">
-        <v>90.394955767286632</v>
+        <v>98.876420227560075</v>
       </c>
       <c r="KJ1">
-        <v>95.040157151876699</v>
+        <v>101.45947854487127</v>
       </c>
       <c r="KK1">
-        <v>95.000000000000128</v>
+        <v>100.00000000000114</v>
       </c>
       <c r="KL1">
-        <v>91.91812448337933</v>
+        <v>96.12297259241646</v>
       </c>
       <c r="KM1">
-        <v>86.595965894062957</v>
+        <v>90.592148980094706</v>
       </c>
       <c r="KN1">
-        <v>76.980580132630735</v>
+        <v>81.68872609572621</v>
       </c>
       <c r="KO1">
-        <v>65.417784899841436</v>
+        <v>70.124891681027918</v>
       </c>
       <c r="KP1">
-        <v>51.458874387613598</v>
+        <v>57.331336343144855</v>
       </c>
       <c r="KQ1">
-        <v>34.992408152297052</v>
+        <v>42.60379826300364</v>
       </c>
       <c r="KR1">
-        <v>18.132478607202174</v>
+        <v>26.262330456666096</v>
       </c>
       <c r="KS1">
-        <v>1.6065261470648863E-13</v>
+        <v>9.999999999998284</v>
       </c>
       <c r="KT1">
-        <v>-18.132478607201804</v>
+        <v>-6.2623304566650226</v>
       </c>
       <c r="KU1">
-        <v>-34.992408152296697</v>
+        <v>-22.603798263003036</v>
       </c>
       <c r="KV1">
-        <v>-51.458874387613726</v>
+        <v>-37.331336343147207</v>
       </c>
       <c r="KW1">
-        <v>-65.41778489984091</v>
+        <v>-50.124891681027009</v>
       </c>
       <c r="KX1">
-        <v>-76.980580132631005</v>
+        <v>-61.688726095727191</v>
       </c>
       <c r="KY1">
-        <v>-86.595965894063326</v>
+        <v>-70.592148980097747</v>
       </c>
       <c r="KZ1">
-        <v>-91.91812448337916</v>
+        <v>-76.122972592414925</v>
       </c>
       <c r="LA1">
-        <v>-94.999999999999986</v>
+        <v>-80.000000000000568</v>
       </c>
       <c r="LB1">
-        <v>-95.040157151877253</v>
+        <v>-81.459478544873733</v>
       </c>
       <c r="LC1">
-        <v>-90.394955767286476</v>
+        <v>-78.876420227556878</v>
       </c>
       <c r="LD1">
-        <v>-86.02152736603044</v>
+        <v>-75.835118822123817</v>
       </c>
       <c r="LE1">
-        <v>-77.417784899841422</v>
+        <v>-74.124891681027222</v>
       </c>
       <c r="LF1">
-        <v>-67.12723861898229</v>
+        <v>-69.01683431294299</v>
       </c>
       <c r="LG1">
-        <v>-70.791398025519726</v>
+        <v>-70.888069510465229</v>
       </c>
       <c r="LH1">
-        <v>-59.881928273669246</v>
+        <v>-141.13794165252199</v>
       </c>
       <c r="LI1">
-        <v>-1.046382791797333E-12</v>
+        <v>9.9999999999957812</v>
       </c>
       <c r="LJ1">
-        <v>59.881928273668386</v>
+        <v>161.13794165252372</v>
       </c>
       <c r="LK1">
-        <v>70.791398025520053</v>
+        <v>90.888069510465456</v>
       </c>
       <c r="LL1">
-        <v>67.127238618982346</v>
+        <v>89.016834312943288</v>
       </c>
       <c r="LM1">
-        <v>77.417784899840939</v>
+        <v>94.124891681027208</v>
       </c>
       <c r="LN1">
-        <v>86.021527366030298</v>
+        <v>95.835118822123036</v>
       </c>
       <c r="LO1">
-        <v>90.39495576728666</v>
+        <v>98.876420227558341</v>
       </c>
       <c r="LP1">
-        <v>95.040157151876784</v>
+        <v>101.45947854487004</v>
       </c>
       <c r="LQ1">
-        <v>94.999999999999858</v>
+        <v>99.999999999998636</v>
       </c>
       <c r="LR1">
-        <v>91.918124483379245</v>
+        <v>96.12297259241609</v>
       </c>
       <c r="LS1">
-        <v>86.595965894064008</v>
+        <v>90.5921489800958</v>
       </c>
       <c r="LT1">
-        <v>76.98058013263136</v>
+        <v>81.688726095727702</v>
       </c>
       <c r="LU1">
-        <v>65.417784899841024</v>
+        <v>70.12489168102833</v>
       </c>
       <c r="LV1">
-        <v>51.458874387613612</v>
+        <v>57.331336343144898</v>
       </c>
       <c r="LW1">
-        <v>34.992408152296584</v>
+        <v>42.603798263004037</v>
       </c>
       <c r="LX1">
-        <v>18.132478607202106</v>
+        <v>26.262330456665918</v>
       </c>
       <c r="LY1">
-        <v>-9.3190763056150627E-14</v>
+        <v>10.000000000001048</v>
       </c>
       <c r="LZ1">
-        <v>-18.132478607201396</v>
+        <v>-6.2623304566649267</v>
       </c>
       <c r="MA1">
-        <v>-34.992408152296974</v>
+        <v>-22.603798263005103</v>
       </c>
       <c r="MB1">
-        <v>-51.458874387612852</v>
+        <v>-37.331336343145267</v>
       </c>
       <c r="MC1">
-        <v>-65.417784899841152</v>
+        <v>-50.124891681027655</v>
       </c>
       <c r="MD1">
-        <v>-76.980580132629996</v>
+        <v>-61.688726095722544</v>
       </c>
       <c r="ME1">
-        <v>-86.595965894062985</v>
+        <v>-70.592148980096169</v>
       </c>
       <c r="MF1">
-        <v>-91.918124483378975</v>
+        <v>-76.122972592414257</v>
       </c>
       <c r="MG1">
-        <v>-94.999999999999957</v>
+        <v>-80.000000000000455</v>
       </c>
       <c r="MH1">
-        <v>-95.040157151876954</v>
+        <v>-81.459478544872638</v>
       </c>
       <c r="MI1">
-        <v>-90.394955767286248</v>
+        <v>-78.876420227555201</v>
       </c>
       <c r="MJ1">
-        <v>-86.021527366030398</v>
+        <v>-75.835118822122951</v>
       </c>
       <c r="MK1">
-        <v>-77.417784899841777</v>
+        <v>-74.124891681029283</v>
       </c>
       <c r="ML1">
-        <v>-67.127238618982432</v>
+        <v>-69.016834312942507</v>
       </c>
       <c r="MM1">
-        <v>-70.791398025520465</v>
+        <v>-70.888069510466025</v>
       </c>
       <c r="MN1">
-        <v>-59.881928273669494</v>
+        <v>-141.13794165252037</v>
       </c>
       <c r="MO1">
-        <v>-1.713770917699065E-12</v>
+        <v>9.9999999999951434</v>
       </c>
       <c r="MP1">
-        <v>59.881928273668571</v>
+        <v>161.13794165252381</v>
       </c>
       <c r="MQ1">
-        <v>70.791398025520692</v>
+        <v>90.888069510465741</v>
       </c>
       <c r="MR1">
-        <v>67.127238618982545</v>
+        <v>89.016834312944113</v>
       </c>
       <c r="MS1">
-        <v>77.417784899841578</v>
+        <v>94.124891681028899</v>
       </c>
       <c r="MT1">
-        <v>86.021527366030327</v>
+        <v>95.835118822121572</v>
       </c>
       <c r="MU1">
-        <v>90.394955767286575</v>
+        <v>98.87642022755864</v>
       </c>
       <c r="MV1">
-        <v>95.04015715187667</v>
+        <v>101.45947854487169</v>
       </c>
       <c r="MW1">
-        <v>95.000000000000227</v>
+        <v>100.00000000000045</v>
       </c>
       <c r="MX1">
-        <v>91.91812448337933</v>
+        <v>96.122972592417028</v>
       </c>
       <c r="MY1">
-        <v>86.595965894063298</v>
+        <v>90.592148980094976</v>
       </c>
       <c r="MZ1">
-        <v>76.980580132630578</v>
+        <v>81.688726095726679</v>
       </c>
       <c r="NA1">
-        <v>65.417784899841763</v>
+        <v>70.124891681028004</v>
       </c>
       <c r="NB1">
-        <v>51.458874387613278</v>
+        <v>57.33133634314585</v>
       </c>
       <c r="NC1">
-        <v>34.992408152297394</v>
+        <v>42.60379826300403</v>
       </c>
       <c r="ND1">
-        <v>18.132478607202014</v>
+        <v>26.26233045666724</v>
       </c>
       <c r="NE1">
-        <v>4.2035201380211817E-13</v>
+        <v>10.000000000001398</v>
       </c>
       <c r="NF1">
-        <v>-18.132478607201886</v>
+        <v>-6.2623304566678613</v>
       </c>
       <c r="NG1">
-        <v>-34.992408152296235</v>
+        <v>-22.603798263003149</v>
       </c>
       <c r="NH1">
-        <v>-51.458874387613378</v>
+        <v>-37.331336343147768</v>
       </c>
       <c r="NI1">
-        <v>-65.417784899840797</v>
+        <v>-50.12489168102865</v>
       </c>
       <c r="NJ1">
-        <v>-76.980580132630791</v>
+        <v>-61.688726095724832</v>
       </c>
       <c r="NK1">
-        <v>-86.595965894063738</v>
+        <v>-70.59214898009688</v>
       </c>
       <c r="NL1">
-        <v>-91.918124483379174</v>
+        <v>-76.122972592416033</v>
       </c>
       <c r="NM1">
-        <v>-94.999999999999545</v>
+        <v>-79.999999999998636</v>
       </c>
       <c r="NN1">
-        <v>-95.040157151876983</v>
+        <v>-81.459478544871203</v>
       </c>
       <c r="NO1">
-        <v>-90.39495576728676</v>
+        <v>-78.876420227557489</v>
       </c>
       <c r="NP1">
-        <v>-86.021527366030597</v>
+        <v>-75.83511882212369</v>
       </c>
       <c r="NQ1">
-        <v>-77.417784899841294</v>
+        <v>-74.124891681027279</v>
       </c>
       <c r="NR1">
-        <v>-67.127238618983185</v>
+        <v>-69.016834312943587</v>
       </c>
       <c r="NS1">
-        <v>-70.791398025519825</v>
+        <v>-70.888069510465726</v>
       </c>
       <c r="NT1">
-        <v>-59.881928273670574</v>
+        <v>-141.13794165252187</v>
       </c>
       <c r="NU1">
-        <v>-1.2158689569542336E-12</v>
+        <v>9.9999999999943068</v>
       </c>
       <c r="NV1">
-        <v>59.881928273669331</v>
+        <v>161.1379416525244</v>
       </c>
       <c r="NW1">
-        <v>70.791398025520067</v>
+        <v>90.888069510465485</v>
       </c>
       <c r="NX1">
-        <v>67.127238618983014</v>
+        <v>89.016834312943189</v>
       </c>
       <c r="NY1">
-        <v>77.417784899841152</v>
+        <v>94.124891681028586</v>
       </c>
       <c r="NZ1">
-        <v>86.021527366030298</v>
+        <v>95.835118822120762</v>
       </c>
       <c r="OA1">
-        <v>90.394955767286945</v>
+        <v>98.876420227561823</v>
       </c>
       <c r="OB1">
-        <v>95.040157151876642</v>
+        <v>101.45947854487009</v>
       </c>
       <c r="OC1">
-        <v>94.999999999999645</v>
+        <v>99.999999999998181</v>
       </c>
       <c r="OD1">
-        <v>91.918124483379017</v>
+        <v>96.12297259241609</v>
       </c>
       <c r="OE1">
-        <v>86.595965894063752</v>
+        <v>90.592148980094635</v>
       </c>
       <c r="OF1">
-        <v>76.980580132630763</v>
+        <v>81.688726095726025</v>
       </c>
       <c r="OG1">
-        <v>65.417784899841365</v>
+        <v>70.124891681029169</v>
       </c>
       <c r="OH1">
-        <v>51.458874387613598</v>
+        <v>57.331336343144905</v>
       </c>
       <c r="OI1">
-        <v>34.992408152296647</v>
+        <v>42.603798263004563</v>
       </c>
       <c r="OJ1">
-        <v>18.132478607202476</v>
+        <v>26.262330456666064</v>
       </c>
       <c r="OK1">
-        <v>4.2230402091311489E-13</v>
+        <v>9.9999999999996998</v>
       </c>
       <c r="OL1">
-        <v>-18.132478607201431</v>
+        <v>-6.262330456664241</v>
       </c>
       <c r="OM1">
-        <v>-34.992408152296676</v>
+        <v>-22.603798263003114</v>
       </c>
       <c r="ON1">
-        <v>-51.45887438761271</v>
+        <v>-37.331336343144791</v>
       </c>
       <c r="OO1">
-        <v>-65.41778489984118</v>
+        <v>-50.12489168102644</v>
       </c>
       <c r="OP1">
-        <v>-76.980580132630067</v>
+        <v>-61.688726095723808</v>
       </c>
       <c r="OQ1">
-        <v>-86.595965894063312</v>
+        <v>-70.59214898009823</v>
       </c>
       <c r="OR1">
-        <v>-91.918124483378946</v>
+        <v>-76.122972592413916</v>
       </c>
       <c r="OS1">
-        <v>-95.000000000000171</v>
+        <v>-80</v>
       </c>
       <c r="OT1">
-        <v>-95.040157151877111</v>
+        <v>-81.459478544875594</v>
       </c>
       <c r="OU1">
-        <v>-90.394955767286774</v>
+        <v>-78.876420227558</v>
       </c>
       <c r="OV1">
-        <v>-86.021527366030568</v>
+        <v>-75.835118822124414</v>
       </c>
       <c r="OW1">
-        <v>-77.417784899842204</v>
+        <v>-74.124891681030718</v>
       </c>
       <c r="OX1">
-        <v>-67.127238618982403</v>
+        <v>-69.016834312941185</v>
       </c>
       <c r="OY1">
-        <v>-70.791398025520721</v>
+        <v>-70.8880695104681</v>
       </c>
       <c r="OZ1">
-        <v>-59.881928273669821</v>
+        <v>-141.13794165252176</v>
       </c>
       <c r="PA1">
-        <v>-1.4953280760132214E-13</v>
+        <v>9.9999999999960849</v>
       </c>
       <c r="PB1">
-        <v>59.88192827366835</v>
+        <v>161.13794165252347</v>
       </c>
       <c r="PC1">
-        <v>70.791398025520138</v>
+        <v>90.888069510464419</v>
       </c>
       <c r="PD1">
-        <v>67.127238618982375</v>
+        <v>89.01683431294515</v>
       </c>
       <c r="PE1">
-        <v>77.417784899841195</v>
+        <v>94.124891681026298</v>
       </c>
       <c r="PF1">
-        <v>86.021527366030313</v>
+        <v>95.835118822122141</v>
       </c>
       <c r="PG1">
-        <v>90.394955767286447</v>
+        <v>98.87642022756107</v>
       </c>
       <c r="PH1">
-        <v>95.040157151876528</v>
+        <v>101.45947854486964</v>
       </c>
       <c r="PI1">
-        <v>95.000000000000028</v>
+        <v>100</v>
       </c>
       <c r="PJ1">
-        <v>91.918124483379671</v>
+        <v>96.122972592419188</v>
       </c>
       <c r="PK1">
-        <v>86.595965894062999</v>
+        <v>90.592148980094152</v>
       </c>
       <c r="PL1">
-        <v>76.980580132630507</v>
+        <v>81.688726095725798</v>
       </c>
       <c r="PM1">
-        <v>65.417784899841763</v>
+        <v>70.124891681028672</v>
       </c>
       <c r="PN1">
-        <v>51.458874387613228</v>
+        <v>57.331336343143263</v>
       </c>
       <c r="PO1">
-        <v>34.992408152297138</v>
+        <v>42.60379826300283</v>
       </c>
       <c r="PP1">
-        <v>18.132478607201982</v>
+        <v>26.262330456666568</v>
       </c>
       <c r="PQ1">
-        <v>2.6352095998455686E-14</v>
+        <v>9.999999999995957</v>
       </c>
       <c r="PR1">
-        <v>-18.13247860720147</v>
+        <v>-6.2623304566626956</v>
       </c>
       <c r="PS1">
-        <v>-34.992408152295852</v>
+        <v>-22.60379826300241</v>
       </c>
       <c r="PT1">
-        <v>-51.458874387613399</v>
+        <v>-37.331336343147406</v>
       </c>
       <c r="PU1">
-        <v>-65.417784899840598</v>
+        <v>-50.124891681026853</v>
       </c>
       <c r="PV1">
-        <v>-76.980580132630053</v>
+        <v>-61.6887260957227</v>
       </c>
       <c r="PW1">
-        <v>-86.595965894063383</v>
+        <v>-70.592148980098145</v>
       </c>
       <c r="PX1">
-        <v>-91.91812448337879</v>
+        <v>-76.122972592414015</v>
       </c>
       <c r="PY1">
-        <v>-94.999999999999474</v>
+        <v>-80.000000000000227</v>
       </c>
       <c r="PZ1">
-        <v>-95.040157151876585</v>
+        <v>-81.45947854487234</v>
       </c>
       <c r="QA1">
-        <v>-90.394955767286575</v>
+        <v>-78.876420227556707</v>
       </c>
       <c r="QB1">
-        <v>-86.02152736603054</v>
+        <v>-75.835118822123107</v>
       </c>
       <c r="QC1">
-        <v>-77.41778489984172</v>
+        <v>-74.124891681027805</v>
       </c>
       <c r="QD1">
-        <v>-67.127238618982659</v>
+        <v>-69.016834312940915</v>
       </c>
       <c r="QE1">
-        <v>-70.791398025520095</v>
+        <v>-70.888069510466352</v>
       </c>
       <c r="QF1">
-        <v>-59.881928273670461</v>
+        <v>-141.13794165252204</v>
       </c>
       <c r="QG1">
-        <v>-1.1011380278070951E-12</v>
+        <v>9.9999999999953904</v>
       </c>
       <c r="QH1">
-        <v>59.881928273669388</v>
+        <v>161.137941652525</v>
       </c>
       <c r="QI1">
-        <v>70.791398025519868</v>
+        <v>90.888069510463524</v>
       </c>
       <c r="QJ1">
-        <v>67.127238618983128</v>
+        <v>89.016834312943175</v>
       </c>
       <c r="QK1">
-        <v>77.417784899840825</v>
+        <v>94.124891681028245</v>
       </c>
       <c r="QL1">
-        <v>86.021527366030483</v>
+        <v>95.835118822119867</v>
       </c>
       <c r="QM1">
-        <v>90.394955767286334</v>
+        <v>98.876420227557844</v>
       </c>
       <c r="QN1">
-        <v>95.040157151877111</v>
+        <v>101.45947854487035</v>
       </c>
       <c r="QO1">
-        <v>94.999999999999744</v>
+        <v>99.999999999998408</v>
       </c>
       <c r="QP1">
-        <v>91.918124483379259</v>
+        <v>96.122972592417597</v>
       </c>
       <c r="QQ1">
-        <v>86.595965894064008</v>
+        <v>90.592148980094919</v>
       </c>
       <c r="QR1">
-        <v>76.980580132631758</v>
+        <v>81.688726095729976</v>
       </c>
       <c r="QS1">
-        <v>65.417784899841209</v>
+        <v>70.124891681028004</v>
       </c>
       <c r="QT1">
-        <v>51.458874387613854</v>
+        <v>57.33133634314639</v>
       </c>
       <c r="QU1">
-        <v>34.992408152297237</v>
+        <v>42.603798263007178</v>
       </c>
       <c r="QV1">
-        <v>18.132478607202515</v>
+        <v>26.262330456667176</v>
       </c>
       <c r="QW1">
-        <v>3.1252119741349241E-13</v>
+        <v>9.9999999999990905</v>
       </c>
       <c r="QX1">
-        <v>-18.132478607201122</v>
+        <v>-6.2623304566650155</v>
       </c>
       <c r="QY1">
-        <v>-34.992408152296903</v>
+        <v>-22.603798263005004</v>
       </c>
       <c r="QZ1">
-        <v>-51.458874387612688</v>
+        <v>-37.331336343145118</v>
       </c>
       <c r="RA1">
-        <v>-65.417784899841038</v>
+        <v>-50.124891681027357</v>
       </c>
       <c r="RB1">
-        <v>-76.980580132630124</v>
+        <v>-61.688726095723212</v>
       </c>
       <c r="RC1">
-        <v>-86.595965894062942</v>
+        <v>-70.592148980096511</v>
       </c>
       <c r="RD1">
-        <v>-91.918124483379003</v>
+        <v>-76.122972592415138</v>
       </c>
       <c r="RE1">
-        <v>-95.000000000000369</v>
+        <v>-80.000000000000455</v>
       </c>
       <c r="RF1">
-        <v>-95.040157151877139</v>
+        <v>-81.459478544873718</v>
       </c>
       <c r="RG1">
-        <v>-90.394955767286447</v>
+        <v>-78.876420227555485</v>
       </c>
       <c r="RH1">
-        <v>-86.021527366030313</v>
+        <v>-75.835118822125068</v>
       </c>
       <c r="RI1">
-        <v>-77.417784899841621</v>
+        <v>-74.124891681028046</v>
       </c>
       <c r="RJ1">
-        <v>-67.127238618982602</v>
+        <v>-69.016834312943757</v>
       </c>
       <c r="RK1">
-        <v>-70.791398025520579</v>
+        <v>-70.888069510467545</v>
       </c>
       <c r="RL1">
-        <v>-59.881928273669573</v>
+        <v>-141.13794165251835</v>
       </c>
       <c r="RM1">
-        <v>-2.4222254706081194E-12</v>
+        <v>9.9999999999923368</v>
       </c>
       <c r="RN1">
-        <v>59.881928273668294</v>
+        <v>161.13794165252529</v>
       </c>
       <c r="RO1">
-        <v>70.791398025520778</v>
+        <v>90.888069510465527</v>
       </c>
       <c r="RP1">
-        <v>67.127238618981835</v>
+        <v>89.016834312943288</v>
       </c>
       <c r="RQ1">
-        <v>77.417784899841308</v>
+        <v>94.124891681027407</v>
       </c>
       <c r="RR1">
-        <v>86.021527366030057</v>
+        <v>95.835118822120037</v>
       </c>
       <c r="RS1">
-        <v>90.394955767286362</v>
+        <v>98.876420227557944</v>
       </c>
       <c r="RT1">
-        <v>95.040157151876471</v>
+        <v>101.45947854487186</v>
       </c>
       <c r="RU1">
-        <v>95.000000000000156</v>
+        <v>99.999999999999318</v>
       </c>
       <c r="RV1">
-        <v>91.918124483378932</v>
+        <v>96.122972592415493</v>
       </c>
       <c r="RW1">
-        <v>86.595965894063269</v>
+        <v>90.592148980094109</v>
       </c>
       <c r="RX1">
-        <v>76.98058013263045</v>
+        <v>81.688726095726125</v>
       </c>
       <c r="RY1">
-        <v>65.417784899841777</v>
+        <v>70.124891681028686</v>
       </c>
       <c r="RZ1">
-        <v>51.458874387613278</v>
+        <v>57.331336343145942</v>
       </c>
       <c r="SA1">
-        <v>34.992408152297067</v>
+        <v>42.603798263002709</v>
       </c>
       <c r="SB1">
-        <v>18.132478607201836</v>
+        <v>26.262330456665229</v>
       </c>
       <c r="SC1">
-        <v>4.8500346110691287E-13</v>
+        <v>9.9999999999962554</v>
       </c>
       <c r="SD1">
-        <v>-18.132478607201534</v>
+        <v>-6.2623304566654099</v>
       </c>
       <c r="SE1">
-        <v>-34.99240815229556</v>
+        <v>-22.603798263001607</v>
       </c>
       <c r="SF1">
-        <v>-51.458874387612767</v>
+        <v>-37.331336343144365</v>
       </c>
       <c r="SG1">
-        <v>-65.417784899840498</v>
+        <v>-50.124891681027826</v>
       </c>
       <c r="SH1">
-        <v>-76.980580132630678</v>
+        <v>-61.688726095724803</v>
       </c>
       <c r="SI1">
-        <v>-86.595965894063596</v>
+        <v>-70.592148980098059</v>
       </c>
       <c r="SJ1">
-        <v>-91.918124483379302</v>
+        <v>-76.122972592416417</v>
       </c>
       <c r="SK1">
-        <v>-95.000000000000028</v>
+        <v>-79.999999999998636</v>
       </c>
       <c r="SL1">
-        <v>-95.040157151877125</v>
+        <v>-81.459478544872979</v>
       </c>
       <c r="SM1">
-        <v>-90.394955767286646</v>
+        <v>-78.876420227556409</v>
       </c>
       <c r="SN1">
-        <v>-86.021527366030782</v>
+        <v>-75.835118822125239</v>
       </c>
       <c r="SO1">
-        <v>-77.417784899841152</v>
+        <v>-74.124891681027094</v>
       </c>
       <c r="SP1">
-        <v>-67.127238618982673</v>
+        <v>-69.016834312943459</v>
       </c>
       <c r="SQ1">
-        <v>-70.791398025520152</v>
+        <v>-70.888069510466607</v>
       </c>
       <c r="SR1">
-        <v>-59.881928273670724</v>
+        <v>-141.13794165252165</v>
       </c>
       <c r="SS1">
-        <v>-1.355889321255208E-12</v>
+        <v>9.9999999999936602</v>
       </c>
       <c r="ST1">
-        <v>59.881928273669168</v>
+        <v>161.13794165252492</v>
       </c>
       <c r="SU1">
-        <v>70.791398025520337</v>
+        <v>90.888069510465044</v>
       </c>
       <c r="SV1">
-        <v>67.127238618982759</v>
+        <v>89.016834312945903</v>
       </c>
       <c r="SW1">
-        <v>77.417784899840512</v>
+        <v>94.124891681026327</v>
       </c>
       <c r="SX1">
-        <v>86.021527366030526</v>
+        <v>95.835118822122737</v>
       </c>
       <c r="SY1">
-        <v>90.394955767286675</v>
+        <v>98.876420227560374</v>
       </c>
       <c r="SZ1">
-        <v>95.040157151876841</v>
+        <v>101.45947854486992</v>
       </c>
       <c r="TA1">
-        <v>95.000000000000114</v>
+        <v>99.999999999998636</v>
       </c>
       <c r="TB1">
-        <v>91.918124483379614</v>
+        <v>96.122972592419742</v>
       </c>
       <c r="TC1">
-        <v>86.595965894063724</v>
+        <v>90.592148980094478</v>
       </c>
       <c r="TD1">
-        <v>76.980580132631147</v>
+        <v>81.68872609572729</v>
       </c>
       <c r="TE1">
-        <v>65.417784899841152</v>
+        <v>70.124891681028956</v>
       </c>
       <c r="TF1">
-        <v>51.458874387613164</v>
+        <v>57.331336343142958</v>
       </c>
       <c r="TG1">
-        <v>34.992408152296328</v>
+        <v>42.603798263003931</v>
       </c>
       <c r="TH1">
-        <v>18.132478607202664</v>
+        <v>26.262330456668245</v>
       </c>
       <c r="TI1">
-        <v>2.0273837391386972E-13</v>
+        <v>10.000000000001778</v>
       </c>
       <c r="TJ1">
-        <v>-18.132478607201325</v>
+        <v>-6.2623304566650297</v>
       </c>
       <c r="TK1">
-        <v>-34.992408152296314</v>
+        <v>-22.603798263001664</v>
       </c>
       <c r="TL1">
-        <v>-51.458874387612283</v>
+        <v>-37.331336343144834</v>
       </c>
       <c r="TM1">
-        <v>-65.417784899841109</v>
+        <v>-50.124891681027549</v>
       </c>
       <c r="TN1">
-        <v>-76.980580132629967</v>
+        <v>-61.688726095723624</v>
       </c>
       <c r="TO1">
-        <v>-86.595965894063184</v>
+        <v>-70.592148980097889</v>
       </c>
       <c r="TP1">
-        <v>-91.918124483378634</v>
+        <v>-76.122972592412324</v>
       </c>
       <c r="TQ1">
-        <v>-95.000000000000043</v>
+        <v>-79.999999999999318</v>
       </c>
       <c r="TR1">
-        <v>-95.040157151877196</v>
+        <v>-81.459478544875921</v>
       </c>
       <c r="TS1">
-        <v>-90.394955767286916</v>
+        <v>-78.876420227555656</v>
       </c>
       <c r="TT1">
-        <v>-86.021527366030185</v>
+        <v>-75.835118822121757</v>
       </c>
       <c r="TU1">
-        <v>-77.417784899842218</v>
+        <v>-74.124891681029155</v>
       </c>
       <c r="TV1">
-        <v>-67.127238618981949</v>
+        <v>-69.016834312940219</v>
       </c>
       <c r="TW1">
-        <v>-70.791398025520635</v>
+        <v>-70.888069510467091</v>
       </c>
       <c r="TX1">
-        <v>-59.881928273669843</v>
+        <v>-141.13794165252213</v>
       </c>
       <c r="TY1">
-        <v>-2.8955317190229598E-13</v>
+        <v>9.9999999999952109</v>
       </c>
       <c r="TZ1">
-        <v>59.881928273668017</v>
+        <v>161.13794165252176</v>
       </c>
       <c r="UA1">
-        <v>70.791398025520692</v>
+        <v>90.888069510465968</v>
       </c>
       <c r="UB1">
-        <v>67.127238618982659</v>
+        <v>89.016834312946258</v>
       </c>
       <c r="UC1">
-        <v>77.417784899841237</v>
+        <v>94.124891681028274</v>
       </c>
       <c r="UD1">
-        <v>86.021527366030227</v>
+        <v>95.835118822123448</v>
       </c>
       <c r="UE1">
-        <v>90.394955767285921</v>
+        <v>98.876420227557375</v>
       </c>
       <c r="UF1">
-        <v>95.040157151877153</v>
+        <v>101.459478544871</v>
       </c>
       <c r="UG1">
-        <v>95.000000000000227</v>
+        <v>99.999999999999545</v>
       </c>
       <c r="UH1">
-        <v>91.918124483379444</v>
+        <v>96.122972592420098</v>
       </c>
       <c r="UI1">
-        <v>86.595965894063042</v>
+        <v>90.592148980093114</v>
       </c>
       <c r="UJ1">
-        <v>76.980580132630621</v>
+        <v>81.688726095725912</v>
       </c>
       <c r="UK1">
-        <v>65.417784899841692</v>
+        <v>70.12489168102897</v>
       </c>
       <c r="UL1">
-        <v>51.45887438761298</v>
+        <v>57.331336343142461</v>
       </c>
       <c r="UM1">
-        <v>34.992408152297678</v>
+        <v>42.603798263007072</v>
       </c>
       <c r="UN1">
-        <v>18.132478607202312</v>
+        <v>26.262330456668991</v>
       </c>
       <c r="UO1">
-        <v>3.7522063760729034E-13</v>
+        <v>9.9999999999989431</v>
       </c>
       <c r="UP1">
-        <v>-18.132478607201335</v>
+        <v>-6.262330456664202</v>
       </c>
       <c r="UQ1">
-        <v>-34.992408152296498</v>
+        <v>-22.603798263006034</v>
       </c>
       <c r="UR1">
-        <v>-51.458874387612966</v>
+        <v>-37.331336343146624</v>
       </c>
       <c r="US1">
-        <v>-65.417784899840569</v>
+        <v>-50.124891681026568</v>
       </c>
       <c r="UT1">
-        <v>-76.980580132631246</v>
+        <v>-61.688726095727276</v>
       </c>
       <c r="UU1">
-        <v>-86.595965894063923</v>
+        <v>-70.592148980099154</v>
       </c>
       <c r="UV1">
-        <v>-91.918124483378818</v>
+        <v>-76.122972592413234</v>
       </c>
       <c r="UW1">
-        <v>-94.999999999999659</v>
+        <v>-79.999999999998408</v>
       </c>
       <c r="UX1">
-        <v>-95.040157151877494</v>
+        <v>-81.459478544873917</v>
       </c>
       <c r="UY1">
-        <v>-90.394955767286859</v>
+        <v>-78.876420227555755</v>
       </c>
       <c r="UZ1">
-        <v>-86.021527366030639</v>
+        <v>-75.835118822122482</v>
       </c>
       <c r="VA1">
-        <v>-77.417784899841749</v>
+        <v>-74.124891681030149</v>
       </c>
       <c r="VB1">
-        <v>-67.127238618983156</v>
+        <v>-69.016834312938641</v>
       </c>
       <c r="VC1">
-        <v>-70.791398025520024</v>
+        <v>-70.888069510466067</v>
       </c>
       <c r="VD1">
-        <v>-59.881928273671001</v>
+        <v>-141.13794165252247</v>
       </c>
       <c r="VE1">
-        <v>-1.610640614703321E-12</v>
+        <v>9.9999999999912461</v>
       </c>
       <c r="VF1">
-        <v>59.881928273668841</v>
+        <v>161.13794165252403</v>
       </c>
       <c r="VG1">
-        <v>70.791398025520252</v>
+        <v>90.888069510464689</v>
       </c>
       <c r="VH1">
-        <v>67.12723861898283</v>
+        <v>89.016834312944241</v>
       </c>
       <c r="VI1">
-        <v>77.417784899841081</v>
+        <v>94.124891681027009</v>
       </c>
       <c r="VJ1">
-        <v>86.021527366030128</v>
+        <v>95.835118822119625</v>
       </c>
       <c r="VK1">
-        <v>90.394955767286206</v>
+        <v>98.876420227559365</v>
       </c>
       <c r="VL1">
-        <v>95.040157151876642</v>
+        <v>101.45947854486907</v>
       </c>
       <c r="VM1">
-        <v>94.999999999999332</v>
+        <v>99.999999999998408</v>
       </c>
       <c r="VN1">
-        <v>91.918124483379302</v>
+        <v>96.122972592418378</v>
       </c>
       <c r="VO1">
-        <v>86.595965894063468</v>
+        <v>90.592148980094549</v>
       </c>
       <c r="VP1">
-        <v>76.980580132630834</v>
+        <v>81.688726095726338</v>
       </c>
       <c r="VQ1">
-        <v>65.417784899841507</v>
+        <v>70.124891681029183</v>
       </c>
       <c r="VR1">
-        <v>51.45887438761369</v>
+        <v>57.331336343145132</v>
       </c>
       <c r="VS1">
-        <v>34.992408152296925</v>
+        <v>42.603798263005892</v>
       </c>
       <c r="VT1">
-        <v>18.132478607202597</v>
+        <v>26.262330456666788</v>
       </c>
       <c r="VU1">
-        <v>6.6138973902232719E-13</v>
+        <v>10.000000000001396</v>
       </c>
       <c r="VV1">
-        <v>-18.132478607200866</v>
+        <v>-6.2623304566638076</v>
       </c>
       <c r="VW1">
-        <v>-34.992408152297031</v>
+        <v>-22.603798263004386</v>
       </c>
       <c r="VX1">
-        <v>-51.458874387612603</v>
+        <v>-37.331336343143477</v>
       </c>
       <c r="VY1">
-        <v>-65.417784899840981</v>
+        <v>-50.124891681026568</v>
       </c>
       <c r="VZ1">
-        <v>-76.980580132630294</v>
+        <v>-61.688726095722984</v>
       </c>
       <c r="WA1">
-        <v>-86.595965894063383</v>
+        <v>-70.592148980099097</v>
       </c>
       <c r="WB1">
-        <v>-91.918124483379259</v>
+        <v>-76.122972592415039</v>
       </c>
       <c r="WC1">
-        <v>-94.999999999999915</v>
+        <v>-80.000000000000909</v>
       </c>
       <c r="WD1">
-        <v>-95.040157151877281</v>
+        <v>-81.459478544876049</v>
       </c>
       <c r="WE1">
-        <v>-90.394955767286959</v>
+        <v>-78.876420227558171</v>
       </c>
       <c r="WF1">
-        <v>-86.021527366030739</v>
+        <v>-75.835118822125011</v>
       </c>
       <c r="WG1">
-        <v>-77.417784899841976</v>
+        <v>-74.124891681028231</v>
       </c>
       <c r="WH1">
-        <v>-67.127238618982759</v>
+        <v>-69.016834312940844</v>
       </c>
       <c r="WI1">
-        <v>-70.791398025520778</v>
+        <v>-70.888069510468497</v>
       </c>
       <c r="WJ1">
-        <v>-59.88192827367012</v>
+        <v>-141.1379416525196</v>
       </c>
       <c r="WK1">
-        <v>-3.1591017329475771E-12</v>
+        <v>9.9999999999891021</v>
       </c>
       <c r="WL1">
-        <v>59.881928273667789</v>
+        <v>161.13794165252332</v>
       </c>
       <c r="WM1">
-        <v>70.791398025521175</v>
+        <v>90.888069510466977</v>
       </c>
       <c r="WN1">
-        <v>67.127238618982574</v>
+        <v>89.016834312944852</v>
       </c>
       <c r="WO1">
-        <v>77.41778489984155</v>
+        <v>94.124891681030263</v>
       </c>
       <c r="WP1">
-        <v>86.02152736603071</v>
+        <v>95.835118822124059</v>
       </c>
       <c r="WQ1">
-        <v>90.394955767286248</v>
+        <v>98.876420227559919</v>
       </c>
       <c r="WR1">
-        <v>95.040157151876031</v>
+        <v>101.45947854486865</v>
       </c>
       <c r="WS1">
-        <v>94.999999999999673</v>
+        <v>100.00000000000023</v>
       </c>
       <c r="WT1">
-        <v>91.918124483379131</v>
+        <v>96.122972592417042</v>
       </c>
       <c r="WU1">
-        <v>86.595965894062729</v>
+        <v>90.592148980094365</v>
       </c>
       <c r="WV1">
-        <v>76.980580132630308</v>
+        <v>81.688726095725912</v>
       </c>
       <c r="WW1">
-        <v>65.417784899841635</v>
+        <v>70.124891681027833</v>
       </c>
       <c r="WX1">
-        <v>51.458874387612994</v>
+        <v>57.331336343142134</v>
       </c>
       <c r="WY1">
-        <v>34.992408152297742</v>
+        <v>42.603798263006958</v>
       </c>
       <c r="WZ1">
-        <v>18.132478607202241</v>
+        <v>26.26233045666654</v>
       </c>
       <c r="XA1">
-        <v>2.6543781410766796E-13</v>
+        <v>9.9999999999973106</v>
       </c>
       <c r="XB1">
-        <v>-18.132478607201222</v>
+        <v>-6.2623304566636371</v>
       </c>
       <c r="XC1">
-        <v>-34.9924081522962</v>
+        <v>-22.603798263004109</v>
       </c>
       <c r="XD1">
-        <v>-51.458874387612987</v>
+        <v>-37.331336343145388</v>
       </c>
       <c r="XE1">
-        <v>-65.417784899840498</v>
+        <v>-50.124891681030277</v>
       </c>
       <c r="XF1">
-        <v>-76.980580132631374</v>
+        <v>-61.688726095728157</v>
       </c>
       <c r="XG1">
-        <v>-86.59596589406415</v>
+        <v>-70.592148980098415</v>
       </c>
       <c r="XH1">
-        <v>-91.918124483378918</v>
+        <v>-76.12297259241187</v>
       </c>
       <c r="XI1">
-        <v>-94.999999999999559</v>
+        <v>-79.999999999997272</v>
       </c>
       <c r="XJ1">
-        <v>-95.04015715187704</v>
+        <v>-81.459478544873861</v>
       </c>
       <c r="XK1">
-        <v>-90.394955767286945</v>
+        <v>-78.876420227557844</v>
       </c>
       <c r="XL1">
-        <v>-86.021527366030156</v>
+        <v>-75.835118822122482</v>
       </c>
       <c r="XM1">
-        <v>-77.417784899841507</v>
+        <v>-74.124891681027123</v>
       </c>
       <c r="XN1">
-        <v>-67.127238618982659</v>
+        <v>-69.016834312940858</v>
       </c>
       <c r="XO1">
-        <v>-70.791398025520692</v>
+        <v>-70.888069510468682</v>
       </c>
       <c r="XP1">
-        <v>-59.881928273670468</v>
+        <v>-141.13794165252293</v>
       </c>
       <c r="XQ1">
-        <v>-2.0927655835946659E-12</v>
+        <v>9.9999999999915623</v>
       </c>
       <c r="XR1">
-        <v>59.881928273668613</v>
+        <v>161.13794165252236</v>
       </c>
       <c r="XS1">
-        <v>70.791398025520181</v>
+        <v>90.888069510465655</v>
       </c>
       <c r="XT1">
-        <v>67.12723861898327</v>
+        <v>89.016834312944994</v>
       </c>
       <c r="XU1">
-        <v>77.417784899840996</v>
+        <v>94.124891681028771</v>
       </c>
       <c r="XV1">
-        <v>86.021527366030625</v>
+        <v>95.835118822120478</v>
       </c>
       <c r="XW1">
-        <v>90.394955767286135</v>
+        <v>98.876420227557674</v>
       </c>
       <c r="XX1">
-        <v>95.040157151876599</v>
+        <v>101.45947854486943</v>
       </c>
       <c r="XY1">
-        <v>94.999999999999886</v>
+        <v>100.00000000000045</v>
       </c>
       <c r="XZ1">
-        <v>91.918124483379259</v>
+        <v>96.122972592416744</v>
       </c>
       <c r="YA1">
-        <v>86.595965894064335</v>
+        <v>90.592148980095942</v>
       </c>
       <c r="YB1">
-        <v>76.980580132631545</v>
+        <v>81.688726095728953</v>
       </c>
       <c r="YC1">
-        <v>65.417784899842189</v>
+        <v>70.124891681030419</v>
       </c>
       <c r="YD1">
-        <v>51.458874387612632</v>
+        <v>57.331336343141444</v>
       </c>
       <c r="YE1">
-        <v>34.992408152296377</v>
+        <v>42.603798263001742</v>
       </c>
       <c r="YF1">
-        <v>18.132478607202707</v>
+        <v>26.262330456669069</v>
       </c>
       <c r="YG1">
-        <v>4.3792007780108867E-13</v>
+        <v>9.9999999999974314</v>
       </c>
       <c r="YH1">
-        <v>-18.132478607201811</v>
+        <v>-6.2623304566656621</v>
       </c>
       <c r="YI1">
-        <v>-34.992408152296946</v>
+        <v>-22.60379826300332</v>
       </c>
       <c r="YJ1">
-        <v>-51.45887438761347</v>
+        <v>-37.331336343149658</v>
       </c>
       <c r="YK1">
-        <v>-65.41778489983993</v>
+        <v>-50.124891681030249</v>
       </c>
       <c r="YL1">
-        <v>-76.98058013263126</v>
+        <v>-61.688726095724874</v>
       </c>
       <c r="YM1">
-        <v>-86.595965894062758</v>
+        <v>-70.59214898009553</v>
       </c>
       <c r="YN1">
-        <v>-91.918124483379103</v>
+        <v>-76.122972592412225</v>
       </c>
       <c r="YO1">
-        <v>-94.999999999999162</v>
+        <v>-79.999999999997272</v>
       </c>
       <c r="YP1">
-        <v>-95.040157151876457</v>
+        <v>-81.459478544872752</v>
       </c>
       <c r="YQ1">
-        <v>-90.394955767286817</v>
+        <v>-78.876420227556878</v>
       </c>
       <c r="YR1">
-        <v>-86.021527366030597</v>
+        <v>-75.835118822121984</v>
       </c>
       <c r="YS1">
-        <v>-77.417784899840669</v>
+        <v>-74.12489168102465</v>
       </c>
       <c r="YT1">
-        <v>-67.127238618981949</v>
+        <v>-69.016834312941157</v>
       </c>
       <c r="YU1">
-        <v>-70.791398025520508</v>
+        <v>-70.88806951046783</v>
       </c>
       <c r="YV1">
-        <v>-59.881928273671633</v>
+        <v>-141.1379416525231</v>
       </c>
       <c r="YW1">
-        <v>7.3571655044329464E-13</v>
+        <v>10.000000000001355</v>
       </c>
       <c r="YX1">
-        <v>59.881928273668279</v>
+        <v>161.13794165252634</v>
       </c>
       <c r="YY1">
-        <v>70.79139802551974</v>
+        <v>90.888069510464021</v>
       </c>
       <c r="YZ1">
-        <v>67.127238618983682</v>
+        <v>89.016834312943757</v>
       </c>
       <c r="ZA1">
-        <v>77.417784899840967</v>
+        <v>94.124891681029098</v>
       </c>
       <c r="ZB1">
-        <v>86.021527366030156</v>
+        <v>95.835118822120876</v>
       </c>
       <c r="ZC1">
-        <v>90.394955767286277</v>
+        <v>98.876420227557858</v>
       </c>
       <c r="ZD1">
-        <v>95.040157151875931</v>
+        <v>101.45947854486515</v>
       </c>
       <c r="ZE1">
-        <v>95.00000000000027</v>
+        <v>100.00000000000227</v>
       </c>
       <c r="ZF1">
-        <v>91.918124483379074</v>
+        <v>96.122972592417241</v>
       </c>
       <c r="ZG1">
-        <v>86.595965894064776</v>
+        <v>90.592148980094876</v>
       </c>
       <c r="ZH1">
-        <v>76.980580132630521</v>
+        <v>81.688726095727716</v>
       </c>
       <c r="ZI1">
-        <v>65.417784899842118</v>
+        <v>70.124891681026952</v>
       </c>
       <c r="ZJ1">
-        <v>51.458874387614749</v>
+        <v>57.331336343146468</v>
       </c>
       <c r="ZK1">
-        <v>34.992408152296157</v>
+        <v>42.60379826300349</v>
       </c>
       <c r="ZL1">
-        <v>18.132478607202355</v>
+        <v>26.262330456668792</v>
       </c>
       <c r="ZM1">
-        <v>3.8302866605127728E-13</v>
+        <v>9.9999999999974971</v>
       </c>
       <c r="ZN1">
-        <v>-18.132478607200543</v>
+        <v>-6.2623304566613598</v>
       </c>
       <c r="ZO1">
-        <v>-34.992408152297159</v>
+        <v>-22.60379826300435</v>
       </c>
       <c r="ZP1">
-        <v>-51.458874387614152</v>
+        <v>-37.331336343151307</v>
       </c>
       <c r="ZQ1">
-        <v>-65.417784899839901</v>
+        <v>-50.1248916810274</v>
       </c>
       <c r="ZR1">
-        <v>-76.98058013262937</v>
+        <v>-61.688726095723396</v>
       </c>
       <c r="ZS1">
-        <v>-86.595965894063283</v>
+        <v>-70.592148980097036</v>
       </c>
       <c r="ZT1">
-        <v>-91.918124483378818</v>
+        <v>-76.122972592414072</v>
       </c>
       <c r="ZU1">
-        <v>-95.000000000000057</v>
+        <v>-80.000000000002274</v>
       </c>
       <c r="ZV1">
-        <v>-95.040157151876457</v>
+        <v>-81.459478544872283</v>
       </c>
       <c r="ZW1">
-        <v>-90.394955767286746</v>
+        <v>-78.876420227557134</v>
       </c>
       <c r="ZX1">
-        <v>-86.021527366030696</v>
+        <v>-75.835118822123107</v>
       </c>
       <c r="ZY1">
-        <v>-77.417784899842204</v>
+        <v>-74.124891681028075</v>
       </c>
       <c r="ZZ1">
-        <v>-67.127238618981565</v>
+        <v>-69.016834312940972</v>
       </c>
       <c r="AAA1">
-        <v>-70.791398025519285</v>
+        <v>-70.888069510464675</v>
       </c>
       <c r="AAB1">
-        <v>-59.881928273670795</v>
+        <v>-141.13794165252116</v>
       </c>
       <c r="AAC1">
-        <v>-3.42754183539813E-12</v>
+        <v>9.9999999999902869</v>
       </c>
       <c r="AAD1">
-        <v>59.881928273669232</v>
+        <v>161.13794165252781</v>
       </c>
       <c r="AAE1">
-        <v>70.791398025520039</v>
+        <v>90.888069510464007</v>
       </c>
       <c r="AAF1">
-        <v>67.127238618982446</v>
+        <v>89.016834312944894</v>
       </c>
       <c r="AAG1">
-        <v>77.417784899841806</v>
+        <v>94.124891681031926</v>
       </c>
       <c r="AAH1">
-        <v>86.021527366030554</v>
+        <v>95.835118822121103</v>
       </c>
       <c r="AAI1">
-        <v>90.394955767286305</v>
+        <v>98.87642022755881</v>
       </c>
       <c r="AAJ1">
-        <v>95.040157151875832</v>
+        <v>101.45947854486769</v>
       </c>
       <c r="AAK1">
-        <v>95.000000000000639</v>
+        <v>100.00000000000227</v>
       </c>
       <c r="AAL1">
-        <v>91.918124483379145</v>
+        <v>96.122972592416943</v>
       </c>
       <c r="AAM1">
-        <v>86.595965894063767</v>
+        <v>90.59214898009445</v>
       </c>
       <c r="AAN1">
-        <v>76.980580132629967</v>
+        <v>81.688726095724448</v>
       </c>
       <c r="AAO1">
-        <v>65.417784899841251</v>
+        <v>70.124891681026668</v>
       </c>
       <c r="AAP1">
-        <v>51.458874387613882</v>
+        <v>57.331336343146653</v>
       </c>
       <c r="AAQ1">
-        <v>34.99240815229853</v>
+        <v>42.603798263004322</v>
       </c>
       <c r="AAR1">
-        <v>18.132478607201897</v>
+        <v>26.262330456665666</v>
       </c>
       <c r="AAS1">
-        <v>4.4182409202308177E-13</v>
+        <v>10.000000000000403</v>
       </c>
       <c r="AAT1">
-        <v>-18.132478607200895</v>
+        <v>-6.2623304566623297</v>
       </c>
       <c r="AAU1">
-        <v>-34.992408152294779</v>
+        <v>-22.603798263001252</v>
       </c>
       <c r="AAV1">
-        <v>-51.458874387614543</v>
+        <v>-37.33133634315012</v>
       </c>
       <c r="AAW1">
-        <v>-65.417784899840939</v>
+        <v>-50.124891681027385</v>
       </c>
       <c r="AAX1">
-        <v>-76.980580132629925</v>
+        <v>-61.688726095722501</v>
       </c>
       <c r="AAY1">
-        <v>-86.595965894064051</v>
+        <v>-70.592148980099111</v>
       </c>
       <c r="AAZ1">
-        <v>-91.918124483378705</v>
+        <v>-76.122972592412495</v>
       </c>
       <c r="ABA1">
-        <v>-95.000000000000384</v>
+        <v>-80</v>
       </c>
       <c r="ABB1">
-        <v>-95.040157151877111</v>
+        <v>-81.459478544872823</v>
       </c>
       <c r="ABC1">
-        <v>-90.394955767286731</v>
+        <v>-78.876420227554107</v>
       </c>
       <c r="ABD1">
-        <v>-86.021527366030298</v>
+        <v>-75.835118822124571</v>
       </c>
       <c r="ABE1">
-        <v>-77.417784899841763</v>
+        <v>-74.124891681025801</v>
       </c>
       <c r="ABF1">
-        <v>-67.127238618983185</v>
+        <v>-69.01683431294137</v>
       </c>
       <c r="ABG1">
-        <v>-70.791398025519214</v>
+        <v>-70.888069510462643</v>
       </c>
       <c r="ABH1">
-        <v>-59.881928273670241</v>
+        <v>-141.13794165251772</v>
       </c>
       <c r="ABI1">
-        <v>-3.0433267123749158E-12</v>
+        <v>9.9999999999847891</v>
       </c>
       <c r="ABJ1">
-        <v>59.881928273670056</v>
+        <v>161.13794165252497</v>
       </c>
       <c r="ABK1">
-        <v>70.791398025520124</v>
+        <v>90.888069510462785</v>
       </c>
       <c r="ABL1">
-        <v>67.12723861898202</v>
+        <v>89.01683431294542</v>
       </c>
       <c r="ABM1">
-        <v>77.417784899839901</v>
+        <v>94.124891681021907</v>
       </c>
       <c r="ABN1">
-        <v>86.021527366030455</v>
+        <v>95.835118822118858</v>
       </c>
       <c r="ABO1">
-        <v>90.394955767286092</v>
+        <v>98.876420227556096</v>
       </c>
       <c r="ABP1">
-        <v>95.0401571518764</v>
+        <v>101.45947854486957</v>
       </c>
       <c r="ABQ1">
-        <v>94.999999999999773</v>
+        <v>99.999999999997272</v>
       </c>
       <c r="ABR1">
-        <v>91.918124483379273</v>
+        <v>96.122972592418193</v>
       </c>
       <c r="ABS1">
-        <v>86.595965894063625</v>
+        <v>90.592148980092844</v>
       </c>
       <c r="ABT1">
-        <v>76.980580132631431</v>
+        <v>81.688726095727219</v>
       </c>
       <c r="ABU1">
-        <v>65.417784899841209</v>
+        <v>70.124891681028672</v>
       </c>
       <c r="ABV1">
-        <v>51.458874387613214</v>
+        <v>57.331336343143981</v>
       </c>
       <c r="ABW1">
-        <v>34.992408152297102</v>
+        <v>42.60379826300305</v>
       </c>
       <c r="ABX1">
-        <v>18.132478607202994</v>
+        <v>26.262330456667492</v>
       </c>
       <c r="ABY1">
-        <v>3.8693268027327063E-13</v>
+        <v>10.000000000002743</v>
       </c>
       <c r="ABZ1">
-        <v>-18.13247860720136</v>
+        <v>-6.2623304566637223</v>
       </c>
       <c r="ACA1">
-        <v>-34.992408152294999</v>
+        <v>-22.603798262997429</v>
       </c>
       <c r="ACB1">
-        <v>-51.458874387611729</v>
+        <v>-37.331336343144393</v>
       </c>
       <c r="ACC1">
-        <v>-65.417784899841365</v>
+        <v>-50.12489168102514</v>
       </c>
       <c r="ACD1">
-        <v>-76.980580132629868</v>
+        <v>-61.68872609572152</v>
       </c>
       <c r="ACE1">
-        <v>-86.595965894062672</v>
+        <v>-70.592148980097335</v>
       </c>
       <c r="ACF1">
-        <v>-91.918124483379131</v>
+        <v>-76.122972592415024</v>
       </c>
       <c r="ACG1">
-        <v>-94.999999999999986</v>
+        <v>-80</v>
       </c>
       <c r="ACH1">
-        <v>-95.040157151877736</v>
+        <v>-81.45947854487666</v>
       </c>
       <c r="ACI1">
-        <v>-90.394955767286675</v>
+        <v>-78.876420227556991</v>
       </c>
       <c r="ACJ1">
-        <v>-86.021527366030867</v>
+        <v>-75.835118822127583</v>
       </c>
       <c r="ACK1">
-        <v>-77.417784899841308</v>
+        <v>-74.124891681024522</v>
       </c>
       <c r="ACL1">
-        <v>-67.127238618982489</v>
+        <v>-69.016834312941853</v>
       </c>
       <c r="ACM1">
-        <v>-70.791398025520735</v>
+        <v>-70.888069510466565</v>
       </c>
       <c r="ACN1">
-        <v>-59.88192827366931</v>
+        <v>-141.13794165252133</v>
       </c>
       <c r="ACO1">
-        <v>-2.4317379139084671E-12</v>
+        <v>9.9999999999886136</v>
       </c>
       <c r="ACP1">
-        <v>59.881928273667015</v>
+        <v>161.13794165252165</v>
       </c>
       <c r="ACQ1">
-        <v>70.791398025521175</v>
+        <v>90.888069510463595</v>
       </c>
       <c r="ACR1">
-        <v>67.127238618982716</v>
+        <v>89.016834312944596</v>
       </c>
       <c r="ACS1">
-        <v>77.417784899840186</v>
+        <v>94.124891681025602</v>
       </c>
       <c r="ACT1">
-        <v>86.021527366029758</v>
+        <v>95.835118822121856</v>
       </c>
       <c r="ACU1">
-        <v>90.394955767286589</v>
+        <v>98.876420227563841</v>
       </c>
       <c r="ACV1">
-        <v>95.040157151876429</v>
+        <v>101.45947854486946</v>
       </c>
       <c r="ACW1">
-        <v>95.000000000000156</v>
+        <v>99.999999999997272</v>
       </c>
       <c r="ACX1">
-        <v>91.918124483380524</v>
+        <v>96.122972592424276</v>
       </c>
       <c r="ACY1">
-        <v>86.595965894062445</v>
+        <v>90.592148980092261</v>
       </c>
       <c r="ACZ1">
-        <v>76.980580132631374</v>
+        <v>81.68872609572972</v>
       </c>
       <c r="ADA1">
-        <v>65.417784899842999</v>
+        <v>70.124891681030576</v>
       </c>
       <c r="ADB1">
-        <v>51.458874387612831</v>
+        <v>57.33133634314391</v>
       </c>
       <c r="ADC1">
-        <v>34.992408152296974</v>
+        <v>42.603798263007675</v>
       </c>
       <c r="ADD1">
-        <v>18.132478607202405</v>
+        <v>26.262330456665467</v>
       </c>
       <c r="ADE1">
-        <v>1.6151101194103547E-13</v>
+        <v>9.999999999998316</v>
       </c>
       <c r="ADF1">
-        <v>-18.132478607201602</v>
+        <v>-6.2623304566639639</v>
       </c>
       <c r="ADG1">
-        <v>-34.992408152296193</v>
+        <v>-22.603798262999057</v>
       </c>
       <c r="ADH1">
-        <v>-51.458874387612731</v>
+        <v>-37.331336343147328</v>
       </c>
       <c r="ADI1">
-        <v>-65.417784899840072</v>
+        <v>-50.124891681026632</v>
       </c>
       <c r="ADJ1">
-        <v>-76.980580132630863</v>
+        <v>-61.68872609572486</v>
       </c>
       <c r="ADK1">
-        <v>-86.595965894063411</v>
+        <v>-70.592148980099651</v>
       </c>
       <c r="ADL1">
-        <v>-91.918124483378563</v>
+        <v>-76.12297259241133</v>
       </c>
       <c r="ADM1">
-        <v>-94.999999999999631</v>
+        <v>-79.999999999996362</v>
       </c>
       <c r="ADN1">
-        <v>-95.040157151876627</v>
+        <v>-81.459478544876319</v>
       </c>
       <c r="ADO1">
-        <v>-90.39495576728622</v>
+        <v>-78.876420227553112</v>
       </c>
       <c r="ADP1">
-        <v>-86.021527366031094</v>
+        <v>-75.835118822124329</v>
       </c>
       <c r="ADQ1">
-        <v>-77.417784899841095</v>
+        <v>-74.124891681026497</v>
       </c>
       <c r="ADR1">
-        <v>-67.127238618982105</v>
+        <v>-69.016834312942436</v>
       </c>
       <c r="ADS1">
-        <v>-70.791398025520735</v>
+        <v>-70.888069510468952</v>
       </c>
       <c r="ADT1">
-        <v>-59.881928273672195</v>
+        <v>-141.13794165252131</v>
       </c>
       <c r="ADU1">
-        <v>-1.9338359531636361E-12</v>
+        <v>9.9999999999868674</v>
       </c>
       <c r="ADV1">
-        <v>59.881928273667732</v>
+        <v>161.13794165252492</v>
       </c>
       <c r="ADW1">
-        <v>70.791398025519754</v>
+        <v>90.888069510463836</v>
       </c>
       <c r="ADX1">
-        <v>67.127238618983114</v>
+        <v>89.016834312944894</v>
       </c>
       <c r="ADY1">
-        <v>77.417784899841038</v>
+        <v>94.124891681027165</v>
       </c>
       <c r="ADZ1">
-        <v>86.021527366030156</v>
+        <v>95.835118822121728</v>
       </c>
       <c r="AEA1">
-        <v>90.39495576728666</v>
+        <v>98.876420227562903</v>
       </c>
       <c r="AEB1">
-        <v>95.040157151877551</v>
+        <v>101.45947854486981</v>
       </c>
       <c r="AEC1">
-        <v>95.000000000000497</v>
+        <v>100.00000000000091</v>
       </c>
       <c r="AED1">
-        <v>91.918124483379529</v>
+        <v>96.122972592418265</v>
       </c>
       <c r="AEE1">
-        <v>86.595965894064321</v>
+        <v>90.592148980093143</v>
       </c>
       <c r="AEF1">
-        <v>76.980580132630934</v>
+        <v>81.688726095729933</v>
       </c>
       <c r="AEG1">
-        <v>65.417784899842147</v>
+        <v>70.124891681029482</v>
       </c>
       <c r="AEH1">
-        <v>51.458874387615261</v>
+        <v>57.331336343149864</v>
       </c>
       <c r="AEI1">
-        <v>34.992408152296754</v>
+        <v>42.603798263008123</v>
       </c>
       <c r="AEJ1">
-        <v>18.132478607202167</v>
+        <v>26.262330456668913</v>
       </c>
       <c r="AEK1">
-        <v>6.7505378879930425E-13</v>
+        <v>9.9999999999964473</v>
       </c>
       <c r="AEL1">
-        <v>-18.1324786072006</v>
+        <v>-6.2623304566638893</v>
       </c>
       <c r="AEM1">
-        <v>-34.992408152297713</v>
+        <v>-22.603798263005977</v>
       </c>
       <c r="AEN1">
-        <v>-51.458874387613108</v>
+        <v>-37.331336343147754</v>
       </c>
       <c r="AEO1">
-        <v>-65.41778489984091</v>
+        <v>-50.12489168102725</v>
       </c>
       <c r="AEP1">
-        <v>-76.980580132630038</v>
+        <v>-61.688726095724633</v>
       </c>
       <c r="AEQ1">
-        <v>-86.59596589406398</v>
+        <v>-70.59214898009958</v>
       </c>
       <c r="AER1">
-        <v>-91.918124483379529</v>
+        <v>-76.12297259241501</v>
       </c>
       <c r="AES1">
-        <v>-95.000000000000512</v>
+        <v>-80.000000000001364</v>
       </c>
       <c r="AET1">
-        <v>-95.040157151876613</v>
+        <v>-81.459478544875452</v>
       </c>
       <c r="AEU1">
-        <v>-90.394955767286433</v>
+        <v>-78.876420227552629</v>
       </c>
       <c r="AEV1">
-        <v>-86.02152736603071</v>
+        <v>-75.835118822121132</v>
       </c>
       <c r="AEW1">
-        <v>-77.41778489984263</v>
+        <v>-74.124891681034342</v>
       </c>
       <c r="AEX1">
-        <v>-67.127238618981792</v>
+        <v>-69.016834312939565</v>
       </c>
       <c r="AEY1">
-        <v>-70.791398025519626</v>
+        <v>-70.88806951046611</v>
       </c>
       <c r="AEZ1">
-        <v>-59.881928273671484</v>
+        <v>-141.13794165251693</v>
       </c>
       <c r="AFA1">
-        <v>-2.9906561520264428E-13</v>
+        <v>9.9999999999921698</v>
       </c>
       <c r="AFB1">
-        <v>59.881928273668393</v>
+        <v>161.13794165252537</v>
       </c>
       <c r="AFC1">
-        <v>70.791398025519797</v>
+        <v>90.888069510463183</v>
       </c>
       <c r="AFD1">
-        <v>67.127238618981536</v>
+        <v>89.016834312945903</v>
       </c>
       <c r="AFE1">
-        <v>77.417784899841877</v>
+        <v>94.124891681030036</v>
       </c>
       <c r="AFF1">
-        <v>86.021527366030142</v>
+        <v>95.835118822118588</v>
       </c>
       <c r="AFG1">
-        <v>90.394955767286874</v>
+        <v>98.876420227564481</v>
       </c>
       <c r="AFH1">
-        <v>95.040157151876329</v>
+        <v>101.45947854487066</v>
       </c>
       <c r="AFI1">
-        <v>95.000000000000227</v>
+        <v>100.00000000000318</v>
       </c>
       <c r="AFJ1">
-        <v>91.918124483379671</v>
+        <v>96.122972592419842</v>
       </c>
       <c r="AFK1">
-        <v>86.595965894063795</v>
+        <v>90.592148980091252</v>
       </c>
       <c r="AFL1">
-        <v>76.980580132629356</v>
+        <v>81.68872609572351</v>
       </c>
       <c r="AFM1">
-        <v>65.417784899841536</v>
+        <v>70.124891681029084</v>
       </c>
       <c r="AFN1">
-        <v>51.458874387614237</v>
+        <v>57.331336343146283</v>
       </c>
       <c r="AFO1">
-        <v>34.992408152297976</v>
+        <v>42.603798263001373</v>
       </c>
       <c r="AFP1">
-        <v>18.132478607201701</v>
+        <v>26.26233045666465</v>
       </c>
       <c r="AFQ1">
-        <v>5.1728188441412631E-14</v>
+        <v>9.9999999999984457</v>
       </c>
       <c r="AFR1">
-        <v>-18.132478607201055</v>
+        <v>-6.2623304566681526</v>
       </c>
       <c r="AFS1">
-        <v>-34.9924081522948</v>
+        <v>-22.603798263000563</v>
       </c>
       <c r="AFT1">
-        <v>-51.458874387614642</v>
+        <v>-37.331336343147484</v>
       </c>
       <c r="AFU1">
-        <v>-65.417784899840967</v>
+        <v>-50.124891681024934</v>
       </c>
       <c r="AFV1">
-        <v>-76.980580132630081</v>
+        <v>-61.688726095724704</v>
       </c>
       <c r="AFW1">
-        <v>-86.595965894064491</v>
+        <v>-70.592148980101399</v>
       </c>
       <c r="AFX1">
-        <v>-91.918124483378904</v>
+        <v>-76.122972592412196</v>
       </c>
       <c r="AFY1">
-        <v>-95.000000000000128</v>
+        <v>-80.000000000001364</v>
       </c>
       <c r="AFZ1">
-        <v>-95.040157151877281</v>
+        <v>-81.459478544873789</v>
       </c>
       <c r="AGA1">
-        <v>-90.394955767286589</v>
+        <v>-78.876420227557787</v>
       </c>
       <c r="AGB1">
-        <v>-86.021527366030725</v>
+        <v>-75.835118822125096</v>
       </c>
       <c r="AGC1">
-        <v>-77.417784899842573</v>
+        <v>-74.124891681030093</v>
       </c>
       <c r="AGD1">
-        <v>-67.12723861898337</v>
+        <v>-69.016834312940446</v>
       </c>
       <c r="AGE1">
-        <v>-70.7913980255192</v>
+        <v>-70.888069510464874</v>
       </c>
       <c r="AGF1">
-        <v>-59.881928273670574</v>
+        <v>-141.13794165251878</v>
       </c>
       <c r="AGG1">
-        <v>-3.8938898124359896E-12</v>
+        <v>9.9999999999894005</v>
       </c>
       <c r="AGH1">
-        <v>59.881928273669466</v>
+        <v>161.13794165252708</v>
       </c>
       <c r="AGI1">
-        <v>70.791398025521573</v>
+        <v>90.888069510467787</v>
       </c>
       <c r="AGJ1">
-        <v>67.127238618982588</v>
+        <v>89.016834312944511</v>
       </c>
       <c r="AGK1">
-        <v>77.41778489983993</v>
+        <v>94.124891681024863</v>
       </c>
       <c r="AGL1">
-        <v>86.021527366030526</v>
+        <v>95.835118822118432</v>
       </c>
       <c r="AGM1">
-        <v>90.394955767286675</v>
+        <v>98.876420227563059</v>
       </c>
       <c r="AGN1">
-        <v>95.040157151876883</v>
+        <v>101.45947854487504</v>
       </c>
       <c r="AGO1">
-        <v>94.999999999999318</v>
+        <v>99.999999999996362</v>
       </c>
       <c r="AGP1">
-        <v>91.918124483378691</v>
+        <v>96.122972592415067</v>
       </c>
       <c r="AGQ1">
-        <v>86.595965894063738</v>
+        <v>90.592148980093455</v>
       </c>
       <c r="AGR1">
-        <v>76.980580132631715</v>
+        <v>81.688726095729081</v>
       </c>
       <c r="AGS1">
-        <v>65.417784899841052</v>
+        <v>70.124891681028075</v>
       </c>
       <c r="AGT1">
-        <v>51.458874387613875</v>
+        <v>57.331336343143825</v>
       </c>
       <c r="AGU1">
-        <v>34.992408152297081</v>
+        <v>42.603798263003512</v>
       </c>
       <c r="AGV1">
-        <v>18.132478607202867</v>
+        <v>26.262330456664287</v>
       </c>
       <c r="AGW1">
-        <v>-7.4212766849890278E-13</v>
+        <v>9.9999999999992486</v>
       </c>
       <c r="AGX1">
-        <v>-18.132478607201435</v>
+        <v>-6.2623304566632925</v>
       </c>
       <c r="AGY1">
-        <v>-34.992408152295397</v>
+        <v>-22.603798263000741</v>
       </c>
       <c r="AGZ1">
-        <v>-51.458874387612212</v>
+        <v>-37.331336343144649</v>
       </c>
       <c r="AHA1">
-        <v>-65.417784899841337</v>
+        <v>-50.124891681022291</v>
       </c>
       <c r="AHB1">
-        <v>-76.980580132629981</v>
+        <v>-61.68872609572243</v>
       </c>
       <c r="AHC1">
-        <v>-86.595965894062658</v>
+        <v>-70.592148980100518</v>
       </c>
       <c r="AHD1">
-        <v>-91.91812448337808</v>
+        <v>-76.122972592411543</v>
       </c>
       <c r="AHE1">
-        <v>-94.999999999999744</v>
+        <v>-79.999999999997726</v>
       </c>
       <c r="AHF1">
-        <v>-95.040157151876713</v>
+        <v>-81.459478544872951</v>
       </c>
       <c r="AHG1">
-        <v>-90.394955767286163</v>
+        <v>-78.876420227553993</v>
       </c>
       <c r="AHH1">
-        <v>-86.021527366030455</v>
+        <v>-75.835118822127399</v>
       </c>
       <c r="AHI1">
-        <v>-77.41778489984172</v>
+        <v>-74.124891681028529</v>
       </c>
       <c r="AHJ1">
-        <v>-67.127238618982247</v>
+        <v>-69.016834312940247</v>
       </c>
       <c r="AHK1">
-        <v>-70.791398025521218</v>
+        <v>-70.888069510468526</v>
       </c>
       <c r="AHL1">
-        <v>-59.881928273669615</v>
+        <v>-141.1379416525202</v>
       </c>
       <c r="AHM1">
-        <v>-2.2022760556141903E-12</v>
+        <v>9.9999999999907807</v>
       </c>
       <c r="AHN1">
-        <v>59.881928273666226</v>
+        <v>161.13794165252443</v>
       </c>
       <c r="AHO1">
-        <v>70.79139802552136</v>
+        <v>90.888069510465542</v>
       </c>
       <c r="AHP1">
-        <v>67.127238618982943</v>
+        <v>89.016834312944212</v>
       </c>
       <c r="AHQ1">
-        <v>77.417784899839944</v>
+        <v>94.124891681022575</v>
       </c>
       <c r="AHR1">
-        <v>86.021527366030185</v>
+        <v>95.835118822120023</v>
       </c>
       <c r="AHS1">
-        <v>90.394955767286504</v>
+        <v>98.876420227558796</v>
       </c>
       <c r="AHT1">
-        <v>95.040157151876812</v>
+        <v>101.45947854486744</v>
       </c>
       <c r="AHU1">
-        <v>95.000000000000355</v>
+        <v>99.999999999999545</v>
       </c>
       <c r="AHV1">
-        <v>91.918124483379273</v>
+        <v>96.122972592417455</v>
       </c>
       <c r="AHW1">
-        <v>86.595965894062005</v>
+        <v>90.592148980088581</v>
       </c>
       <c r="AHX1">
-        <v>76.9805801326318</v>
+        <v>81.688726095731383</v>
       </c>
       <c r="AHY1">
-        <v>65.417784899841834</v>
+        <v>70.124891681028942</v>
       </c>
       <c r="AHZ1">
-        <v>51.458874387612155</v>
+        <v>57.331336343143761</v>
       </c>
       <c r="AIA1">
-        <v>34.992408152296484</v>
+        <v>42.603798263000527</v>
       </c>
       <c r="AIB1">
-        <v>18.132478607202454</v>
+        <v>26.262330456667584</v>
       </c>
       <c r="AIC1">
-        <v>3.9669271582825404E-13</v>
+        <v>9.9999999999955058</v>
       </c>
       <c r="AID1">
-        <v>-18.13247860720173</v>
+        <v>-6.2623304566657367</v>
       </c>
       <c r="AIE1">
-        <v>-34.992408152296299</v>
+        <v>-22.603798262998779</v>
       </c>
       <c r="AIF1">
-        <v>-51.458874387612056</v>
+        <v>-37.331336343147058</v>
       </c>
       <c r="AIG1">
-        <v>-65.41778489983983</v>
+        <v>-50.124891681028039</v>
       </c>
       <c r="AIH1">
-        <v>-76.980580132632099</v>
+        <v>-61.68872609573009</v>
       </c>
       <c r="AII1">
-        <v>-86.595965894062658</v>
+        <v>-70.59214898009877</v>
       </c>
       <c r="AIJ1">
-        <v>-91.918124483378648</v>
+        <v>-76.122972592412083</v>
       </c>
       <c r="AIK1">
-        <v>-94.999999999999631</v>
+        <v>-79.999999999995453</v>
       </c>
       <c r="AIL1">
-        <v>-95.040157151876144</v>
+        <v>-81.459478544869668</v>
       </c>
       <c r="AIM1">
-        <v>-90.394955767286078</v>
+        <v>-78.876420227552273</v>
       </c>
       <c r="AIN1">
-        <v>-86.021527366030668</v>
+        <v>-75.835118822121061</v>
       </c>
       <c r="AIO1">
-        <v>-77.417784899840498</v>
+        <v>-74.124891681022703</v>
       </c>
       <c r="AIP1">
-        <v>-67.127238618982346</v>
+        <v>-69.016834312941143</v>
       </c>
       <c r="AIQ1">
-        <v>-70.791398025519825</v>
+        <v>-70.888069510468512</v>
       </c>
       <c r="AIR1">
-        <v>-59.881928273672173</v>
+        <v>-141.13794165252193</v>
       </c>
       <c r="AIS1">
-        <v>-2.4433385400598622E-12</v>
+        <v>9.9999999999854534</v>
       </c>
       <c r="AIT1">
-        <v>59.881928273667846</v>
+        <v>161.13794165252614</v>
       </c>
       <c r="AIU1">
-        <v>70.791398025519598</v>
+        <v>90.888069510462742</v>
       </c>
       <c r="AIV1">
-        <v>67.127238618982958</v>
+        <v>89.016834312942507</v>
       </c>
       <c r="AIW1">
-        <v>77.417784899840356</v>
+        <v>94.124891681027989</v>
       </c>
       <c r="AIX1">
-        <v>86.021527366029758</v>
+        <v>95.835118822123263</v>
       </c>
       <c r="AIY1">
-        <v>90.394955767286959</v>
+        <v>98.876420227561695</v>
       </c>
       <c r="AIZ1">
-        <v>95.040157151877366</v>
+        <v>101.45947854487112</v>
       </c>
       <c r="AJA1">
-        <v>95.000000000000085</v>
+        <v>100</v>
       </c>
       <c r="AJB1">
-        <v>91.918124483379401</v>
+        <v>96.12297259242122</v>
       </c>
       <c r="AJC1">
-        <v>86.595965894064818</v>
+        <v>90.592148980093029</v>
       </c>
       <c r="AJD1">
-        <v>76.980580132629669</v>
+        <v>81.68872609572675</v>
       </c>
       <c r="AJE1">
-        <v>65.417784899842147</v>
+        <v>70.124891681029425</v>
       </c>
       <c r="AJF1">
-        <v>51.458874387614472</v>
+        <v>57.331336343146489</v>
       </c>
       <c r="AJG1">
-        <v>34.99240815229561</v>
+        <v>42.603798263003853</v>
       </c>
       <c r="AJH1">
-        <v>18.132478607202167</v>
+        <v>26.262330456666017</v>
       </c>
       <c r="AJI1">
-        <v>6.2601839838248292E-13</v>
+        <v>10.000000000003471</v>
       </c>
       <c r="AJJ1">
-        <v>-18.132478607200731</v>
+        <v>-6.2623304566668239</v>
       </c>
       <c r="AJK1">
-        <v>-34.992408152297195</v>
+        <v>-22.603798263003782</v>
       </c>
       <c r="AJL1">
-        <v>-51.458874387613214</v>
+        <v>-37.331336343145658</v>
       </c>
       <c r="AJM1">
-        <v>-65.417784899840228</v>
+        <v>-50.124891681025176</v>
       </c>
       <c r="AJN1">
-        <v>-76.980580132628575</v>
+        <v>-61.688726095718394</v>
       </c>
       <c r="AJO1">
-        <v>-86.595965894064207</v>
+        <v>-70.592148980100887</v>
       </c>
       <c r="AJP1">
-        <v>-91.918124483378463</v>
+        <v>-76.122972592412083</v>
       </c>
       <c r="AJQ1">
-        <v>-94.999999999999787</v>
+        <v>-80.000000000002728</v>
       </c>
       <c r="AJR1">
-        <v>-95.040157151877708</v>
+        <v>-81.459478544877015</v>
       </c>
       <c r="AJS1">
-        <v>-90.394955767286504</v>
+        <v>-78.876420227556707</v>
       </c>
       <c r="AJT1">
-        <v>-86.021527366031108</v>
+        <v>-75.835118822126191</v>
       </c>
       <c r="AJU1">
-        <v>-77.417784899842843</v>
+        <v>-74.124891681030846</v>
       </c>
       <c r="AJV1">
-        <v>-67.12723861898246</v>
+        <v>-69.016834312941</v>
       </c>
       <c r="AJW1">
-        <v>-70.791398025519939</v>
+        <v>-70.888069510469663</v>
       </c>
       <c r="AJX1">
-        <v>-59.881928273671925</v>
+        <v>-141.13794165252136</v>
       </c>
       <c r="AJY1">
-        <v>-4.8444509412162387E-12</v>
+        <v>9.9999999999846718</v>
       </c>
       <c r="AJZ1">
-        <v>59.881928273667967</v>
+        <v>161.13794165252506</v>
       </c>
       <c r="AKA1">
-        <v>70.791398025520522</v>
+        <v>90.888069510464916</v>
       </c>
       <c r="AKB1">
-        <v>67.127238618982389</v>
+        <v>89.01683431294596</v>
       </c>
       <c r="AKC1">
-        <v>77.417784899841394</v>
+        <v>94.124891681029041</v>
       </c>
       <c r="AKD1">
-        <v>86.021527366029943</v>
+        <v>95.835118822120265</v>
       </c>
       <c r="AKE1">
-        <v>90.394955767286817</v>
+        <v>98.876420227559805</v>
       </c>
       <c r="AKF1">
-        <v>95.040157151876173</v>
+        <v>101.45947854487042</v>
       </c>
       <c r="AKG1">
-        <v>94.999999999999744</v>
+        <v>100.00000000000045</v>
       </c>
       <c r="AKH1">
-        <v>91.918124483379287</v>
+        <v>96.122972592417497</v>
       </c>
       <c r="AKI1">
-        <v>86.595965894063099</v>
+        <v>90.592148980092489</v>
       </c>
       <c r="AKJ1">
-        <v>76.980580132630749</v>
+        <v>81.68872609572658</v>
       </c>
       <c r="AKK1">
-        <v>65.417784899840925</v>
+        <v>70.124891681031784</v>
       </c>
       <c r="AKL1">
-        <v>51.458874387613342</v>
+        <v>57.331336343142162</v>
       </c>
       <c r="AKM1">
-        <v>34.992408152299106</v>
+        <v>42.603798263007093</v>
       </c>
       <c r="AKN1">
-        <v>18.132478607201541</v>
+        <v>26.262330456659953</v>
       </c>
       <c r="AKO1">
-        <v>-1.6783745855783251E-13</v>
+        <v>10.000000000000636</v>
       </c>
       <c r="AKP1">
-        <v>-18.132478607201008</v>
+        <v>-6.2623304566629407</v>
       </c>
       <c r="AKQ1">
-        <v>-34.992408152294743</v>
+        <v>-22.603798263002815</v>
       </c>
       <c r="AKR1">
-        <v>-51.458874387614109</v>
+        <v>-37.331336343147804</v>
       </c>
       <c r="AKS1">
-        <v>-65.417784899840726</v>
+        <v>-50.124891681026789</v>
       </c>
       <c r="AKT1">
-        <v>-76.980580132630692</v>
+        <v>-61.688726095722913</v>
       </c>
       <c r="AKU1">
-        <v>-86.595965894063809</v>
+        <v>-70.592148980099225</v>
       </c>
       <c r="AKV1">
-        <v>-91.918124483378378</v>
+        <v>-76.122972592408217</v>
       </c>
       <c r="AKW1">
-        <v>-95.000000000000114</v>
+        <v>-79.999999999998636</v>
       </c>
       <c r="AKX1">
-        <v>-95.040157151877381</v>
+        <v>-81.459478544875836</v>
       </c>
       <c r="AKY1">
-        <v>-90.39495576728622</v>
+        <v>-78.876420227553538</v>
       </c>
       <c r="AKZ1">
-        <v>-86.021527366030881</v>
+        <v>-75.835118822127313</v>
       </c>
       <c r="ALA1">
-        <v>-77.417784899842829</v>
+        <v>-74.124891681030903</v>
       </c>
       <c r="ALB1">
-        <v>-67.127238618983327</v>
+        <v>-69.016834312939963</v>
       </c>
       <c r="ALC1">
-        <v>-70.791398025520152</v>
+        <v>-70.888069510464803</v>
       </c>
       <c r="ALD1">
-        <v>-59.881928273670397</v>
+        <v>-141.13794165251718</v>
       </c>
       <c r="ALE1">
-        <v>-5.540260776548376E-12</v>
+        <v>9.9999999999788898</v>
       </c>
       <c r="ALF1">
-        <v>59.881928273669367</v>
+        <v>161.13794165252725</v>
       </c>
       <c r="ALG1">
-        <v>70.791398025520905</v>
+        <v>90.888069510466664</v>
       </c>
       <c r="ALH1">
-        <v>67.12723861898202</v>
+        <v>89.016834312943431</v>
       </c>
       <c r="ALI1">
-        <v>77.417784899840598</v>
+        <v>94.124891681027449</v>
       </c>
       <c r="ALJ1">
-        <v>86.021527366030455</v>
+        <v>95.835118822120691</v>
       </c>
       <c r="ALK1">
-        <v>90.394955767286618</v>
+        <v>98.876420227559393</v>
       </c>
       <c r="ALL1">
-        <v>95.040157151876755</v>
+        <v>101.45947854486782</v>
       </c>
       <c r="ALM1">
-        <v>94.999999999999559</v>
+        <v>99.999999999996817</v>
       </c>
       <c r="ALN1">
-        <v>91.918124483379444</v>
+        <v>96.122972592418193</v>
       </c>
       <c r="ALO1">
-        <v>86.595965894063511</v>
+        <v>90.592148980093313</v>
       </c>
       <c r="ALP1">
-        <v>76.980580132631076</v>
+        <v>81.688726095725102</v>
       </c>
       <c r="ALQ1">
-        <v>65.417784899840925</v>
+        <v>70.124891681029681</v>
       </c>
       <c r="ALR1">
-        <v>51.458874387613498</v>
+        <v>57.331336343139753</v>
       </c>
       <c r="ALS1">
-        <v>34.992408152297145</v>
+        <v>42.60379826300349</v>
       </c>
       <c r="ALT1">
-        <v>18.132478607203566</v>
+        <v>26.262330456668153</v>
       </c>
       <c r="ALU1">
-        <v>5.1623557488286024E-13</v>
+        <v>10.00000000000542</v>
       </c>
       <c r="ALV1">
-        <v>-18.13247860720131</v>
+        <v>-6.2623304566656408</v>
       </c>
       <c r="ALW1">
-        <v>-34.992408152296264</v>
+        <v>-22.603798263005373</v>
       </c>
       <c r="ALX1">
-        <v>-51.458874387611168</v>
+        <v>-37.331336343141643</v>
       </c>
       <c r="ALY1">
-        <v>-65.417784899841223</v>
+        <v>-50.124891681028728</v>
       </c>
       <c r="ALZ1">
-        <v>-76.980580132630209</v>
+        <v>-61.688726095723624</v>
       </c>
       <c r="AMA1">
-        <v>-86.595965894063326</v>
+        <v>-70.59214898009931</v>
       </c>
       <c r="AMB1">
-        <v>-91.91812448337933</v>
+        <v>-76.122972592418066</v>
       </c>
       <c r="AMC1">
-        <v>-94.999999999999091</v>
+        <v>-79.999999999999091</v>
       </c>
       <c r="AMD1">
-        <v>-95.040157151877935</v>
+        <v>-81.459478544878024</v>
       </c>
       <c r="AME1">
-        <v>-90.394955767287257</v>
+        <v>-78.876420227558413</v>
       </c>
       <c r="AMF1">
-        <v>-86.021527366030355</v>
+        <v>-75.835118822125224</v>
       </c>
       <c r="AMG1">
-        <v>-77.417784899841607</v>
+        <v>-74.124891681025076</v>
       </c>
       <c r="AMH1">
-        <v>-67.127238618983</v>
+        <v>-69.016834312935998</v>
       </c>
       <c r="AMI1">
-        <v>-70.791398025520834</v>
+        <v>-70.888069510467588</v>
       </c>
       <c r="AMJ1">
-        <v>-59.88192827366877</v>
+        <v>-141.13794165251693</v>
       </c>
       <c r="AMK1">
-        <v>-2.7117786425104159E-12</v>
+        <v>9.9999999999873186</v>
       </c>
       <c r="AML1">
-        <v>59.881928273665665</v>
+        <v>161.13794165252338</v>
       </c>
       <c r="AMM1">
-        <v>70.791398025521175</v>
+        <v>90.888069510464419</v>
       </c>
       <c r="AMN1">
-        <v>67.127238618983128</v>
+        <v>89.016834312940944</v>
       </c>
       <c r="AMO1">
-        <v>77.417784899840299</v>
+        <v>94.124891681023556</v>
       </c>
       <c r="AMP1">
-        <v>86.021527366029858</v>
+        <v>95.835118822120307</v>
       </c>
       <c r="AMQ1">
-        <v>90.3949557672873</v>
+        <v>98.876420227566314</v>
       </c>
       <c r="AMR1">
-        <v>95.040157151877295</v>
+        <v>101.45947854487184</v>
       </c>
       <c r="AMS1">
-        <v>94.999999999999261</v>
+        <v>99.999999999999091</v>
       </c>
       <c r="AMT1">
-        <v>91.91812448337997</v>
+        <v>96.122972592424759</v>
       </c>
       <c r="AMU1">
-        <v>86.595965894063497</v>
+        <v>90.592148980092105</v>
       </c>
       <c r="AMV1">
-        <v>76.980580132631161</v>
+        <v>81.688726095728541</v>
       </c>
       <c r="AMW1">
-        <v>65.417784899842516</v>
+        <v>70.124891681031016</v>
       </c>
       <c r="AMX1">
-        <v>51.458874387611964</v>
+        <v>57.331336343138808</v>
       </c>
       <c r="AMY1">
-        <v>34.992408152297799</v>
+        <v>42.603798263008848</v>
       </c>
       <c r="AMZ1">
-        <v>18.132478607202945</v>
+        <v>26.262330456668558</v>
       </c>
       <c r="ANA1">
-        <v>5.1818758199385656E-13</v>
+        <v>9.9999999999923528</v>
       </c>
       <c r="ANB1">
-        <v>-18.132478607201932</v>
+        <v>-6.2623304566652251</v>
       </c>
       <c r="ANC1">
-        <v>-34.992408152295639</v>
+        <v>-22.60379826300003</v>
       </c>
       <c r="AND1">
-        <v>-51.458874387612703</v>
+        <v>-37.331336343142581</v>
       </c>
       <c r="ANE1">
-        <v>-65.417784899839617</v>
+        <v>-50.124891681027421</v>
       </c>
       <c r="ANF1">
-        <v>-76.980580132630109</v>
+        <v>-61.688726095720128</v>
       </c>
       <c r="ANG1">
-        <v>-86.595965894063326</v>
+        <v>-70.592148980100561</v>
       </c>
       <c r="ANH1">
-        <v>-91.918124483378804</v>
+        <v>-76.122972592411529</v>
       </c>
       <c r="ANI1">
-        <v>-94.999999999999361</v>
+        <v>-79.999999999996817</v>
       </c>
       <c r="ANJ1">
-        <v>-95.040157151877352</v>
+        <v>-81.45947854487396</v>
       </c>
       <c r="ANK1">
-        <v>-90.394955767286632</v>
+        <v>-78.876420227551449</v>
       </c>
       <c r="ANL1">
-        <v>-86.021527366030952</v>
+        <v>-75.835118822125594</v>
       </c>
       <c r="ANM1">
-        <v>-77.417784899841351</v>
+        <v>-74.124891681026682</v>
       </c>
       <c r="ANN1">
-        <v>-67.127238618981536</v>
+        <v>-69.016834312939793</v>
       </c>
       <c r="ANO1">
-        <v>-70.791398025519982</v>
+        <v>-70.888069510467105</v>
       </c>
       <c r="ANP1">
-        <v>-59.881928273672749</v>
+        <v>-141.13794165251994</v>
       </c>
       <c r="ANQ1">
-        <v>-1.1338517234102316E-12</v>
+        <v>9.9999999999901767</v>
       </c>
       <c r="ANR1">
-        <v>59.88192827366754</v>
+        <v>161.13794165252307</v>
       </c>
       <c r="ANS1">
-        <v>70.791398025519811</v>
+        <v>90.888069510458806</v>
       </c>
       <c r="ANT1">
-        <v>67.127238618983057</v>
+        <v>89.016834312946131</v>
       </c>
       <c r="ANU1">
-        <v>77.417784899840925</v>
+        <v>94.124891681027435</v>
       </c>
       <c r="ANV1">
-        <v>86.021527366030128</v>
+        <v>95.835118822120791</v>
       </c>
       <c r="ANW1">
-        <v>90.3949557672873</v>
+        <v>98.876420227565177</v>
       </c>
       <c r="ANX1">
-        <v>95.04015715187677</v>
+        <v>101.45947854486927</v>
       </c>
       <c r="ANY1">
-        <v>95.000000000000313</v>
+        <v>99.999999999998636</v>
       </c>
       <c r="ANZ1">
-        <v>91.91812448337906</v>
+        <v>96.122972592414484</v>
       </c>
       <c r="AOA1">
-        <v>86.595965894063966</v>
+        <v>90.592148980091594</v>
       </c>
       <c r="AOB1">
-        <v>76.980580132631673</v>
+        <v>81.688726095727873</v>
       </c>
       <c r="AOC1">
-        <v>65.417784899842033</v>
+        <v>70.124891681029396</v>
       </c>
       <c r="AOD1">
-        <v>51.458874387614934</v>
+        <v>57.331336343144955</v>
       </c>
       <c r="AOE1">
-        <v>34.992408152296264</v>
+        <v>42.603798263006112</v>
       </c>
       <c r="AOF1">
-        <v>18.132478607202646</v>
+        <v>26.262330456666113</v>
       </c>
       <c r="AOG1">
-        <v>1.2022606154345498E-12</v>
+        <v>9.9999999999971365</v>
       </c>
       <c r="AOH1">
-        <v>-18.132478607199907</v>
+        <v>-6.2623304566567732</v>
       </c>
       <c r="AOI1">
-        <v>-34.992408152297571</v>
+        <v>-22.603798263002425</v>
       </c>
       <c r="AOJ1">
-        <v>-51.45887438761374</v>
+        <v>-37.331336343149616</v>
       </c>
       <c r="AOK1">
-        <v>-65.417784899840186</v>
+        <v>-50.124891681029673</v>
       </c>
       <c r="AOL1">
-        <v>-76.980580132629214</v>
+        <v>-61.688726095719389</v>
       </c>
       <c r="AOM1">
-        <v>-86.595965894062488</v>
+        <v>-70.592148980100305</v>
       </c>
       <c r="AON1">
-        <v>-91.918124483379117</v>
+        <v>-76.12297259241204</v>
       </c>
       <c r="AOO1">
-        <v>-95.000000000000043</v>
+        <v>-80.000000000002274</v>
       </c>
       <c r="AOP1">
-        <v>-95.040157151875903</v>
+        <v>-81.459478544874983</v>
       </c>
       <c r="AOQ1">
-        <v>-90.394955767285751</v>
+        <v>-78.876420227548209</v>
       </c>
       <c r="AOR1">
-        <v>-86.021527366030696</v>
+        <v>-75.835118822126773</v>
       </c>
       <c r="AOS1">
-        <v>-77.417784899842729</v>
+        <v>-74.124891681030562</v>
       </c>
       <c r="AOT1">
-        <v>-67.127238618982261</v>
+        <v>-69.016834312941455</v>
       </c>
       <c r="AOU1">
-        <v>-70.791398025520266</v>
+        <v>-70.888069510468213</v>
       </c>
       <c r="AOV1">
-        <v>-59.881928273671093</v>
+        <v>-141.13794165251863</v>
       </c>
       <c r="AOW1">
-        <v>-5.7910634380459195E-13</v>
+        <v>9.9999999999904201</v>
       </c>
       <c r="AOX1">
-        <v>59.881928273668798</v>
+        <v>161.13794165252787</v>
       </c>
       <c r="AOY1">
-        <v>70.791398025520238</v>
+        <v>90.888069510466721</v>
       </c>
       <c r="AOZ1">
-        <v>67.127238618982631</v>
+        <v>89.016834312946401</v>
       </c>
       <c r="APA1">
-        <v>77.417784899841521</v>
+        <v>94.124891681029368</v>
       </c>
       <c r="APB1">
-        <v>86.021527366030639</v>
+        <v>95.835118822121402</v>
       </c>
       <c r="APC1">
-        <v>90.394955767286504</v>
+        <v>98.87642022756458</v>
       </c>
       <c r="APD1">
-        <v>95.040157151876258</v>
+        <v>101.45947854486921</v>
       </c>
       <c r="APE1">
-        <v>95.000000000000441</v>
+        <v>100.00000000000455</v>
       </c>
       <c r="APF1">
-        <v>91.918124483379657</v>
+        <v>96.12297259241997</v>
       </c>
       <c r="APG1">
-        <v>86.59596589406479</v>
+        <v>90.592148980093967</v>
       </c>
       <c r="APH1">
-        <v>76.980580132630095</v>
+        <v>81.688726095724277</v>
       </c>
       <c r="API1">
-        <v>65.417784899840981</v>
+        <v>70.124891681026654</v>
       </c>
       <c r="APJ1">
-        <v>51.458874387615218</v>
+        <v>57.331336343147413</v>
       </c>
       <c r="APK1">
-        <v>34.992408152298772</v>
+        <v>42.603798263006489</v>
       </c>
       <c r="APL1">
-        <v>18.132478607201627</v>
+        <v>26.262330456664213</v>
       </c>
       <c r="APM1">
-        <v>6.7344245329386289E-14</v>
+        <v>9.9999999999960067</v>
       </c>
       <c r="APN1">
-        <v>-18.132478607201147</v>
+        <v>-6.26233045666498</v>
       </c>
       <c r="APO1">
-        <v>-34.992408152293997</v>
+        <v>-22.603798262998737</v>
       </c>
       <c r="APP1">
-        <v>-51.458874387613456</v>
+        <v>-37.331336343146901</v>
       </c>
       <c r="APQ1">
-        <v>-65.417784899840839</v>
+        <v>-50.124891681027471</v>
       </c>
       <c r="APR1">
-        <v>-76.980580132628717</v>
+        <v>-61.688726095720455</v>
       </c>
       <c r="APS1">
-        <v>-86.595965894064847</v>
+        <v>-70.592148980102181</v>
       </c>
       <c r="APT1">
-        <v>-91.918124483378904</v>
+        <v>-76.122972592416218</v>
       </c>
       <c r="APU1">
-        <v>-94.999999999999886</v>
+        <v>-80</v>
       </c>
       <c r="APV1">
-        <v>-95.040157151877949</v>
+        <v>-81.459478544877655</v>
       </c>
       <c r="APW1">
-        <v>-90.394955767286703</v>
+        <v>-78.876420227551463</v>
       </c>
       <c r="APX1">
-        <v>-86.021527366030185</v>
+        <v>-75.835118822126233</v>
       </c>
       <c r="APY1">
-        <v>-77.417784899841635</v>
+        <v>-74.124891681028771</v>
       </c>
       <c r="APZ1">
-        <v>-67.12723861898246</v>
+        <v>-69.016834312938883</v>
       </c>
       <c r="AQA1">
-        <v>-70.791398025518788</v>
+        <v>-70.888069510463424</v>
       </c>
       <c r="AQB1">
-        <v>-59.8819282736711</v>
+        <v>-141.13794165251653</v>
       </c>
       <c r="AQC1">
-        <v>-4.2307739598987464E-12</v>
+        <v>9.9999999999836149</v>
       </c>
       <c r="AQD1">
-        <v>59.881928273668798</v>
+        <v>161.13794165252884</v>
       </c>
       <c r="AQE1">
-        <v>70.791398025520635</v>
+        <v>90.888069510466551</v>
       </c>
       <c r="AQF1">
-        <v>67.127238618981892</v>
+        <v>89.016834312944468</v>
       </c>
       <c r="AQG1">
-        <v>77.417784899838622</v>
+        <v>94.12489168101888</v>
       </c>
       <c r="AQH1">
-        <v>86.021527366029943</v>
+        <v>95.835118822115973</v>
       </c>
       <c r="AQI1">
-        <v>90.394955767287371</v>
+        <v>98.876420227567863</v>
       </c>
       <c r="AQJ1">
-        <v>95.040157151876571</v>
+        <v>101.45947854486764</v>
       </c>
       <c r="AQK1">
-        <v>94.999999999999815</v>
+        <v>99.999999999995453</v>
       </c>
       <c r="AQL1">
-        <v>91.91812448337933</v>
+        <v>96.122972592419458</v>
       </c>
       <c r="AQM1">
-        <v>86.595965894062644</v>
+        <v>90.592148980089235</v>
       </c>
       <c r="AQN1">
-        <v>76.980580132633037</v>
+        <v>81.688726095733301</v>
       </c>
       <c r="AQO1">
-        <v>65.417784899841124</v>
+        <v>70.124891681029339</v>
       </c>
       <c r="AQP1">
-        <v>51.458874387612866</v>
+        <v>57.331336343144649</v>
       </c>
       <c r="AQQ1">
-        <v>34.992408152297891</v>
+        <v>42.603798263003199</v>
       </c>
       <c r="AQR1">
-        <v>18.13247860720324</v>
+        <v>26.262330456668415</v>
       </c>
       <c r="AQS1">
-        <v>6.3773044104846306E-13</v>
+        <v>10.000000000001814</v>
       </c>
       <c r="AQT1">
-        <v>-18.132478607200831</v>
+        <v>-6.2623304566646603</v>
       </c>
       <c r="AQU1">
-        <v>-34.992408152294892</v>
+        <v>-22.603798262996818</v>
       </c>
       <c r="AQV1">
-        <v>-51.458874387612333</v>
+        <v>-37.331336343148934</v>
       </c>
       <c r="AQW1">
-        <v>-65.417784899841067</v>
+        <v>-50.124891681027123</v>
       </c>
       <c r="AQX1">
-        <v>-76.980580132630294</v>
+        <v>-61.688726095725443</v>
       </c>
       <c r="AQY1">
-        <v>-86.595965894061607</v>
+        <v>-70.592148980099537</v>
       </c>
       <c r="AQZ1">
-        <v>-91.918124483378335</v>
+        <v>-76.122972592412111</v>
       </c>
       <c r="ARA1">
-        <v>-95.000000000000639</v>
+        <v>-80.000000000001364</v>
       </c>
       <c r="ARB1">
-        <v>-95.040157151876556</v>
+        <v>-81.459478544872354</v>
       </c>
       <c r="ARC1">
-        <v>-90.394955767285197</v>
+        <v>-78.876420227544429</v>
       </c>
       <c r="ARD1">
-        <v>-86.021527366030881</v>
+        <v>-75.835118822125963</v>
       </c>
       <c r="ARE1">
-        <v>-77.417784899841834</v>
+        <v>-74.124891681027009</v>
       </c>
       <c r="ARF1">
-        <v>-67.127238618983156</v>
+        <v>-69.016834312938016</v>
       </c>
       <c r="ARG1">
-        <v>-70.791398025521161</v>
+        <v>-70.888069510469634</v>
       </c>
       <c r="ARH1">
-        <v>-59.881928273669224</v>
+        <v>-141.13794165251798</v>
       </c>
       <c r="ARI1">
-        <v>-3.221281229406642E-12</v>
+        <v>9.999999999982494</v>
       </c>
       <c r="ARJ1">
-        <v>59.88192827366651</v>
+        <v>161.13794165252696</v>
       </c>
       <c r="ARK1">
-        <v>70.791398025521445</v>
+        <v>90.888069510464973</v>
       </c>
       <c r="ARL1">
-        <v>67.127238618982162</v>
+        <v>89.016834312942507</v>
       </c>
       <c r="ARM1">
-        <v>77.417784899840413</v>
+        <v>94.124891681026668</v>
       </c>
       <c r="ARN1">
-        <v>86.021527366029986</v>
+        <v>95.835118822122496</v>
       </c>
       <c r="ARO1">
-        <v>90.39495576728639</v>
+        <v>98.876420227565006</v>
       </c>
       <c r="ARP1">
-        <v>95.040157151876954</v>
+        <v>101.45947854487341</v>
       </c>
       <c r="ARQ1">
-        <v>94.999999999999943</v>
+        <v>99.999999999997726</v>
       </c>
       <c r="ARR1">
-        <v>91.918124483379913</v>
+        <v>96.122972592420226</v>
       </c>
       <c r="ARS1">
-        <v>86.595965894063298</v>
+        <v>90.592148980089448</v>
       </c>
       <c r="ART1">
-        <v>76.980580132631459</v>
+        <v>81.688726095729095</v>
       </c>
       <c r="ARU1">
-        <v>65.417784899842545</v>
+        <v>70.124891681027165</v>
       </c>
       <c r="ARV1">
-        <v>51.458874387611445</v>
+        <v>57.331336343134645</v>
       </c>
       <c r="ARW1">
-        <v>34.992408152296974</v>
+        <v>42.603798263004144</v>
       </c>
       <c r="ARX1">
-        <v>18.132478607202192</v>
+        <v>26.262330456664291</v>
       </c>
       <c r="ARY1">
-        <v>7.5336928588107561E-13</v>
+        <v>10.000000000000911</v>
       </c>
       <c r="ARZ1">
-        <v>-18.132478607201843</v>
+        <v>-6.2623304566641238</v>
       </c>
       <c r="ASA1">
-        <v>-34.992408152296136</v>
+        <v>-22.603798263004308</v>
       </c>
       <c r="ASB1">
-        <v>-51.458874387612042</v>
+        <v>-37.331336343141672</v>
       </c>
       <c r="ASC1">
-        <v>-65.417784899839731</v>
+        <v>-50.124891681025836</v>
       </c>
       <c r="ASD1">
-        <v>-76.980580132631317</v>
+        <v>-61.68872609572739</v>
       </c>
       <c r="ASE1">
-        <v>-86.595965894063539</v>
+        <v>-70.592148980101896</v>
       </c>
       <c r="ASF1">
-        <v>-91.918124483378222</v>
+        <v>-76.122972592409738</v>
       </c>
       <c r="ASG1">
-        <v>-94.999999999999133</v>
+        <v>-79.999999999994543</v>
       </c>
       <c r="ASH1">
-        <v>-95.040157151876826</v>
+        <v>-81.459478544875864</v>
       </c>
       <c r="ASI1">
-        <v>-90.394955767286461</v>
+        <v>-78.876420227552003</v>
       </c>
       <c r="ASJ1">
-        <v>-86.021527366030256</v>
+        <v>-75.835118822118901</v>
       </c>
       <c r="ASK1">
-        <v>-77.417784899840754</v>
+        <v>-74.124891681025289</v>
       </c>
       <c r="ASL1">
-        <v>-67.127238618981707</v>
+        <v>-69.01683431293911</v>
       </c>
       <c r="ASM1">
-        <v>-70.791398025520095</v>
+        <v>-70.888069510467787</v>
       </c>
       <c r="ASN1">
-        <v>-59.881928273673417</v>
+        <v>-141.13794165251832</v>
       </c>
       <c r="ASO1">
-        <v>-2.7802226875226178E-12</v>
+        <v>9.9999999999810321</v>
       </c>
       <c r="ASP1">
-        <v>59.881928273666624</v>
+        <v>161.13794165252821</v>
       </c>
       <c r="ASQ1">
-        <v>70.791398025519726</v>
+        <v>90.888069510462401</v>
       </c>
       <c r="ASR1">
-        <v>67.12723861898364</v>
+        <v>89.016834312941882</v>
       </c>
       <c r="ASS1">
-        <v>77.417784899839859</v>
+        <v>94.124891681022461</v>
       </c>
       <c r="AST1">
-        <v>86.021527366029972</v>
+        <v>95.835118822118588</v>
       </c>
       <c r="ASU1">
-        <v>90.394955767287911</v>
+        <v>98.876420227570719</v>
       </c>
       <c r="ASV1">
-        <v>95.040157151877011</v>
+        <v>101.459478544866</v>
       </c>
       <c r="ASW1">
-        <v>95.000000000000526</v>
+        <v>99.999999999999091</v>
       </c>
       <c r="ASX1">
-        <v>91.918124483379586</v>
+        <v>96.122972592418535</v>
       </c>
       <c r="ASY1">
-        <v>86.595965894063781</v>
+        <v>90.592148980087771</v>
       </c>
       <c r="ASZ1">
-        <v>76.98058013263099</v>
+        <v>81.688726095729166</v>
       </c>
       <c r="ATA1">
-        <v>65.417784899841891</v>
+        <v>70.124891681029027</v>
       </c>
       <c r="ATB1">
-        <v>51.458874387614529</v>
+        <v>57.331336343142169</v>
       </c>
       <c r="ATC1">
-        <v>34.992408152296406</v>
+        <v>42.603798263004812</v>
       </c>
       <c r="ATD1">
-        <v>18.132478607202408</v>
+        <v>26.262330456668142</v>
       </c>
       <c r="ATE1">
-        <v>3.0057394210560827E-13</v>
+        <v>9.9999999999968257</v>
       </c>
       <c r="ATF1">
-        <v>-18.132478607200234</v>
+        <v>-6.2623304566644222</v>
       </c>
       <c r="ATG1">
-        <v>-34.992408152297024</v>
+        <v>-22.603798263000975</v>
       </c>
       <c r="ATH1">
-        <v>-51.458874387613058</v>
+        <v>-37.331336343148976</v>
       </c>
       <c r="ATI1">
-        <v>-65.417784899840782</v>
+        <v>-50.124891681027911</v>
       </c>
       <c r="ATJ1">
-        <v>-76.980580132629498</v>
+        <v>-61.688726095723851</v>
       </c>
       <c r="ATK1">
-        <v>-86.595965894063127</v>
+        <v>-70.592148980101555</v>
       </c>
       <c r="ATL1">
-        <v>-91.918124483378747</v>
+        <v>-76.122972592411571</v>
       </c>
       <c r="ATM1">
-        <v>-95.000000000000227</v>
+        <v>-79.999999999999091</v>
       </c>
       <c r="ATN1">
-        <v>-95.040157151877082</v>
+        <v>-81.459478544874628</v>
       </c>
       <c r="ATO1">
-        <v>-90.39495576728558</v>
+        <v>-78.87642022755152</v>
       </c>
       <c r="ATP1">
-        <v>-86.021527366030256</v>
+        <v>-75.835118822122865</v>
       </c>
       <c r="ATQ1">
-        <v>-77.417784899843639</v>
+        <v>-74.124891681034697</v>
       </c>
       <c r="ATR1">
-        <v>-67.127238618981778</v>
+        <v>-69.01683431293992</v>
       </c>
       <c r="ATS1">
-        <v>-70.791398025519328</v>
+        <v>-70.888069510468313</v>
       </c>
       <c r="ATT1">
-        <v>-59.881928273671527</v>
+        <v>-141.13794165251966</v>
       </c>
       <c r="ATU1">
-        <v>-6.3182034658951542E-12</v>
+        <v>9.9999999999782059</v>
       </c>
       <c r="ATV1">
-        <v>59.8819282736685</v>
+        <v>161.13794165252679</v>
       </c>
       <c r="ATW1">
-        <v>70.791398025519484</v>
+        <v>90.888069510461619</v>
       </c>
       <c r="ATX1">
-        <v>67.127238618980982</v>
+        <v>89.016834312942237</v>
       </c>
       <c r="ATY1">
-        <v>77.417784899840825</v>
+        <v>94.124891681031713</v>
       </c>
       <c r="ATZ1">
-        <v>86.021527366029815</v>
+        <v>95.835118822116726</v>
       </c>
       <c r="AUA1">
-        <v>90.394955767286646</v>
+        <v>98.876420227562832</v>
       </c>
       <c r="AUB1">
-        <v>95.040157151875007</v>
+        <v>101.45947854486506</v>
       </c>
       <c r="AUC1">
-        <v>95.000000000000696</v>
+        <v>100.00000000000136</v>
       </c>
       <c r="AUD1">
-        <v>91.918124483380183</v>
+        <v>96.122972592423366</v>
       </c>
       <c r="AUE1">
-        <v>86.595965894064108</v>
+        <v>90.592148980091736</v>
       </c>
       <c r="AUF1">
-        <v>76.980580132630408</v>
+        <v>81.688726095728356</v>
       </c>
       <c r="AUG1">
-        <v>65.417784899841664</v>
+        <v>70.124891681028714</v>
       </c>
       <c r="AUH1">
-        <v>51.458874387613612</v>
+        <v>57.331336343141324</v>
       </c>
       <c r="AUI1">
-        <v>34.992408152298651</v>
+        <v>42.603798263010411</v>
       </c>
       <c r="AUJ1">
-        <v>18.132478607201488</v>
+        <v>26.262330456662418</v>
       </c>
       <c r="AUK1">
-        <v>8.7096013782468539E-13</v>
+        <v>10.00000000000718</v>
       </c>
       <c r="AUL1">
-        <v>-18.132478607201143</v>
+        <v>-6.2623304566678648</v>
       </c>
       <c r="AUM1">
-        <v>-34.992408152295837</v>
+        <v>-22.603798263006404</v>
       </c>
       <c r="AUN1">
-        <v>-51.458874387613406</v>
+        <v>-37.331336343147527</v>
       </c>
       <c r="AUO1">
-        <v>-65.41778489984064</v>
+        <v>-50.124891681024607</v>
       </c>
       <c r="AUP1">
-        <v>-76.980580132629967</v>
+        <v>-61.688726095723666</v>
       </c>
       <c r="AUQ1">
-        <v>-86.595965894065031</v>
+        <v>-70.59214898010471</v>
       </c>
       <c r="AUR1">
-        <v>-91.918124483379046</v>
+        <v>-76.122972592414044</v>
       </c>
       <c r="AUS1">
-        <v>-94.999999999999616</v>
+        <v>-80.000000000001364</v>
       </c>
       <c r="AUT1">
-        <v>-95.040157151877509</v>
+        <v>-81.45947854487099</v>
       </c>
       <c r="AUU1">
-        <v>-90.394955767286447</v>
+        <v>-78.876420227552643</v>
       </c>
       <c r="AUV1">
-        <v>-86.02152736603044</v>
+        <v>-75.835118822125153</v>
       </c>
       <c r="AUW1">
-        <v>-77.417784899841877</v>
+        <v>-74.124891681026938</v>
       </c>
       <c r="AUX1">
-        <v>-67.127238618983682</v>
+        <v>-69.016834312940205</v>
       </c>
       <c r="AUY1">
-        <v>-70.79139802551893</v>
+        <v>-70.888069510466551</v>
       </c>
       <c r="AUZ1">
-        <v>-59.881928273671527</v>
+        <v>-141.13794165251758</v>
       </c>
       <c r="AVA1">
-        <v>-4.7402765467949725E-12</v>
+        <v>9.9999999999842473</v>
       </c>
       <c r="AVB1">
-        <v>59.881928273668265</v>
+        <v>161.13794165252938</v>
       </c>
       <c r="AVC1">
-        <v>70.791398025520934</v>
+        <v>90.888069510465556</v>
       </c>
       <c r="AVD1">
-        <v>67.127238618983085</v>
+        <v>89.016834312943502</v>
       </c>
       <c r="AVE1">
-        <v>77.417784899839859</v>
+        <v>94.12489168102563</v>
       </c>
       <c r="AVF1">
-        <v>86.021527366029773</v>
+        <v>95.835118822112804</v>
       </c>
       <c r="AVG1">
-        <v>90.394955767287513</v>
+        <v>98.876420227565816</v>
       </c>
       <c r="AVH1">
-        <v>95.040157151876372</v>
+        <v>101.45947854486968</v>
       </c>
       <c r="AVI1">
-        <v>94.999999999998664</v>
+        <v>99.999999999993179</v>
       </c>
       <c r="AVJ1">
-        <v>91.918124483378719</v>
+        <v>96.122972592416787</v>
       </c>
       <c r="AVK1">
-        <v>86.595965894061749</v>
+        <v>90.592148980088083</v>
       </c>
       <c r="AVL1">
-        <v>76.980580132632383</v>
+        <v>81.688726095733273</v>
       </c>
       <c r="AVM1">
-        <v>65.41778489984101</v>
+        <v>70.124891681031855</v>
       </c>
       <c r="AVN1">
-        <v>51.458874387613918</v>
+        <v>57.331336343146845</v>
       </c>
       <c r="AVO1">
-        <v>34.992408152299099</v>
+        <v>42.603798263008677</v>
       </c>
       <c r="AVP1">
-        <v>18.132478607203105</v>
+        <v>26.262330456664358</v>
       </c>
       <c r="AVQ1">
-        <v>1.5550331712653782E-12</v>
+        <v>10.000000000000139</v>
       </c>
       <c r="AVR1">
-        <v>-18.132478607200937</v>
+        <v>-6.2623304566649196</v>
       </c>
       <c r="AVS1">
-        <v>-34.992408152295376</v>
+        <v>-22.603798263003689</v>
       </c>
       <c r="AVT1">
-        <v>-51.458874387611964</v>
+        <v>-37.331336343142247</v>
       </c>
       <c r="AVU1">
-        <v>-65.417784899841692</v>
+        <v>-50.124891681028295</v>
       </c>
       <c r="AVV1">
-        <v>-76.98058013263153</v>
+        <v>-61.688726095726494</v>
       </c>
       <c r="AVW1">
-        <v>-86.595965894062317</v>
+        <v>-70.592148980102692</v>
       </c>
       <c r="AVX1">
-        <v>-91.918124483379529</v>
+        <v>-76.122972592415564</v>
       </c>
       <c r="AVY1">
-        <v>-94.999999999999503</v>
+        <v>-79.999999999995453</v>
       </c>
       <c r="AVZ1">
-        <v>-95.040157151878006</v>
+        <v>-81.459478544879389</v>
       </c>
       <c r="AWA1">
-        <v>-90.394955767287442</v>
+        <v>-78.876420227556096</v>
       </c>
       <c r="AWB1">
-        <v>-86.021527366030469</v>
+        <v>-75.835118822127711</v>
       </c>
       <c r="AWC1">
-        <v>-77.417784899841934</v>
+        <v>-74.124891681027478</v>
       </c>
       <c r="AWD1">
-        <v>-67.127238618982958</v>
+        <v>-69.016834312940645</v>
       </c>
       <c r="AWE1">
-        <v>-70.791398025521872</v>
+        <v>-70.888069510469421</v>
       </c>
       <c r="AWF1">
-        <v>-59.881928273669878</v>
+        <v>-141.13794165251969</v>
       </c>
       <c r="AWG1">
-        <v>-4.1855311671893318E-12</v>
+        <v>9.9999999999831264</v>
       </c>
       <c r="AWH1">
-        <v>59.881928273666205</v>
+        <v>161.13794165252591</v>
       </c>
       <c r="AWI1">
-        <v>70.791398025520678</v>
+        <v>90.888069510465471</v>
       </c>
       <c r="AWJ1">
-        <v>67.127238618982844</v>
+        <v>89.016834312947367</v>
       </c>
       <c r="AWK1">
-        <v>77.417784899840541</v>
+        <v>94.124891681030562</v>
       </c>
       <c r="AWL1">
-        <v>86.021527366029844</v>
+        <v>95.835118822123022</v>
       </c>
       <c r="AWM1">
-        <v>90.394955767286689</v>
+        <v>98.876420227564736</v>
       </c>
       <c r="AWN1">
-        <v>95.040157151875718</v>
+        <v>101.45947854486049</v>
       </c>
       <c r="AWO1">
-        <v>95.000000000000171</v>
+        <v>99.999999999998181</v>
       </c>
       <c r="AWP1">
-        <v>91.918124483379813</v>
+        <v>96.122972592421561</v>
       </c>
       <c r="AWQ1">
-        <v>86.595965894062587</v>
+        <v>90.592148980087543</v>
       </c>
       <c r="AWR1">
-        <v>76.980580132633179</v>
+        <v>81.688726095735916</v>
       </c>
       <c r="AWS1">
-        <v>65.417784899841962</v>
+        <v>70.124891681027265</v>
       </c>
       <c r="AWT1">
-        <v>51.458874387612248</v>
+        <v>57.331336343136812</v>
       </c>
       <c r="AWU1">
-        <v>34.992408152297152</v>
+        <v>42.603798263008379</v>
       </c>
       <c r="AWV1">
-        <v>18.1324786072039</v>
+        <v>26.262330456671521</v>
       </c>
       <c r="AWW1">
-        <v>1.8980456915412231E-12</v>
+        <v>10.000000000001739</v>
       </c>
       <c r="AWX1">
-        <v>-18.132478607201843</v>
+        <v>-6.2623304566723625</v>
       </c>
       <c r="AWY1">
-        <v>-34.992408152296292</v>
+        <v>-22.603798263001693</v>
       </c>
       <c r="AWZ1">
-        <v>-51.45887438761104</v>
+        <v>-37.331336343143938</v>
       </c>
       <c r="AXA1">
-        <v>-65.417784899839617</v>
+        <v>-50.124891681029702</v>
       </c>
       <c r="AXB1">
-        <v>-76.980580132631047</v>
+        <v>-61.688726095727233</v>
       </c>
       <c r="AXC1">
-        <v>-86.595965894062772</v>
+        <v>-70.59214898009995</v>
       </c>
       <c r="AXD1">
-        <v>-91.918124483379074</v>
+        <v>-76.122972592409909</v>
       </c>
       <c r="AXE1">
-        <v>-95.000000000000114</v>
+        <v>-80.000000000004547</v>
       </c>
       <c r="AXF1">
-        <v>-95.040157151877679</v>
+        <v>-81.459478544879488</v>
       </c>
       <c r="AXG1">
-        <v>-90.394955767286774</v>
+        <v>-78.876420227554291</v>
       </c>
       <c r="AXH1">
-        <v>-86.021527366030512</v>
+        <v>-75.835118822120904</v>
       </c>
       <c r="AXI1">
-        <v>-77.417784899841934</v>
+        <v>-74.12489168102752</v>
       </c>
       <c r="AXJ1">
-        <v>-67.127238618984236</v>
+        <v>-69.016834312935799</v>
       </c>
       <c r="AXK1">
-        <v>-70.791398025519811</v>
+        <v>-70.888069510467247</v>
       </c>
       <c r="AXL1">
-        <v>-59.881928273668514</v>
+        <v>-141.13794165251542</v>
       </c>
       <c r="AXM1">
-        <v>-7.8371987832834851E-12</v>
+        <v>9.9999999999717737</v>
       </c>
       <c r="AXN1">
-        <v>59.881928273667555</v>
+        <v>161.13794165252705</v>
       </c>
       <c r="AXO1">
-        <v>70.791398025522369</v>
+        <v>90.888069510466678</v>
       </c>
       <c r="AXP1">
-        <v>67.127238618983014</v>
+        <v>89.016834312950181</v>
       </c>
       <c r="AXQ1">
-        <v>77.417784899840782</v>
+        <v>94.124891681028942</v>
       </c>
       <c r="AXR1">
-        <v>86.021527366030114</v>
+        <v>95.835118822116087</v>
       </c>
       <c r="AXS1">
-        <v>90.394955767285666</v>
+        <v>98.876420227559564</v>
       </c>
       <c r="AXT1">
-        <v>95.040157151877153</v>
+        <v>101.45947854486617</v>
       </c>
       <c r="AXU1">
-        <v>94.999999999998167</v>
+        <v>99.999999999989996</v>
       </c>
       <c r="AXV1">
-        <v>91.918124483379401</v>
+        <v>96.122972592421306</v>
       </c>
       <c r="AXW1">
-        <v>86.595965894062601</v>
+        <v>90.592148980087742</v>
       </c>
       <c r="AXX1">
-        <v>76.980580132633861</v>
+        <v>81.688726095733742</v>
       </c>
       <c r="AXY1">
-        <v>65.417784899842829</v>
+        <v>70.124891681028856</v>
       </c>
       <c r="AXZ1">
-        <v>51.458874387612546</v>
+        <v>57.331336343141423</v>
       </c>
       <c r="AYA1">
-        <v>34.992408152300726</v>
+        <v>42.603798263012571</v>
       </c>
       <c r="AYB1">
-        <v>18.13247860720266</v>
+        <v>26.262330456668032</v>
       </c>
       <c r="AYC1">
-        <v>3.0838197054959536E-13</v>
+        <v>10.000000000007772</v>
       </c>
       <c r="AYD1">
-        <v>-18.132478607200241</v>
+        <v>-6.2623304566639</v>
       </c>
       <c r="AYE1">
-        <v>-34.992408152296875</v>
+        <v>-22.603798263002808</v>
       </c>
       <c r="AYF1">
-        <v>-51.458874387610997</v>
+        <v>-37.331336343143477</v>
       </c>
       <c r="AYG1">
-        <v>-65.417784899840569</v>
+        <v>-50.124891681027947</v>
       </c>
       <c r="AYH1">
-        <v>-76.980580132630323</v>
+        <v>-61.688726095721378</v>
       </c>
       <c r="AYI1">
-        <v>-86.595965894061436</v>
+        <v>-70.592148980100234</v>
       </c>
       <c r="AYJ1">
-        <v>-91.918124483378435</v>
+        <v>-76.122972592410306</v>
       </c>
       <c r="AYK1">
-        <v>-94.999999999998749</v>
+        <v>-79.999999999995453</v>
       </c>
       <c r="AYL1">
-        <v>-95.040157151878617</v>
+        <v>-81.45947854487541</v>
       </c>
       <c r="AYM1">
-        <v>-90.394955767287414</v>
+        <v>-78.876420227553851</v>
       </c>
       <c r="AYN1">
-        <v>-86.021527366030213</v>
+        <v>-75.835118822130354</v>
       </c>
       <c r="AYO1">
-        <v>-77.417784899844023</v>
+        <v>-74.124891681034626</v>
       </c>
       <c r="AYP1">
-        <v>-67.127238618981565</v>
+        <v>-69.016834312938556</v>
       </c>
       <c r="AYQ1">
-        <v>-70.791398025522795</v>
+        <v>-70.888069510473059</v>
       </c>
       <c r="AYR1">
-        <v>-59.881928273671946</v>
+        <v>-141.13794165252247</v>
       </c>
       <c r="AYS1">
-        <v>1.4714331008865893E-12</v>
+        <v>10.000000000002711</v>
       </c>
       <c r="AYT1">
-        <v>59.881928273663888</v>
+        <v>161.13794165252585</v>
       </c>
       <c r="AYU1">
-        <v>70.791398025520451</v>
+        <v>90.88806951046179</v>
       </c>
       <c r="AYV1">
-        <v>67.127238618984236</v>
+        <v>89.016834312948262</v>
       </c>
       <c r="AYW1">
-        <v>77.417784899839432</v>
+        <v>94.124891681025062</v>
       </c>
       <c r="AYX1">
-        <v>86.021527366030767</v>
+        <v>95.835118822122027</v>
       </c>
       <c r="AYY1">
-        <v>90.394955767286305</v>
+        <v>98.87642022756134</v>
       </c>
       <c r="AYZ1">
-        <v>95.040157151875093</v>
+        <v>101.4594785448637</v>
       </c>
       <c r="AZA1">
-        <v>95.000000000000938</v>
+        <v>100.00000000000546</v>
       </c>
       <c r="AZB1">
-        <v>91.918124483379415</v>
+        <v>96.122972592419401</v>
       </c>
       <c r="AZC1">
-        <v>86.595965894063482</v>
+        <v>90.592148980090869</v>
       </c>
       <c r="AZD1">
-        <v>76.980580132630976</v>
+        <v>81.688726095727162</v>
       </c>
       <c r="AZE1">
-        <v>65.41778489984307</v>
+        <v>70.124891681025687</v>
       </c>
       <c r="AZF1">
-        <v>51.458874387613236</v>
+        <v>57.331336343144137</v>
       </c>
       <c r="AZG1">
-        <v>34.992408152295454</v>
+        <v>42.603798263003469</v>
       </c>
       <c r="AZH1">
-        <v>18.13247860720459</v>
+        <v>26.262330456673084</v>
       </c>
       <c r="AZI1">
-        <v>1.7882628680416001E-12</v>
+        <v>10.000000000000957</v>
       </c>
       <c r="AZJ1">
-        <v>-18.132478607201307</v>
+        <v>-6.2623304566608553</v>
       </c>
       <c r="AZK1">
-        <v>-34.992408152294658</v>
+        <v>-22.603798263001671</v>
       </c>
       <c r="AZL1">
-        <v>-51.458874387612425</v>
+        <v>-37.331336343145217</v>
       </c>
       <c r="AZM1">
-        <v>-65.417784899838523</v>
+        <v>-50.124891681035464</v>
       </c>
       <c r="AZN1">
-        <v>-76.980580132630607</v>
+        <v>-61.688726095722444</v>
       </c>
       <c r="AZO1">
-        <v>-86.595965894063852</v>
+        <v>-70.592148980103232</v>
       </c>
       <c r="AZP1">
-        <v>-91.918124483379472</v>
+        <v>-76.12297259241123</v>
       </c>
       <c r="AZQ1">
-        <v>-95.000000000000782</v>
+        <v>-80</v>
       </c>
       <c r="AZR1">
-        <v>-95.040157151876528</v>
+        <v>-81.459478544877385</v>
       </c>
       <c r="AZS1">
-        <v>-90.394955767286305</v>
+        <v>-78.876420227552899</v>
       </c>
       <c r="AZT1">
-        <v>-86.021527366030696</v>
+        <v>-75.835118822129644</v>
       </c>
       <c r="AZU1">
-        <v>-77.417784899840228</v>
+        <v>-74.124891681019321</v>
       </c>
       <c r="AZV1">
-        <v>-67.127238618983483</v>
+        <v>-69.016834312942066</v>
       </c>
       <c r="AZW1">
-        <v>-70.791398025518603</v>
+        <v>-70.888069510464959</v>
       </c>
       <c r="AZX1">
-        <v>-59.881928273674767</v>
+        <v>-141.1379416525225</v>
       </c>
       <c r="AZY1">
-        <v>-5.7045264845776619E-12</v>
+        <v>9.9999999999776019</v>
       </c>
       <c r="AZZ1">
-        <v>59.881928273669189</v>
+        <v>161.13794165252824</v>
       </c>
       <c r="BAA1">
-        <v>70.791398025519314</v>
+        <v>90.888069510465954</v>
       </c>
       <c r="BAB1">
-        <v>67.127238618982332</v>
+        <v>89.016834312945974</v>
       </c>
       <c r="BAC1">
-        <v>77.417784899842488</v>
+        <v>94.124891681034569</v>
       </c>
       <c r="BAD1">
-        <v>86.021527366030597</v>
+        <v>95.835118822125366</v>
       </c>
       <c r="BAE1">
-        <v>90.394955767285722</v>
+        <v>98.876420227560118</v>
       </c>
       <c r="BAF1">
-        <v>95.040157151876613</v>
+        <v>101.45947854486514</v>
       </c>
       <c r="BAG1">
-        <v>94.999999999998892</v>
+        <v>99.999999999997272</v>
       </c>
       <c r="BAH1">
-        <v>91.918124483378605</v>
+        <v>96.122972592419103</v>
       </c>
       <c r="BAI1">
-        <v>86.595965894065884</v>
+        <v>90.59214898009715</v>
       </c>
       <c r="BAJ1">
-        <v>76.980580132630664</v>
+        <v>81.688726095725244</v>
       </c>
       <c r="BAK1">
-        <v>65.417784899841124</v>
+        <v>70.124891681028004</v>
       </c>
       <c r="BAL1">
-        <v>51.458874387616738</v>
+        <v>57.331336343151214</v>
       </c>
       <c r="BAM1">
-        <v>34.992408152296619</v>
+        <v>42.603798263003085</v>
       </c>
       <c r="BAN1">
-        <v>18.132478607201961</v>
+        <v>26.262330456663033</v>
       </c>
       <c r="BAO1">
-        <v>1.1080938488229008E-12</v>
+        <v>9.9999999999949409</v>
       </c>
       <c r="BAP1">
-        <v>-18.132478607201207</v>
+        <v>-6.2623304566613136</v>
       </c>
       <c r="BAQ1">
-        <v>-34.992408152297315</v>
+        <v>-22.60379826299841</v>
       </c>
       <c r="BAR1">
-        <v>-51.458874387611743</v>
+        <v>-37.331336343148386</v>
       </c>
       <c r="BAS1">
-        <v>-65.417784899841351</v>
+        <v>-50.124891681022703</v>
       </c>
       <c r="BAT1">
-        <v>-76.980580132626542</v>
+        <v>-61.688726095709683</v>
       </c>
       <c r="BAU1">
-        <v>-86.595965894062957</v>
+        <v>-70.592148980099239</v>
       </c>
       <c r="BAV1">
-        <v>-91.918124483377937</v>
+        <v>-76.122972592412935</v>
       </c>
       <c r="BAW1">
-        <v>-95.000000000000483</v>
+        <v>-80.000000000005457</v>
       </c>
       <c r="BAX1">
-        <v>-95.040157151878574</v>
+        <v>-81.459478544880383</v>
       </c>
       <c r="BAY1">
-        <v>-90.39495576728774</v>
+        <v>-78.876420227558384</v>
       </c>
       <c r="BAZ1">
-        <v>-86.021527366030909</v>
+        <v>-75.835118822124528</v>
       </c>
       <c r="BBA1">
-        <v>-77.417784899841976</v>
+        <v>-74.12489168102455</v>
       </c>
       <c r="BBB1">
-        <v>-67.127238618979419</v>
+        <v>-69.01683431293938</v>
       </c>
       <c r="BBC1">
-        <v>-70.791398025521588</v>
+        <v>-70.888069510473912</v>
       </c>
       <c r="BBD1">
-        <v>-59.881928273670297</v>
+        <v>-141.13794165251994</v>
       </c>
       <c r="BBE1">
-        <v>-6.8550836707962601E-12</v>
+        <v>9.9999999999805738</v>
       </c>
       <c r="BBF1">
-        <v>59.881928273665771</v>
+        <v>161.13794165252705</v>
       </c>
       <c r="BBG1">
-        <v>70.791398025520621</v>
+        <v>90.888069510458934</v>
       </c>
       <c r="BBH1">
-        <v>67.12723861898175</v>
+        <v>89.016834312951303</v>
       </c>
       <c r="BBI1">
-        <v>77.417784899839589</v>
+        <v>94.124891681021879</v>
       </c>
       <c r="BBJ1">
-        <v>86.021527366030597</v>
+        <v>95.83511882211738</v>
       </c>
       <c r="BBK1">
-        <v>90.394955767286817</v>
+        <v>98.876420227563969</v>
       </c>
       <c r="BBL1">
-        <v>95.04015715187623</v>
+        <v>101.45947854486528</v>
       </c>
       <c r="BBM1">
-        <v>95.000000000001691</v>
+        <v>100.00000000000546</v>
       </c>
       <c r="BBN1">
-        <v>91.918124483379671</v>
+        <v>96.122972592421036</v>
       </c>
       <c r="BBO1">
-        <v>86.595965894062388</v>
+        <v>90.59214898008841</v>
       </c>
       <c r="BBP1">
-        <v>76.980580132629854</v>
+        <v>81.688726095723524</v>
       </c>
       <c r="BBQ1">
-        <v>65.417784899842175</v>
+        <v>70.124891681027918</v>
       </c>
       <c r="BBR1">
-        <v>51.45887438761185</v>
+        <v>57.331336343142254</v>
       </c>
       <c r="BBS1">
-        <v>34.992408152300222</v>
+        <v>42.603798263005999</v>
       </c>
       <c r="BBT1">
-        <v>18.13247860720357</v>
+        <v>26.262330456668366</v>
       </c>
       <c r="BBU1">
-        <v>5.4161166732581734E-13</v>
+        <v>10.000000000004498</v>
       </c>
       <c r="BBV1">
-        <v>-18.132478607199261</v>
+        <v>-6.2623304566557501</v>
       </c>
       <c r="BBW1">
-        <v>-34.992408152296115</v>
+        <v>-22.603798263000613</v>
       </c>
       <c r="BBX1">
-        <v>-51.458874387616198</v>
+        <v>-37.33133634316075</v>
       </c>
       <c r="BBY1">
-        <v>-65.417784899838438</v>
+        <v>-50.124891681029403</v>
       </c>
       <c r="BBZ1">
-        <v>-76.980580132631687</v>
+        <v>-61.688726095726039</v>
       </c>
       <c r="BCA1">
-        <v>-86.595965894065358</v>
+        <v>-70.592148980101911</v>
       </c>
       <c r="BCB1">
-        <v>-91.918124483377881</v>
+        <v>-76.122972592407152</v>
       </c>
       <c r="BCC1">
-        <v>-95.000000000000028</v>
+        <v>-80</v>
       </c>
       <c r="BCD1">
-        <v>-95.040157151876727</v>
+        <v>-81.459478544873804</v>
       </c>
       <c r="BCE1">
-        <v>-90.394955767285722</v>
+        <v>-78.876420227546475</v>
       </c>
       <c r="BCF1">
-        <v>-86.021527366030895</v>
+        <v>-75.835118822129886</v>
       </c>
       <c r="BCG1">
-        <v>-77.417784899843326</v>
+        <v>-74.124891681028487</v>
       </c>
       <c r="BCH1">
-        <v>-67.12723861898283</v>
+        <v>-69.016834312940972</v>
       </c>
       <c r="BCI1">
-        <v>-70.791398025518475</v>
+        <v>-70.888069510466707</v>
       </c>
       <c r="BCJ1">
-        <v>-59.881928273672905</v>
+        <v>-141.13794165252213</v>
       </c>
       <c r="BCK1">
-        <v>-3.79922786131507E-12</v>
+        <v>9.9999999999777476</v>
       </c>
       <c r="BCL1">
-        <v>59.881928273670844</v>
+        <v>161.13794165253213</v>
       </c>
       <c r="BCM1">
-        <v>70.791398025520522</v>
+        <v>90.888069510463396</v>
       </c>
       <c r="BCN1">
-        <v>67.127238618983711</v>
+        <v>89.016834312946344</v>
       </c>
       <c r="BCO1">
-        <v>77.417784899839376</v>
+        <v>94.124891681026099</v>
       </c>
       <c r="BCP1">
-        <v>86.021527366030639</v>
+        <v>95.835118822125338</v>
       </c>
       <c r="BCQ1">
-        <v>90.394955767285339</v>
+        <v>98.876420227560217</v>
       </c>
       <c r="BCR1">
-        <v>95.040157151875306</v>
+        <v>101.45947854486791</v>
       </c>
       <c r="BCS1">
-        <v>95.000000000000568</v>
+        <v>100.00000000000455</v>
       </c>
       <c r="BCT1">
-        <v>91.918124483377753</v>
+        <v>96.122972592413547</v>
       </c>
       <c r="BCU1">
-        <v>86.595965894064364</v>
+        <v>90.592148980091736</v>
       </c>
       <c r="BCV1">
-        <v>76.980580132629569</v>
+        <v>81.68872609572243</v>
       </c>
       <c r="BCW1">
-        <v>65.417784899840228</v>
+        <v>70.12489168102698</v>
       </c>
       <c r="BCX1">
-        <v>51.458874387616</v>
+        <v>57.331336343152721</v>
       </c>
       <c r="BCY1">
-        <v>34.992408152296179</v>
+        <v>42.603798263002211</v>
       </c>
       <c r="BCZ1">
-        <v>18.132478607204501</v>
+        <v>26.262330456674707</v>
       </c>
       <c r="BDA1">
-        <v>1.3393715384881267E-12</v>
+        <v>10.000000000003824</v>
       </c>
       <c r="BDB1">
-        <v>-18.132478607201897</v>
+        <v>-6.2623304566613491</v>
       </c>
       <c r="BDC1">
-        <v>-34.992408152293898</v>
+        <v>-22.603798263000535</v>
       </c>
       <c r="BDD1">
-        <v>-51.458874387613122</v>
+        <v>-37.331336343149147</v>
       </c>
       <c r="BDE1">
-        <v>-65.417784899842246</v>
+        <v>-50.124891681028217</v>
       </c>
       <c r="BDF1">
-        <v>-76.980580132628575</v>
+        <v>-61.688726095717968</v>
       </c>
       <c r="BDG1">
-        <v>-86.595965894064022</v>
+        <v>-70.592148980104724</v>
       </c>
       <c r="BDH1">
-        <v>-91.91812448337879</v>
+        <v>-76.122972592414825</v>
       </c>
       <c r="BDI1">
-        <v>-94.999999999999758</v>
+        <v>-80.000000000001819</v>
       </c>
       <c r="BDJ1">
-        <v>-95.040157151877438</v>
+        <v>-81.459478544880554</v>
       </c>
       <c r="BDK1">
-        <v>-90.394955767286774</v>
+        <v>-78.876420227550454</v>
       </c>
       <c r="BDL1">
-        <v>-86.02152736603081</v>
+        <v>-75.835118822124173</v>
       </c>
       <c r="BDM1">
-        <v>-77.417784899840257</v>
+        <v>-74.124891681021168</v>
       </c>
       <c r="BDN1">
-        <v>-67.127238618984734</v>
+        <v>-69.016834312944042</v>
       </c>
       <c r="BDO1">
-        <v>-70.791398025519129</v>
+        <v>-70.888069510470828</v>
       </c>
       <c r="BDP1">
-        <v>-59.881928273668663</v>
+        <v>-141.13794165251599</v>
       </c>
       <c r="BDQ1">
-        <v>-6.0866534247498317E-12</v>
+        <v>9.9999999999695781</v>
       </c>
       <c r="BDR1">
-        <v>59.881928273667398</v>
+        <v>161.13794165253273</v>
       </c>
       <c r="BDS1">
-        <v>70.791398025521787</v>
+        <v>90.88806951046557</v>
       </c>
       <c r="BDT1">
-        <v>67.12723861898175</v>
+        <v>89.016834312949115</v>
       </c>
       <c r="BDU1">
-        <v>77.417784899841294</v>
+        <v>94.124891681027535</v>
       </c>
       <c r="BDV1">
-        <v>86.021527366029915</v>
+        <v>95.835118822125878</v>
       </c>
       <c r="BDW1">
-        <v>90.394955767287357</v>
+        <v>98.876420227568701</v>
       </c>
       <c r="BDX1">
-        <v>95.040157151877395</v>
+        <v>101.45947854486677</v>
       </c>
       <c r="BDY1">
-        <v>94.999999999998522</v>
+        <v>99.999999999996362</v>
       </c>
       <c r="BDZ1">
-        <v>91.918124483380168</v>
+        <v>96.1229725924196</v>
       </c>
       <c r="BEA1">
-        <v>86.595965894060896</v>
+        <v>90.592148980086819</v>
       </c>
       <c r="BEB1">
-        <v>76.98058013263271</v>
+        <v>81.688726095731965</v>
       </c>
       <c r="BEC1">
-        <v>65.417784899840456</v>
+        <v>70.124891681028956</v>
       </c>
       <c r="BED1">
-        <v>51.458874387610472</v>
+        <v>57.33133634313684</v>
       </c>
       <c r="BEE1">
-        <v>34.992408152298736</v>
+        <v>42.60379826300602</v>
       </c>
       <c r="BEF1">
-        <v>18.13247860720287</v>
+        <v>26.262330456665637</v>
       </c>
       <c r="BEG1">
-        <v>1.3413235455991233E-12</v>
+        <v>9.9999999999921219</v>
       </c>
       <c r="BEH1">
-        <v>-18.132478607200291</v>
+        <v>-6.2623304566643725</v>
       </c>
       <c r="BEI1">
-        <v>-34.992408152296562</v>
+        <v>-22.60379826299399</v>
       </c>
       <c r="BEJ1">
-        <v>-51.458874387612433</v>
+        <v>-37.331336343152856</v>
       </c>
       <c r="BEK1">
-        <v>-65.417784899841308</v>
+        <v>-50.124891681031187</v>
       </c>
       <c r="BEL1">
-        <v>-76.980580132633719</v>
+        <v>-61.688726095733998</v>
       </c>
       <c r="BEM1">
-        <v>-86.595965894061621</v>
+        <v>-70.592148980097548</v>
       </c>
       <c r="BEN1">
-        <v>-91.918124483377596</v>
+        <v>-76.122972592401993</v>
       </c>
       <c r="BEO1">
-        <v>-94.999999999999261</v>
+        <v>-79.999999999992724</v>
       </c>
       <c r="BEP1">
-        <v>-95.040157151875604</v>
+        <v>-81.459478544870819</v>
       </c>
       <c r="BEQ1">
-        <v>-90.394955767285666</v>
+        <v>-78.876420227544585</v>
       </c>
       <c r="BER1">
-        <v>-86.021527366032487</v>
+        <v>-75.835118822127839</v>
       </c>
       <c r="BES1">
-        <v>-77.417784899843141</v>
+        <v>-74.124891681033859</v>
       </c>
       <c r="BET1">
-        <v>-67.127238618981437</v>
+        <v>-69.016834312938812</v>
       </c>
       <c r="BEU1">
-        <v>-70.791398025522071</v>
+        <v>-70.888069510470416</v>
       </c>
       <c r="BEV1">
-        <v>-59.881928273671264</v>
+        <v>-141.13794165251875</v>
       </c>
       <c r="BEW1">
-        <v>-1.6665555626092464E-12</v>
+        <v>9.9999999999790301</v>
       </c>
       <c r="BEX1">
-        <v>59.881928273664798</v>
+        <v>161.13794165252656</v>
       </c>
       <c r="BEY1">
-        <v>70.791398025520692</v>
+        <v>90.888069510466806</v>
       </c>
       <c r="BEZ1">
-        <v>67.127238618983725</v>
+        <v>89.0168343129438</v>
       </c>
       <c r="BFA1">
-        <v>77.417784899841081</v>
+        <v>94.124891681031102</v>
       </c>
       <c r="BFB1">
-        <v>86.021527366031407</v>
+        <v>95.835118822121544</v>
       </c>
       <c r="BFC1">
-        <v>90.394955767285907</v>
+        <v>98.876420227560843</v>
       </c>
       <c r="BFD1">
-        <v>95.040157151876457</v>
+        <v>101.45947854486579</v>
       </c>
       <c r="BFE1">
-        <v>95.000000000001322</v>
+        <v>100.00000000000819</v>
       </c>
       <c r="BFF1">
-        <v>91.918124483380126</v>
+        <v>96.122972592417725</v>
       </c>
       <c r="BFG1">
-        <v>86.595965894063667</v>
+        <v>90.592148980089817</v>
       </c>
       <c r="BFH1">
-        <v>76.980580132628518</v>
+        <v>81.688726095719957</v>
       </c>
       <c r="BFI1">
-        <v>65.417784899844293</v>
+        <v>70.12489168102644</v>
       </c>
       <c r="BFJ1">
-        <v>51.458874387614621</v>
+        <v>57.331336343147655</v>
       </c>
       <c r="BFK1">
-        <v>34.992408152294686</v>
+        <v>42.603798263002616</v>
       </c>
       <c r="BFL1">
-        <v>18.132478607203307</v>
+        <v>26.262330456667875</v>
       </c>
       <c r="BFM1">
-        <v>9.2720337772343462E-14</v>
+        <v>10.000000000001451</v>
       </c>
       <c r="BFN1">
-        <v>-18.132478607199587</v>
+        <v>-6.2623304566643405</v>
       </c>
       <c r="BFO1">
-        <v>-34.992408152295589</v>
+        <v>-22.603798263001245</v>
       </c>
       <c r="BFP1">
-        <v>-51.458874387613861</v>
+        <v>-37.33133634314931</v>
       </c>
       <c r="BFQ1">
-        <v>-65.417784899839205</v>
+        <v>-50.124891681032921</v>
       </c>
       <c r="BFR1">
-        <v>-76.980580132629839</v>
+        <v>-61.688726095725315</v>
       </c>
       <c r="BFS1">
-        <v>-86.595965894065984</v>
+        <v>-70.592148980102536</v>
       </c>
       <c r="BFT1">
-        <v>-91.918124483378762</v>
+        <v>-76.122972592412935</v>
       </c>
       <c r="BFU1">
-        <v>-94.999999999999005</v>
+        <v>-79.999999999998181</v>
       </c>
       <c r="BFV1">
-        <v>-95.040157151876301</v>
+        <v>-81.459478544877626</v>
       </c>
       <c r="BFW1">
-        <v>-90.394955767286717</v>
+        <v>-78.876420227552472</v>
       </c>
       <c r="BFX1">
-        <v>-86.021527366031023</v>
+        <v>-75.835118822128635</v>
       </c>
       <c r="BFY1">
-        <v>-77.417784899843369</v>
+        <v>-74.124891681029652</v>
       </c>
       <c r="BFZ1">
-        <v>-67.12723861898337</v>
+        <v>-69.016834312940489</v>
       </c>
       <c r="BGA1">
-        <v>-70.791398025518987</v>
+        <v>-70.888069510463183</v>
       </c>
       <c r="BGB1">
-        <v>-59.881928273673864</v>
+        <v>-141.13794165252145</v>
       </c>
       <c r="BGC1">
-        <v>-4.8634758278169343E-12</v>
+        <v>9.9999999999772271</v>
       </c>
       <c r="BGD1">
-        <v>59.881928273669274</v>
+        <v>161.13794165252207</v>
       </c>
       <c r="BGE1">
-        <v>70.791398025517751</v>
+        <v>90.888069510460952</v>
       </c>
       <c r="BGF1">
-        <v>67.127238618982517</v>
+        <v>89.016834312944695</v>
       </c>
       <c r="BGG1">
-        <v>77.417784899841095</v>
+        <v>94.12489168102546</v>
       </c>
       <c r="BGH1">
-        <v>86.021527366028806</v>
+        <v>95.835118822110857</v>
       </c>
       <c r="BGI1">
-        <v>90.394955767287456</v>
+        <v>98.876420227571458</v>
       </c>
       <c r="BGJ1">
-        <v>95.040157151877182</v>
+        <v>101.45947854487393</v>
       </c>
       <c r="BGK1">
-        <v>94.999999999999275</v>
+        <v>100</v>
       </c>
       <c r="BGL1">
-        <v>91.918124483379316</v>
+        <v>96.12297259241771</v>
       </c>
       <c r="BGM1">
-        <v>86.595965894066097</v>
+        <v>90.592148980094436</v>
       </c>
       <c r="BGN1">
-        <v>76.980580132631644</v>
+        <v>81.688726095731852</v>
       </c>
       <c r="BGO1">
-        <v>65.417784899840825</v>
+        <v>70.124891681031158</v>
       </c>
       <c r="BGP1">
-        <v>51.458874387615296</v>
+        <v>57.331336343147456</v>
       </c>
       <c r="BGQ1">
-        <v>34.992408152298289</v>
+        <v>42.603798263009502</v>
       </c>
       <c r="BGR1">
-        <v>18.132478607201683</v>
+        <v>26.262330456670025</v>
       </c>
       <c r="BGS1">
-        <v>-3.6007500600312356E-13</v>
+        <v>9.9999999999874767</v>
       </c>
       <c r="BGT1">
-        <v>-18.132478607201215</v>
+        <v>-6.2623304566661666</v>
       </c>
       <c r="BGU1">
-        <v>-34.992408152291993</v>
+        <v>-22.603798262994346</v>
       </c>
       <c r="BGV1">
-        <v>-51.458874387614429</v>
+        <v>-37.331336343150504</v>
       </c>
       <c r="BGW1">
-        <v>-65.417784899841081</v>
+        <v>-50.124891681021424</v>
       </c>
       <c r="BGX1">
-        <v>-76.980580132626685</v>
+        <v>-61.688726095713392</v>
       </c>
       <c r="BGY1">
-        <v>-86.595965894063596</v>
+        <v>-70.592148980102962</v>
       </c>
       <c r="BGZ1">
-        <v>-91.918124483379572</v>
+        <v>-76.122972592413802</v>
       </c>
       <c r="BHA1">
-        <v>-95.000000000001037</v>
+        <v>-80.000000000002728</v>
       </c>
       <c r="BHB1">
-        <v>-95.040157151875604</v>
+        <v>-81.459478544870123</v>
       </c>
       <c r="BHC1">
-        <v>-90.394955767286064</v>
+        <v>-78.876420227551364</v>
       </c>
       <c r="BHD1">
-        <v>-86.021527366030597</v>
+        <v>-75.835118822124755</v>
       </c>
       <c r="BHE1">
-        <v>-77.417784899841763</v>
+        <v>-74.124891681031755</v>
       </c>
       <c r="BHF1">
-        <v>-67.127238618984549</v>
+        <v>-69.016834312941086</v>
       </c>
       <c r="BHG1">
-        <v>-70.79139802552065</v>
+        <v>-70.888069510469293</v>
       </c>
       <c r="BHH1">
-        <v>-59.881928273669388</v>
+        <v>-141.13794165251528</v>
       </c>
       <c r="BHI1">
-        <v>-6.0140330140355357E-12</v>
+        <v>9.9999999999811084</v>
       </c>
       <c r="BHJ1">
-        <v>59.881928273666674</v>
+        <v>161.1379416525215</v>
       </c>
       <c r="BHK1">
-        <v>70.791398025522938</v>
+        <v>90.888069510465144</v>
       </c>
       <c r="BHL1">
-        <v>67.127238618981877</v>
+        <v>89.016834312952867</v>
       </c>
       <c r="BHM1">
-        <v>77.417784899840854</v>
+        <v>94.12489168102644</v>
       </c>
       <c r="BHN1">
-        <v>86.021527366030242</v>
+        <v>95.835118822112619</v>
       </c>
       <c r="BHO1">
-        <v>90.39495576728639</v>
+        <v>98.876420227561951</v>
       </c>
       <c r="BHP1">
-        <v>95.040157151876471</v>
+        <v>101.45947854486798</v>
       </c>
       <c r="BHQ1">
-        <v>94.999999999999545</v>
+        <v>99.999999999994543</v>
       </c>
       <c r="BHR1">
-        <v>91.918124483380396</v>
+        <v>96.122972592420851</v>
       </c>
       <c r="BHS1">
-        <v>86.595965894062616</v>
+        <v>90.592148980088695</v>
       </c>
       <c r="BHT1">
-        <v>76.980580132634785</v>
+        <v>81.68872609573873</v>
       </c>
       <c r="BHU1">
-        <v>65.417784899842914</v>
+        <v>70.124891681032636</v>
       </c>
       <c r="BHV1">
-        <v>51.458874387613861</v>
+        <v>57.331336343141935</v>
       </c>
       <c r="BHW1">
-        <v>34.992408152300506</v>
+        <v>42.603798263013438</v>
       </c>
       <c r="BHX1">
-        <v>18.13247860720239</v>
+        <v>26.262330456665598</v>
       </c>
       <c r="BHY1">
-        <v>6.6505854060241718E-13</v>
+        <v>10.000000000003627</v>
       </c>
       <c r="BHZ1">
-        <v>-18.132478607200063</v>
+        <v>-6.2623304566625428</v>
       </c>
       <c r="BIA1">
-        <v>-34.99240815229814</v>
+        <v>-22.603798263005025</v>
       </c>
       <c r="BIB1">
-        <v>-51.45887438761028</v>
+        <v>-37.331336343142944</v>
       </c>
       <c r="BIC1">
-        <v>-65.417784899838992</v>
+        <v>-50.124891681022845</v>
       </c>
       <c r="BID1">
-        <v>-76.980580132631843</v>
+        <v>-61.688726095732136</v>
       </c>
       <c r="BIE1">
-        <v>-86.595965894060328</v>
+        <v>-70.592148980099438</v>
       </c>
       <c r="BIF1">
-        <v>-91.91812448337852</v>
+        <v>-76.122972592409013</v>
       </c>
       <c r="BIG1">
-        <v>-94.999999999998252</v>
+        <v>-79.999999999994543</v>
       </c>
       <c r="BIH1">
-        <v>-95.040157151877622</v>
+        <v>-81.459478544871104</v>
       </c>
       <c r="BII1">
-        <v>-90.394955767287115</v>
+        <v>-78.876420227555329</v>
       </c>
       <c r="BIJ1">
-        <v>-86.021527366029119</v>
+        <v>-75.835118822122851</v>
       </c>
       <c r="BIK1">
-        <v>-77.41778489984199</v>
+        <v>-74.124891681028203</v>
       </c>
       <c r="BIL1">
-        <v>-67.127238618982602</v>
+        <v>-69.016834312946983</v>
       </c>
       <c r="BIM1">
-        <v>-70.791398025521787</v>
+        <v>-70.888069510468029</v>
       </c>
       <c r="BIN1">
-        <v>-59.881928273672429</v>
-      </c>
-      <c r="BIO1">
-        <v>-3.8676719063272722E-12</v>
+        <v>-141.13794165251602</v>
       </c>
     </row>
   </sheetData>
